--- a/策划文档/文案_设定.xlsx
+++ b/策划文档/文案_设定.xlsx
@@ -4,171 +4,1357 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="城池" sheetId="1" r:id="rId1"/>
-    <sheet name="文官" sheetId="2" r:id="rId2"/>
-    <sheet name="武官" sheetId="3" r:id="rId3"/>
+    <sheet name="势力武将" sheetId="6" r:id="rId1"/>
+    <sheet name="城池" sheetId="1" r:id="rId2"/>
+    <sheet name="NPC城池" sheetId="4" r:id="rId3"/>
+    <sheet name="文官" sheetId="2" r:id="rId4"/>
+    <sheet name="武官" sheetId="3" r:id="rId5"/>
+    <sheet name="十三州" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当有武卫骑后，变红武卫骑</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+等有虎豹骑之后，变骠骑</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="352">
-  <si>
-    <t>城池</t>
-  </si>
-  <si>
-    <t>大战</t>
-  </si>
-  <si>
-    <t>关隘</t>
-  </si>
-  <si>
-    <t>山</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="740">
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>铁骑</t>
+  </si>
+  <si>
+    <t>马超</t>
+  </si>
+  <si>
+    <t>马云禄</t>
+  </si>
+  <si>
+    <t>马岱</t>
+  </si>
+  <si>
+    <t>马休</t>
+  </si>
+  <si>
+    <t>马铁</t>
+  </si>
+  <si>
+    <t>大弓</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>魏延</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>刘封</t>
+  </si>
+  <si>
+    <t>孟达</t>
+  </si>
+  <si>
+    <t>连弩</t>
+  </si>
+  <si>
+    <t>李严</t>
+  </si>
+  <si>
+    <t>吴兰</t>
+  </si>
+  <si>
+    <t>元戎弩</t>
+  </si>
+  <si>
+    <t>姜维</t>
+  </si>
+  <si>
+    <t>大刀</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>长枪</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>张苞</t>
+  </si>
+  <si>
+    <t>神武</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>禁卫</t>
+  </si>
+  <si>
+    <t>医士</t>
+  </si>
+  <si>
+    <t>华佗</t>
+  </si>
+  <si>
+    <t>辅佐</t>
+  </si>
+  <si>
+    <t>马良</t>
+  </si>
+  <si>
+    <t>糜竺</t>
+  </si>
+  <si>
+    <t>军师</t>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+  </si>
+  <si>
+    <t>法正</t>
+  </si>
+  <si>
+    <t>马谡</t>
+  </si>
+  <si>
+    <t>隐士</t>
+  </si>
+  <si>
+    <t>徐庶</t>
+  </si>
+  <si>
+    <t>器械</t>
+  </si>
+  <si>
+    <t>黄月英</t>
+  </si>
+  <si>
+    <t>攻城车</t>
+  </si>
+  <si>
+    <t>黄权</t>
+  </si>
+  <si>
+    <t>神机</t>
+  </si>
+  <si>
+    <t>庞统</t>
+  </si>
+  <si>
+    <t>无当</t>
+  </si>
+  <si>
+    <t>张嶷</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>白毦</t>
+  </si>
+  <si>
+    <t>陈到</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>敢死</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>郝昭</t>
+  </si>
+  <si>
+    <t>盾</t>
+  </si>
+  <si>
+    <t>曹仁</t>
+  </si>
+  <si>
+    <t>曹洪</t>
+  </si>
+  <si>
+    <t>骠骑</t>
+  </si>
+  <si>
+    <t>张辽</t>
+  </si>
+  <si>
+    <t>曹休</t>
+  </si>
+  <si>
+    <t>曹昂</t>
+  </si>
+  <si>
+    <t>王忠、卞喜</t>
+  </si>
+  <si>
+    <t>先锋</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>乐进</t>
+  </si>
+  <si>
+    <t>曹纯</t>
+  </si>
+  <si>
+    <t>车冑</t>
+  </si>
+  <si>
+    <t>斧</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>白马</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>戟</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>曹彰</t>
+  </si>
+  <si>
+    <t>夏侯恩</t>
+  </si>
+  <si>
+    <t>谋士</t>
+  </si>
+  <si>
+    <t>郭嘉</t>
+  </si>
+  <si>
+    <t>戏志才</t>
+  </si>
+  <si>
+    <t>辩士</t>
+  </si>
+  <si>
+    <t>曹植</t>
+  </si>
+  <si>
+    <t>说客</t>
+  </si>
+  <si>
+    <t>杨修</t>
+  </si>
+  <si>
+    <t>蒋干</t>
+  </si>
+  <si>
+    <t>荀彧</t>
+  </si>
+  <si>
+    <t>陈登</t>
+  </si>
+  <si>
+    <t>钟繇</t>
+  </si>
+  <si>
+    <t>曹冲</t>
+  </si>
+  <si>
+    <t>内政</t>
+  </si>
+  <si>
+    <t>荀攸</t>
+  </si>
+  <si>
+    <t>投石车</t>
+  </si>
+  <si>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>刘晔</t>
+  </si>
+  <si>
+    <t>美人</t>
+  </si>
+  <si>
+    <t>蔡文姬</t>
+  </si>
+  <si>
+    <t>红颜</t>
+  </si>
+  <si>
+    <t>甄姬</t>
+  </si>
+  <si>
+    <t>毒士</t>
+  </si>
+  <si>
+    <t>司马懿</t>
+  </si>
+  <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>弓骑</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>庞德</t>
+  </si>
+  <si>
+    <t>李典</t>
+  </si>
+  <si>
+    <t>虎豹骑</t>
+  </si>
+  <si>
+    <t>曹真</t>
+  </si>
+  <si>
+    <t>曹休、曹纯</t>
+  </si>
+  <si>
+    <t>枪</t>
+  </si>
+  <si>
+    <t>文聘、张绣</t>
+  </si>
+  <si>
+    <t>青州兵</t>
+  </si>
+  <si>
+    <t>泰山军</t>
+  </si>
+  <si>
+    <t>渔阳突骑</t>
+  </si>
+  <si>
+    <t>武卫骑</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>统帅</t>
+  </si>
+  <si>
+    <t>周瑜</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆逊、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诸葛恪</t>
+    </r>
+  </si>
+  <si>
+    <t>程普</t>
+  </si>
+  <si>
+    <t>火船</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>凌统</t>
+  </si>
+  <si>
+    <t>黄盖、朱治、陈武、董袭</t>
+  </si>
+  <si>
+    <t>张承、祖茂、周鲂、凌操</t>
+  </si>
+  <si>
+    <t>苏飞、左奕、全祎</t>
+  </si>
+  <si>
+    <t>战船</t>
+  </si>
+  <si>
+    <t>吕蒙</t>
+  </si>
+  <si>
+    <t>朱然</t>
+  </si>
+  <si>
+    <t>蒋钦</t>
+  </si>
+  <si>
+    <t>孙翊、朱异</t>
+  </si>
+  <si>
+    <t>孙朗</t>
+  </si>
+  <si>
+    <t>鲁肃</t>
+  </si>
+  <si>
+    <t>诸葛瑾</t>
+  </si>
+  <si>
+    <t>孙策</t>
+  </si>
+  <si>
+    <t>虎卫</t>
+  </si>
+  <si>
+    <t>孙坚</t>
+  </si>
+  <si>
+    <t>小乔、大乔</t>
+  </si>
+  <si>
+    <t>弓</t>
+  </si>
+  <si>
+    <t>太史慈</t>
+  </si>
+  <si>
+    <t>韩当</t>
+  </si>
+  <si>
+    <t>孙尚香</t>
+  </si>
+  <si>
+    <t>孙恒</t>
+  </si>
+  <si>
+    <t>周泰</t>
+  </si>
+  <si>
+    <t>张昭</t>
+  </si>
+  <si>
+    <t>张纮</t>
+  </si>
+  <si>
+    <t>锦帆</t>
+  </si>
+  <si>
+    <t>陆抗</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>先登</t>
+  </si>
+  <si>
+    <t>麴义</t>
+  </si>
+  <si>
+    <t>淳于琼</t>
+  </si>
+  <si>
+    <t>蒋义渠、韩猛</t>
+  </si>
+  <si>
+    <t>吕旷、高干、周昂、王门、郭援</t>
+  </si>
+  <si>
+    <t>高览</t>
+  </si>
+  <si>
+    <t>牵招</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>颜良</t>
+  </si>
+  <si>
+    <t>文丑</t>
+  </si>
+  <si>
+    <t>纪灵</t>
+  </si>
+  <si>
+    <t>战车</t>
+  </si>
+  <si>
+    <t>袁术</t>
+  </si>
+  <si>
+    <t>沮授</t>
+  </si>
+  <si>
+    <t>审配、逢纪</t>
+  </si>
+  <si>
+    <t>郭图、许攸</t>
+  </si>
+  <si>
+    <t>田丰</t>
+  </si>
+  <si>
+    <t>王修</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>陷阵</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>成廉</t>
+  </si>
+  <si>
+    <t>马腾</t>
+  </si>
+  <si>
+    <t>李傕、郭汜</t>
+  </si>
+  <si>
+    <t>牛辅、张济、段煨</t>
+  </si>
+  <si>
+    <t>樊稠、李蒙、王方、胡轸</t>
+  </si>
+  <si>
+    <t>华雄</t>
+  </si>
+  <si>
+    <t>徐荣</t>
+  </si>
+  <si>
+    <t>狼骑</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>韩遂</t>
+  </si>
+  <si>
+    <t>魏续、宋宪</t>
+  </si>
+  <si>
+    <t>曹性</t>
+  </si>
+  <si>
+    <t>郝萌</t>
+  </si>
+  <si>
+    <t>侯成</t>
+  </si>
+  <si>
+    <t>巾帼</t>
+  </si>
+  <si>
+    <t>吕玲绮</t>
+  </si>
+  <si>
+    <t>陈宫</t>
+  </si>
+  <si>
+    <t>貂蝉</t>
+  </si>
+  <si>
+    <t>董卓</t>
+  </si>
+  <si>
+    <t>蔡邕</t>
+  </si>
+  <si>
+    <t>李儒</t>
+  </si>
+  <si>
+    <t>李肃</t>
+  </si>
+  <si>
+    <t>刺甲</t>
+  </si>
+  <si>
+    <t>邓艾</t>
+  </si>
+  <si>
+    <t>司马师</t>
+  </si>
+  <si>
+    <t>郭淮</t>
+  </si>
+  <si>
+    <t>邓忠</t>
+  </si>
+  <si>
+    <t>孙秀、杨欣</t>
+  </si>
+  <si>
+    <t>司马炎</t>
+  </si>
+  <si>
+    <t>司马昭</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羊祜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张春华</t>
+    </r>
+  </si>
+  <si>
+    <t>杜预、辛宪英</t>
+  </si>
+  <si>
+    <t>王元姬</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>文鸯</t>
+  </si>
+  <si>
+    <t>杨济、成济</t>
+  </si>
+  <si>
+    <t>王谈、文虎</t>
+  </si>
+  <si>
+    <t>司马攸</t>
+  </si>
+  <si>
+    <t>裴秀</t>
+  </si>
+  <si>
+    <t>卫瓘</t>
+  </si>
+  <si>
+    <t>马隆</t>
+  </si>
+  <si>
+    <t>钟会</t>
+  </si>
+  <si>
+    <t>贾充</t>
+  </si>
+  <si>
+    <t>短弓</t>
+  </si>
+  <si>
+    <t>胡奋</t>
+  </si>
+  <si>
+    <t>1长安</t>
+  </si>
+  <si>
+    <t>统辖今陕西省一带，古为雍州州府，函谷为障，陇蜀沃野，渭水通衢，金城千里。其名有长治久安之寓意。董卓曾挟天子迁都于此，后遭吕布、王允刺杀，其部将李傕郭汜击退吕布控制长安，掌握朝纲。</t>
+  </si>
+  <si>
+    <t>长安现称西安</t>
+  </si>
+  <si>
+    <t>2洛阳</t>
+  </si>
+  <si>
+    <t>统辖今河南省一带，古为司隶州府，东汉帝都。自光武定国，以为东都，乃帝业之中心。其名由来是“其居洛水之北，水北而为阳”故名洛阳。汉末曾因十常侍之乱，董卓进京祸乱朝纲，导致天下诸侯共伐，战乱中董卓纵火焚毁帝都，迁至长安。后汉帝归朝重建洛阳，此地仍为天下龙脉之处。</t>
+  </si>
+  <si>
+    <t>汉中如今仍然沿用</t>
+  </si>
+  <si>
+    <t>3汉中</t>
+  </si>
+  <si>
+    <t>统辖今陕西南部一带，古为益州门户，北靠秦岭，南连大巴，前有雄关阳平，为易守难攻之处，有着“得汉中者得天下”一说。其名因城坐落汉江中游，故名汉中。著名的定军山之战便是在此处发生，老将黄忠老当益壮，大破魏军，斩杀曹魏名将夏侯渊，击退张颌所部。此后汉中便为蜀汉之门户，北伐之前哨。</t>
+  </si>
+  <si>
+    <t>河南还有许昌（颍川、中牟）、汝南（谯、宋县、阳安）这类重镇</t>
+  </si>
+  <si>
+    <t>4晋阳</t>
+  </si>
+  <si>
+    <t>统辖今山西省一带，古为并州州府，控带山河，踞天下之肩背，襟四塞之要冲，控五原之都邑。其因周时地处晋国之内，又居悬瓮山之阳面，故名晋阳。晋阳作为并州重镇，东临太行山，西有汾河、吕梁山，北为雁门关，南靠霍太山、高壁岭。且当地民风剽悍，多猛将。</t>
+  </si>
+  <si>
+    <t>并州出去晋阳（雁门、太原、襄垣）外还有上党（西河、壶关、长子）</t>
+  </si>
+  <si>
+    <t>5邺城</t>
+  </si>
+  <si>
+    <t>统辖今河北省一带，古为冀州州府，古之侯都，三台依墙而筑，七子建安风骨，传世佳语。“邺”之名始于黄帝之孙颛顼孙女女修之子大业始居地，曾为袁绍势力核心城市，后因官渡一败，建安九年，曹操北上破毛城、邯郸，降易阳、涉县。五月水淹邺城，七月破袁救兵，同月进军邺。后为曹魏五都之一，城西北有冰井台、铜雀台、金虎台。</t>
+  </si>
+  <si>
+    <t>邺城下有（钜鹿、常山、白马）</t>
+  </si>
+  <si>
+    <t>6襄平</t>
+  </si>
+  <si>
+    <t>统辖今辽宁省一带，古为幽州重镇，燕国古邑，东、北衍水，西小辽水，西南首山在望。筑长城以为障。曾为公孙氏燕国得帝都，后司马懿于其激战襄平，大破之。此后襄平纳入曹魏版图为边疆重镇之一。</t>
+  </si>
+  <si>
+    <t>辽宁在曹魏时期属幽州，分为辽东郡（治所襄平）、玄菟郡（治所高句骊县）、昌黎郡（治所昌黎县）</t>
+  </si>
+  <si>
+    <t>7檅城</t>
+  </si>
+  <si>
+    <t>统辖今吉林一带，古为扶余塞外之城。在玄菟北千里，南与高句丽，东与挹娄，西与鲜卑接，北有弱水，地方二千里，本穢地也。户八万，其民土著，有宫室、仓库、牢狱，多山陵、广泽，于东夷之域最平敞。土地宜五谷，不生五果。其人粗大，性强勇谨厚，不冠钞。</t>
+  </si>
+  <si>
+    <t>穢城</t>
+  </si>
+  <si>
+    <t>8挹娄</t>
+  </si>
+  <si>
+    <t>统辖今黑龙江一带，古为肃慎之国也。在夫馀东北千余里，东滨大海，南与北沃沮接，不知其北所极。土地多山险。自汉兴以后，臣属夫馀。种众虽少，而多勇力，处山险，又善射，发能入人目。弓长四尺，力如弩。长一尺八寸，青石为镞，镞皆施毒，中人即死。便乘船，邻国畏患，而卒不能服。</t>
+  </si>
+  <si>
+    <t>挹娄</t>
+  </si>
+  <si>
+    <t>9襄阳</t>
+  </si>
+  <si>
+    <t>统辖今湖北一带，古为荆州州府，南船北马，七省通达，乱世中之定所，众贤广聚于此。其名由“驾山而下谓之‘襄’”,襄阳城南岘山北麓的十里小河因而名叫“襄水”,襄阳城因此而得名。曾为刘表势力核心地区，孙坚与其略有交锋，后孙坚、刘表陨落，此地成为魏蜀吴三家必争之地，曾发生过三国时期转折得襄樊之战，关羽水淹七军，擒于禁，围曹仁，威震华夏。吕蒙白衣渡江奇袭荆州，迫使关羽败走麦城，兵败而亡。</t>
+  </si>
+  <si>
+    <t>襄阳下有（汉津、新城）</t>
+  </si>
+  <si>
+    <t>10长沙</t>
+  </si>
+  <si>
+    <t>统辖今湖南一带，古为荆州重镇，江陵之咽喉，扼控蛮越，束带上游，可襟带万里。其名来源于长沙星，《史记·天官书》云:“天则有列宿,地则有州域。”二十八宿中轸宿有一附星名为“长沙”。号称江东猛虎的孙坚便是长沙太守，后因北伐讨董长沙被刘表所夺，委任韩玄为长沙太守。才出现孙家后人开拓江东，问鼎中原的霸业。演义中猛将黄忠和魏延也在此处归顺刘备。</t>
+  </si>
+  <si>
+    <t>11寿春</t>
+  </si>
+  <si>
+    <t>统辖今安徽省一带，古为扬州重镇，后曹魏将其改为扬州治所。楚国故都，背靠八公山，淮南旧城。“寿”之东为“春”，故秦国建立郡县的时候命名为“寿春邑”，即“久远土丘东侧的一个城镇”的意思。三国时期为袁术势力根基之地，后因其称帝被曹操所灭，著名的寿春之战亦是在此地发生，司马懿全歼诸葛诞、吴国联军近20万人。</t>
+  </si>
+  <si>
+    <t>寿春下有(合淝、乌江)</t>
+  </si>
+  <si>
+    <t>12柴桑</t>
+  </si>
+  <si>
+    <t>统辖今江西省一带，古为扬州重镇，指娄水为浔阳，即家园为庐阜，饮柴桑之酒，一觞独进，鼓少文之琴，众山皆响。其因县西南有柴桑山得名。三国时期东吴重驻扎地，曾为赤壁之战吴魏对峙点，堪称东吴门户，亦称西望荆襄之踏板。</t>
+  </si>
+  <si>
+    <t>柴桑下有（九江、武昌、鄱阳、南昌、高昌、陆口）</t>
+  </si>
+  <si>
+    <t>13会稽</t>
+  </si>
+  <si>
+    <t>统辖今浙江省一带，古为扬州重镇，赫赫会稽郡，潭潭府公居。一州胜绝处，毕集于庭除。其名相传夏禹至苗山大会诸侯，计功封爵，始名会稽。三国时期孙策开拓基业之地，江东子弟多才俊。</t>
+  </si>
+  <si>
+    <t>会稽下有（章安、始新、建安）</t>
+  </si>
+  <si>
+    <t>14建业</t>
+  </si>
+  <si>
+    <t>统辖今江苏省一带，古为扬州州府，旧为冶铸重镇，临江控淮，钟山虎踞，恃险而依。其名有建功立业之地，又名石头城。三国时期东吴国都，诸葛亮在赤壁之战前夕出使孙吴，经过当时的建业，赞叹道</t>
+  </si>
+  <si>
+    <t>15建安</t>
+  </si>
+  <si>
+    <t>统辖今福建省一带，古为扬州重镇，白鹤东飞拂空翠，铁狮南峙开雄据。中护高人清隐堂，云盘雾结不知处。三国时期孙策起家地之一，同献帝年号，寓意建立安定。</t>
+  </si>
+  <si>
+    <t>16成都</t>
+  </si>
+  <si>
+    <t>统辖今四川省一带，古为益州州府，蜀地心位，河网众集，民多所向往，其城又名</t>
+  </si>
+  <si>
+    <t>17巴郡</t>
+  </si>
+  <si>
+    <t>统辖今重庆省一带，古为益州重镇，北起大巴，川东岭谷，东接武陵，蜀道难行。因其地处大巴山脉，得名巴郡，三国时期曾是老将严颜镇守之地，后被张飞击败，心悦诚服而降蜀。此地靠近三峡，地势险峻，多山路，石道。且当地巴人骁勇善战，山地作战能力强。在此地曹魏和蜀汉进行过巴西之战，张飞大破张颌所部，魏军被迫退回汉中。</t>
+  </si>
+  <si>
+    <t>巴郡（江州为其治所）</t>
+  </si>
+  <si>
+    <t>18武陵</t>
+  </si>
+  <si>
+    <t>统辖今贵州省一带，古为荆州重镇，山中桃花，世外之地，功成拂衣去，归入武陵源。武陵也因山脉得名，与巴郡相接，多山地，三国时期曾属蜀汉版图，后归入吴国版图。为黔地区的门户，战略要冲。</t>
+  </si>
+  <si>
+    <t>19南中</t>
+  </si>
+  <si>
+    <t>统辖今云南省一带，古为益州边郡，多部族，好战勇武，其名泛指岭南各处，演义中为南蛮王孟获领地，后因诸葛亮七擒七纵故降蜀。并保证从此不再作乱反叛，为蜀国北伐出过一份力。</t>
+  </si>
+  <si>
+    <t>南中</t>
+  </si>
+  <si>
+    <t>20金城</t>
+  </si>
+  <si>
+    <t>统辖今甘肃南部一带，古为凉州重镇，群山环绕，民风剽悍，朔风过此地，多锐骑。其因城池固若金汤得名金城。三国时期为北宫伯玉、边章韩遂等人起兵之处，凉州多骑，民风骁勇，后被魏将夏侯渊大破之，此后纳入曹魏版图。</t>
+  </si>
+  <si>
+    <t>21武威</t>
+  </si>
+  <si>
+    <t>统辖今甘肃省一带，古为凉州州府，旧域军址，多经征战，其土金行，地寒而坚。武威多豪强，西凉董卓便是武威人，自西凉起兵，镇守边疆数十载，可看出武威人的善战。谋士贾诩亦是武威人，曾在张绣麾下献计，大破曹军，斩杀曹昂、典韦、曹安民等人。后为曹魏核心谋士团成员，运筹帷幄。</t>
+  </si>
+  <si>
+    <t>武威（令居、张掖、酒泉）、西平（狄道、金城）</t>
+  </si>
+  <si>
+    <t>22敦煌</t>
+  </si>
+  <si>
+    <t>统辖今甘肃北部一带，古为凉州重镇，敦煌壁画，举世闻名，常年风沙，部族混居。敦，大也；煌，盛也，曾因西域诸国繁荣而得名敦煌。三国时期为曹贼北方门户，中西贸易之咽喉，曾有名士仓慈治理敦煌七年，使其能在乱世中维持繁荣昌盛。可以称之为沙漠中的珍珠。</t>
+  </si>
+  <si>
+    <t>23北海</t>
+  </si>
+  <si>
+    <t>统辖今山东省一带，古为青州重镇，靖王旧都，北海古国，废国立郡，归于青州。其源于地理位置近北海而得名。三国时期名士孔融曾为北海相国，后被曹操所杀，北海纳入曹魏版图。</t>
+  </si>
+  <si>
+    <t>24南海</t>
+  </si>
+  <si>
+    <t>统辖今广东省一带，古为扬州边镇，东南濒南海，西至贺州，北连南岭，百越杂处，各有种姓。其因近南海而得名，曾为南越政权首都，平定南越后，废国立郡，三国时期为东吴之地，近海多渔，民可自足，为东吴海洋战略踏板之一。</t>
+  </si>
+  <si>
+    <t>25交趾</t>
+  </si>
+  <si>
+    <t>统辖今广西省一带，古为扬州军镇，汉平南越，地分七郡，建安十五，诏以边远，七郡皆授鼓吹，以重威镇。武帝北置朔方，南置交趾，是“交”为子孙福“址”的意思。三国时期为士燮领地，后被东吴所占，蜀汉曾一度想入交趾打开南方大门，终是未果。</t>
+  </si>
+  <si>
+    <t>交趾</t>
+  </si>
+  <si>
+    <t>26朱崖</t>
+  </si>
+  <si>
+    <t>统辖今海南省一带，古为朱崖州，遥望朱崖洲大如菌，举帆一日一夜至洲。周匝二千里，径度七八百里，可十万家。朱崖是因其红色山崖而得名。三国时期东吴领土，地处偏远，被海环绕，多港海船。</t>
+  </si>
+  <si>
+    <t>朱崖</t>
+  </si>
+  <si>
+    <t>27西海</t>
+  </si>
+  <si>
+    <t>统辖今内蒙古西部一带，古为凉州郡之一，原属张掖，居延城，后为郡，户千人，多军士。西近延海而得名，三国时期归属曹魏，军屯之地，魏正始九年，魏将郭淮进击响应蜀汉的治无戴，在西海发生过交锋，淮大破之，戴随姜维入西川。</t>
+  </si>
+  <si>
+    <t>28盛乐</t>
+  </si>
+  <si>
+    <t>统辖今内蒙古东部一带，古为定襄城，南下阴山，改定襄郡治为盛乐，后立国家，与魏、晋交好。拥兵二十万，虎踞此处，麾下多轻骑，掠如风。少步卒，善奔袭。</t>
+  </si>
+  <si>
+    <t>29西戎</t>
+  </si>
+  <si>
+    <t>统辖今西藏省一带，古为羌人之都，三苗之后，居三危，以变西戎。三国时多部族，西望戎狄而得名，地广人稀，逐水草而生。多善骑射，作为外援部队曾多次加入中原战局，是一把开满的弓。</t>
+  </si>
+  <si>
+    <t>西戎</t>
+  </si>
+  <si>
+    <t>30西域长史府</t>
+  </si>
+  <si>
+    <t>统辖今新疆省一带，古为治理西域之重地，三国时期属曹魏，在稳定西域方面起着最主要的作用，安定诸国，拱卫中原都是此地的职责所在。春风不度，朔风扬沙，环境恶劣且条件艰苦，军民多坚韧不拔，少有轻言放弃者。</t>
+  </si>
+  <si>
+    <t>31安定</t>
+  </si>
+  <si>
+    <t>统辖今宁夏一带，古为雍州重镇，治临泾县，领下属六县，兵家必争之地，经济通道之重镇，意为安邦定国之意。三国时期曹魏操取陇东，破马超，后诸葛亮出祁山北伐，安定降蜀抗魏，后曹真率张颌复平安定。</t>
+  </si>
+  <si>
+    <t>西域长史府</t>
+  </si>
+  <si>
+    <t>32西平</t>
+  </si>
+  <si>
+    <t>统辖今青海省一带，古为凉州郡，分金城，治西都，铸剑之地。西陵平夷，故曰西平。三国时期韩遂重要城池之一，后因韩遂败亡，归于中央，曹魏与蜀汉曾多次在此地发生争夺河煌地区战争，均被曹魏击退</t>
+  </si>
+  <si>
+    <t>西平郡</t>
+  </si>
+  <si>
+    <t>33夷洲</t>
+  </si>
+  <si>
+    <t>统辖今台湾省一带，其在临海郡东南，去郡二千里。土地无霜雪，草木不死。四面是山，众山夷所居。山顶有越王射的正白，乃是石也。三国时期孙权派人开疆拓土，抵达夷洲，此处土地饶沃，既生五谷，又多鱼肉。</t>
+  </si>
+  <si>
+    <t>34蓟城</t>
+  </si>
+  <si>
+    <t>统辖今北京一带，古为幽州州府，虽居北地而洼，拱山临水，地丰民足。三国时期，初为公孙瓒领土，后袁绍白马大破公孙，蓟归于袁家所治，直至官渡之后，归于曹魏统治。</t>
+  </si>
+  <si>
+    <t>蓟下有（渔阳、代县、涿县）</t>
+  </si>
+  <si>
+    <t>35渤海</t>
+  </si>
+  <si>
+    <t>统辖今天津一带，古为幽州重镇，有南、北二城隔济水。南城即被阳县之故城也，北枕济水。汉献帝刘协曾经的封地，渤海国所在之处。</t>
+  </si>
+  <si>
+    <t>36吴郡</t>
+  </si>
+  <si>
+    <t>统辖今上海一带，古为扬州重镇，建安初，策平江东，领吴郡，此为东吴霸业之始。此后孙策便以江东为根基，开创东吴之基业，历三代而传至权。</t>
+  </si>
+  <si>
+    <t>吴郡下属13县，主要亿江苏浙江为主，治所吴在今江苏姑苏区</t>
+  </si>
+  <si>
+    <t>37博罗</t>
+  </si>
+  <si>
+    <t>统辖今香港一带，古为秦时所设立，有罗浮山，自会稽浮往博山，故置博罗。地处南方，善水性者甚多，三国时期所属东吴，是岭南著名宗教圣地。</t>
+  </si>
+  <si>
+    <t>赤壁</t>
+  </si>
+  <si>
+    <t>三国时期著名主战场，吴蜀联军于长江赤壁以少胜多，大破曹操大军。赤壁一役，奠定了三国鼎立的基础。建安十三年，曹操二十万之众顺江而下，东吴左、右都督周瑜、程普各率一万五千精兵，与刘备军逆江而上，与曹军相遇在赤壁，黄盖提出火攻敌船之计，于是，孙刘联军大破曹军，烧毁大量曹军舟船，曹军又将剩余舟船尽数焚毁，随即往北撤离，此战后，孙权、刘备各夺取荆州部分。</t>
+  </si>
+  <si>
+    <t>石头城</t>
+  </si>
+  <si>
+    <t>又称石城，有“东吴第一军事要塞之称”。因山以为城，因江以为池，地形险固，尤有奇势，曾为三国时期东吴旧都。</t>
+  </si>
+  <si>
+    <t>教驽台</t>
+  </si>
+  <si>
+    <t>亦称点将台，台基陡峭，周围浓荫蔽日，曹操筑此台教练强弩兵将，临阵指挥抵御东吴水军。</t>
+  </si>
+  <si>
+    <t>长板桥</t>
+  </si>
+  <si>
+    <t>又称当阳桥，张飞手绰蛇矛，单骑御敌喝退百万曹军之地，京剧唱道“当阳桥头一声吼，喝断桥梁水倒流”。东汉末年，刘备在当阳被曹军击败，仓皇逃跑，曹操率精锐虎豹骑穷追不舍，追至长板桥时，刘备麾下名将张飞率二十余骑，立于当阳长板桥，嗔目横矛。大声喝道</t>
+  </si>
+  <si>
+    <t>“身是张翼德，可来共决死！”曹军无一人敢往前，刘备遂脱身。</t>
+  </si>
+  <si>
+    <t>乌林</t>
+  </si>
+  <si>
+    <t>又名乌林矶，与赤壁隔江相对，东汉末年曹操与刘备、孙权联军于此交战，周瑜与诸葛亮以火计烧乌林。</t>
+  </si>
+  <si>
+    <t>岳阳楼</t>
+  </si>
+  <si>
+    <t>洞庭湖畔，江南三大名楼之一，鲁肃建造的“阅军楼”。楼中楠木金柱直贯楼顶，周围绕以廊、坊、椽、檩互相榫合，结为整体。</t>
+  </si>
+  <si>
+    <t>隆中</t>
+  </si>
+  <si>
+    <t>诸葛亮躬耕隐居之地，刘备三顾茅庐和兴汉蓝图“隆中对策”都发生在这里。“隆然中起”，北枕汉水，林泉幽邃，蔚然深秀。</t>
+  </si>
+  <si>
+    <t>罾口川</t>
+  </si>
+  <si>
+    <t>位于襄樊之地的低谷地带，三国时期关羽于此水淹七军，擒于禁，斩庞德，重创曹魏，威震华夏。</t>
+  </si>
+  <si>
+    <t>点将台</t>
+  </si>
+  <si>
+    <t>荆州点将台以战前夯土筑成，台高十米，方圆十余亩，据传关羽北攻曹仁前筑此高台，阅兵点将，操练军士。</t>
+  </si>
+  <si>
+    <t>义门寺</t>
+  </si>
+  <si>
+    <t>位于豫州谯郡，寺庙幽静，古树参天，为曹操年少读书之处。</t>
   </si>
   <si>
     <t>虎牢关</t>
   </si>
   <si>
-    <t>襄平</t>
-  </si>
-  <si>
-    <t>汝南</t>
-  </si>
-  <si>
-    <t>新野</t>
-  </si>
-  <si>
-    <t>赤壁</t>
+    <t>传闻周穆王曾将进献的猛虎圈养于此，而名虎牢。雄关南连嵩岳，北濒黄河，山岭交错，自成天险。三国时，董卓与诸侯联军决战于此。虎牢之战，为演义杜撰，初平元年，董卓进京祸乱朝纲，以袁绍为盟主的十八路诸侯，举旗讨逆。联军先攻汜水关，守将华雄被关羽所杀，而后近逼门户虎牢，发生了刘关张三英战吕布，吕布败阵。董卓听取李儒之计，焚烧洛阳，迁都长安。</t>
+  </si>
+  <si>
+    <t>潼关</t>
+  </si>
+  <si>
+    <t>潼关乃关中门户。《水经注》载</t>
+  </si>
+  <si>
+    <t>“河在关内南流潼激关山，因谓之潼关”。</t>
+  </si>
+  <si>
+    <t>五丈原</t>
+  </si>
+  <si>
+    <t>五丈原南靠秦岭，北临渭水，形势险要。三国时诸葛亮屯兵于此，与司马懿隔渭河对阵，后因积劳成疾病逝于此。公元234年（曹魏青龙二年、蜀汉建兴十二年），蜀汉丞相诸葛亮率大军第六次北伐，由汉中出发，取道斜谷，穿越秦岭，进驻五丈原。魏军则由司马懿统帅，渡渭水，派郭淮驻守北原，蜀汉军攻北原被郭淮击败，而后两军进入对峙状态持续百余日，终以诸葛亮星落五丈原，蜀汉撤军结束。</t>
+  </si>
+  <si>
+    <t>铁笼山</t>
+  </si>
+  <si>
+    <t>铁笼山绝壁峤峙，孤险云高，其山状若鸟笼，易守难攻。三国时期姜维起兵汉中，再图祁山，曾于此围困司马昭。</t>
+  </si>
+  <si>
+    <t>街亭</t>
+  </si>
+  <si>
+    <t>关中进入陇西的战略通道，山高谷深，地势险要，三国时期，诸葛亮曾安排马谡守卫于此，“失街亭”后，蜀军主力溃败，诸葛亮挥泪斩马谡，初出祁山也宣告失败。</t>
+  </si>
+  <si>
+    <t>牛头山</t>
+  </si>
+  <si>
+    <t>牛头山系剑门山东支，山形险要，三国时姜维率大军伐魏，然而在此遭遇郭淮断粮截击，最终兵败牛头山。</t>
+  </si>
+  <si>
+    <t>桃庄</t>
+  </si>
+  <si>
+    <t>张飞故里。《涿县志》记载</t>
+  </si>
+  <si>
+    <t>张桓侯故里在“县西南里许桃庄，为汉张桓侯故里”。东汉末年，刘备、关羽、张飞三人结义于此，许下同生共死之誓。</t>
+  </si>
+  <si>
+    <t>铜雀三台</t>
+  </si>
+  <si>
+    <t>史书称“邺三台”，曹操击败袁绍后营建邺都，修建了铜雀、金虎、冰井三台，同时也为建安文学的发祥地。</t>
+  </si>
+  <si>
+    <t>楼桑村</t>
+  </si>
+  <si>
+    <t>刘备故里。《三国志•蜀书•先主传》载</t>
+  </si>
+  <si>
+    <t>舍东南角篱上有桑树生高五丈余，遥望见童童如小车盖，往来者皆怪此树非凡，或谓当出贵人。</t>
+  </si>
+  <si>
+    <t>界河</t>
+  </si>
+  <si>
+    <t>今海河流域，曹操疏凿白沟、平虏渠、泉州渠、新河等几条运输渠道，将各河汇流入海，初步形成海河流域。</t>
+  </si>
+  <si>
+    <t>官渡</t>
+  </si>
+  <si>
+    <t>三国时著名古战场，历来为重要的军事要冲之地，曹操于官渡大破袁军，奠定了统一北方的基础。建安五年，袁绍借董承奉衣带诏被杀之事，讨伐曹操。派陈琳书写檄文痛骂曹操，曹、袁二家正式宣战。当曹操正在部署作战之事，参与衣带诏事件的刘备起兵反曹，占领下邳，屯兵沛县，与袁联合，两头攻曹。次年二月，曹操亲率精兵东击刘备，迅速占领沛县，转而攻占下邳，刘备全线溃败，曹操迫降关羽。袁绍畏首畏尾错失战机，四月，曹操北上解白马之围，关羽斩杀颜良，而后曹军诈败，袁军中计，文丑死于乱军之中。十月，许攸投降曹操，建议其偷袭乌巢，断袁军粮草。而后，曹操亲率五千骑火烧乌巢，斩淳于琼，大破袁军，至此官渡之战落下帷幕。</t>
+  </si>
+  <si>
+    <t>广宗</t>
+  </si>
+  <si>
+    <t>声势浩大的黄巾落幕之地，中平元年，黄巾军张梁部在广宗被皇甫嵩所部剿灭，主将张梁战死，三万黄巾被杀，五万余人赴河而亡。皇甫嵩进入广宗，悉虏黄巾军家属，焚烧辎重，将张角剖棺戮尸，传首京师。河北黄巾军主力损失殆尽，最终走向失败。</t>
+  </si>
+  <si>
+    <t>郿坞</t>
+  </si>
+  <si>
+    <t>郿坞是董卓在迁都至长安后，在长安以西二百五十里处建的院邸。东汉初平三年，董卓筑坞于郿，高厚七丈，与长安城相埒，号曰“万岁坞”，世称“郿坞”。坞中广聚珍宝，积谷为三十年储。自云</t>
+  </si>
+  <si>
+    <t>“事成，雄据天下；不成，守此足以毕老。”后卓败，坞毁(故址在今陕西省眉县东北)。</t>
+  </si>
+  <si>
+    <t>围堑</t>
+  </si>
+  <si>
+    <t>公孙瓒战败后，逃回易京，为围堑十重，于堑里筑京，皆高五六丈，为楼其上；中堑为京，特高十丈，自居焉，积谷三百万斛……欲以此弊绍。绍遣将攻之，连年不能拔。</t>
+  </si>
+  <si>
+    <t>界桥</t>
+  </si>
+  <si>
+    <t>袁绍与公孙瓒战局转折点，八百先登大破公孙白马，军势如日中天。汉献帝初平二年冬，公孙瓒屯兵磐河，袁绍在界桥应战。公孙瓒以三万步兵，排列方阵，两翼部署五千骑兵。袁方以大将鞠义所率八百先登为先锋，以强弩数千张为掩护，其统步兵数万在后。公孙瓒轻敌冒进，遭受重创，公孙军全面溃败。鞠义趁乱斩杀严纲，破敌千余人，追至界桥，又大破公孙军。此战之后，袁绍由被动转为主动，公孙瓒一路北退。</t>
+  </si>
+  <si>
+    <t>郊天坛</t>
+  </si>
+  <si>
+    <t>今湖北武汉，相传刘备打仗路过此地，被美丽的景色所吸引，下船欣赏，准备登山而眺，刚至山底忽遇大风，深感不详。于是，登山祭祀，天象吉瑞。后刘备军旗开得胜，迎娶东吴孙夫人。</t>
+  </si>
+  <si>
+    <t>麦城</t>
+  </si>
+  <si>
+    <t>位于湖北省当阳市两河镇境内，为东周时楚国重要城邑，麦城在县东南五十里，沮、漳二水之间，传为春秋时楚昭王所筑。三国时，关羽为孙权所袭，丢荆州败走麦城即此。东汉建安二十四年，蜀将关羽遭吴袭击，溃退于此，故有“关云长丢荆州败麦城”。建安二十四年的荆州之争，由于孙权和曹操的暗中勾结，其形势很快发生了根本性的转变。在曹操和孙权的南北夹击下，关羽丢荆州后，腹背受敌，进无可进，退无可退，终于败走麦城，以身殉职，刘备集团也因此永远失去了荆州。</t>
+  </si>
+  <si>
+    <t>祁山</t>
+  </si>
+  <si>
+    <t>三国时期蜀汉丞相诸葛亮出兵北伐曹魏的必经之地。史书记载诸葛亮北伐曹魏时仅有两次出兵祁山，而“六出祁山”的说法出现于小说《三国演义》，由于《演义》在民间的影响力较大，因此“六出祁山”也渐渐成为诸葛亮北伐的代名词。诸葛亮六出祁山的决策，是贯彻落实《隆中对》策，北定中原，兴复汉室，以成霸业的正确军事举措和重要战略方针，有其重要战略意义。</t>
+  </si>
+  <si>
+    <t>落凤坡</t>
+  </si>
+  <si>
+    <t>位于四川德阳，三国演义中庞统在此被乱箭射杀。东南有童谣云</t>
+  </si>
+  <si>
+    <t>“一凤并一龙，相将到蜀中。才到半路里，凤死落坡东。风送雨，雨随风，隆汉兴时蜀道通，蜀道通时只有龙。”</t>
+  </si>
+  <si>
+    <t>上方谷</t>
+  </si>
+  <si>
+    <t>位于陕西眉县，三国古战场。这次战斗后，诸葛亮因劳成疾病逝。这次战斗诸葛亮用智慧，火困司马懿一家，可惜苍天助曹不助汉，在这大火围困到司马懿一家时，忽然天降大雨让司马懿逃脱。诸葛亮叹息“谋事在人，成事在天！”</t>
+  </si>
+  <si>
+    <t>泰山</t>
+  </si>
+  <si>
+    <t>东岳泰山，著名五岳之一。层峦叠嶂，凌空高耸。自秦始皇始，十数名帝王亲登泰山封禅致祭，刻石纪功。</t>
+  </si>
+  <si>
+    <t>长江</t>
+  </si>
+  <si>
+    <t>中国第一长河，其支流辐辏南北，绵延千里，同时，长江流域也是早期人类生存和演化的重要地区之一。</t>
+  </si>
+  <si>
+    <t>云梦</t>
+  </si>
+  <si>
+    <t>今洞庭湖，中国水量最大的通江湖泊，因湖中洞庭山而得名。湖域广阔，有“八百里洞庭”之称，也是重要的战略要地。</t>
+  </si>
+  <si>
+    <t>檀溪</t>
+  </si>
+  <si>
+    <t>又名檀溪湖，位于襄阳城西南真武山北面，因刘备的卢马“一跃三丈”而“跃马檀溪”闻名。</t>
+  </si>
+  <si>
+    <t>郑国渠</t>
+  </si>
+  <si>
+    <t>战国末年由水工郑国主持兴建。西引泾水，东往洛水，渠成，关中为沃野，无凶年，秦以富强，卒并诸侯。</t>
+  </si>
+  <si>
+    <t>明月峡栈道</t>
+  </si>
+  <si>
+    <t>开凿于先秦，属于剑门蜀道一部分，地势险要，诸葛亮经此栈道出祁山，北伐曹魏。</t>
+  </si>
+  <si>
+    <t>长城</t>
+  </si>
+  <si>
+    <t>中国古代的军事防御工程，主要用于限隔敌骑行动。以城墙为主体，同大量的城、障、亭、标相结合组成了高大坚固的防御体系。</t>
+  </si>
+  <si>
+    <t>白马寺</t>
+  </si>
+  <si>
+    <t>汉时为了纪念白马托经，取名为“白马寺”。中国第一古刹，世界著名伽蓝，乃中国佛教的释源祖庭。</t>
+  </si>
+  <si>
+    <t>灞陵桥</t>
+  </si>
+  <si>
+    <t>灞陵桥位于许昌西郊，由青石砌筑而成，两岸杨柳成行，风景宜人，《三国演义》中是关羽辞曹挑袍，过五关斩六将的起点。</t>
+  </si>
+  <si>
+    <t>毓秀台</t>
+  </si>
+  <si>
+    <t>曹操迎汉献帝自洛阳迁都许昌后，汉献帝率文武百官在此祭天，祈求风调雨顺，国泰民安。</t>
+  </si>
+  <si>
+    <t>黄鹤楼</t>
+  </si>
+  <si>
+    <t>位于武昌蛇山之巅，江南三大名楼之一，夏口城瞭望守戍的“军事楼”，自古享有“天下第一楼”和“天下绝景”之称。</t>
+  </si>
+  <si>
+    <t>米仓道</t>
+  </si>
+  <si>
+    <t>又名汉中古道，自古乃兵家必争之地。三国时行旅往来，兵马驰骋，是当时重要的军事驿道。占领米仓道一侧，可直达另一侧。</t>
+  </si>
+  <si>
+    <t>祁山堡</t>
+  </si>
+  <si>
+    <t>坐落于西汉水北面，四面如削，高峻奇拔。同时也是三国时期诸葛亮统帅三军，挥师北伐的堡垒。</t>
+  </si>
+  <si>
+    <t>关中进入陇西的战略通道，山高谷深，地势险要，三国时期，诸葛亮曾派马谡镇守此地，“失街亭”后，蜀军主力溃败，诸葛亮挥泪斩马谡，初出祁山宣告失败。</t>
+  </si>
+  <si>
+    <t>博望坡</t>
+  </si>
+  <si>
+    <t>西汉张骞出使西域，功勋卓著，汉武帝取“广博瞻望”之意，封“博望侯”于此。同时此处这正是三国时诸葛亮火烧博望坡大破夏侯惇所率曹军的古战场。</t>
+  </si>
+  <si>
+    <t>长坂坡</t>
+  </si>
+  <si>
+    <t>位于荆山余脉下的冈岭地带，三国时，刘备遭到曹军猛烈打击后撤离荆州，逃至此地，家眷于乱军中走散，刘备麾下名将赵云一人一骑一枪，在曹军阵中七进七出，浴血奋战，身抱幼主单骑突围。</t>
   </si>
   <si>
     <t>华容道</t>
   </si>
   <si>
-    <t>北平</t>
-  </si>
-  <si>
-    <t>洛阳</t>
-  </si>
-  <si>
-    <t>襄阳</t>
-  </si>
-  <si>
-    <t>官渡</t>
-  </si>
-  <si>
-    <t>蓟</t>
-  </si>
-  <si>
-    <t>宛</t>
-  </si>
-  <si>
-    <t>江陵</t>
-  </si>
-  <si>
-    <t>南皮</t>
-  </si>
-  <si>
-    <t>长安</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>剑阁</t>
-  </si>
-  <si>
-    <t>平原</t>
-  </si>
-  <si>
-    <t>上庸</t>
-  </si>
-  <si>
-    <t>武陵</t>
-  </si>
-  <si>
-    <t>晋阳</t>
-  </si>
-  <si>
-    <t>安定</t>
-  </si>
-  <si>
-    <t>桂阳</t>
-  </si>
-  <si>
-    <t>邺</t>
-  </si>
-  <si>
-    <t>天水</t>
-  </si>
-  <si>
-    <t>零陵</t>
-  </si>
-  <si>
-    <t>北海</t>
-  </si>
-  <si>
-    <t>武威</t>
-  </si>
-  <si>
-    <t>永安</t>
-  </si>
-  <si>
-    <t>下邳</t>
-  </si>
-  <si>
-    <t>建业</t>
-  </si>
-  <si>
-    <t>汉中</t>
-  </si>
-  <si>
-    <t>小沛</t>
-  </si>
-  <si>
-    <t>吴</t>
-  </si>
-  <si>
-    <t>梓潼</t>
-  </si>
-  <si>
-    <t>寿春</t>
-  </si>
-  <si>
-    <t>会稽</t>
-  </si>
-  <si>
-    <t>江州</t>
-  </si>
-  <si>
-    <t>濮阳</t>
-  </si>
-  <si>
-    <t>庐江</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>陈留</t>
-  </si>
-  <si>
-    <t>柴桑</t>
-  </si>
-  <si>
-    <t>建宁</t>
-  </si>
-  <si>
-    <t>许昌</t>
-  </si>
-  <si>
-    <t>江夏</t>
-  </si>
-  <si>
-    <t>云南</t>
+    <t>华容道地窄路险，坎坷难行，赤壁之战后，曹操率残部溃逃，欲经此地逃往华容县城，中途遭蜀军截击，损失惨重。《三国演义》中此地是关羽义释曹孟德之地。</t>
+  </si>
+  <si>
+    <t>定军山</t>
+  </si>
+  <si>
+    <t>属大巴山脉，有十二座秀峰，有“得定军山则得汉中，得汉中则得天下”的美誉，三国时，蜀汉与曹魏争夺汉中时，蜀汉大将黄忠听从法正之策，在此击毙曹军大将夏侯渊，赢得老当益壮之名。</t>
+  </si>
+  <si>
+    <t>夷陵</t>
+  </si>
+  <si>
+    <t>临近长江西陵峡口，地势险要，江流湍急，夷陵之战时，东吴大都督陆逊曾在此火烧刘备七百里连营，重创蜀军精锐，导致刘备病逝白帝。</t>
+  </si>
+  <si>
+    <t>逍遥津</t>
+  </si>
+  <si>
+    <t>古为淝水之上的津渡，三国时期曹魏名将张辽率领麾下部众，分兵毁桥，于此大破东吴大军。经此一役，威震江东。演义中此战为“威震逍遥津”，张辽凭八百精兵折孙权大军锐气，又凭七千之众抵挡东吴十万大军，孙权撤军之时，张辽又下令追击，大破吴军，威震江东，江东小儿啼哭不肯止者，闻张辽之名不敢再啼。</t>
   </si>
   <si>
     <t>大汉文官</t>
@@ -405,9 +1591,6 @@
     <t>中庶子</t>
   </si>
   <si>
-    <t>军师</t>
-  </si>
-  <si>
     <t>丞相征事</t>
   </si>
   <si>
@@ -1072,6 +2255,87 @@
   </si>
   <si>
     <t>校尉</t>
+  </si>
+  <si>
+    <t>东汉末年全国十三个州</t>
+  </si>
+  <si>
+    <t>司隶</t>
+  </si>
+  <si>
+    <t>河南尹，河内郡，河东郡，弘农郡，京兆郡，冯翊郡，扶风郡</t>
+  </si>
+  <si>
+    <t>豫州</t>
+  </si>
+  <si>
+    <t>颍川郡，汝南郡，梁国，沛国，陈国，鲁国</t>
+  </si>
+  <si>
+    <t>冀州</t>
+  </si>
+  <si>
+    <t>魏郡，巨鹿郡，常山郡，中山国，安平国，河间国，清河国，赵国，渤海郡</t>
+  </si>
+  <si>
+    <t>兖州</t>
+  </si>
+  <si>
+    <t>陈留郡，东郡，东平国，任城国，泰山郡，济北郡，山阳郡，济阴郡</t>
+  </si>
+  <si>
+    <t>徐州</t>
+  </si>
+  <si>
+    <t>彭城国，下邳国、东海国，琅邪国，广陵郡</t>
+  </si>
+  <si>
+    <t>青州</t>
+  </si>
+  <si>
+    <t>济南国，平原郡，乐安国，北海国，东莱郡，齐国</t>
+  </si>
+  <si>
+    <t>荆州</t>
+  </si>
+  <si>
+    <t>南阳郡，南郡，江夏郡，零陵郡，桂阳郡，武陵郡，长沙郡</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>九江郡，丹阳郡，庐江郡，会稽郡，吴郡，豫章郡</t>
+  </si>
+  <si>
+    <t>益州</t>
+  </si>
+  <si>
+    <t>汉中郡，巴郡，广汉郡，蜀郡，犍为郡，牂牁郡，越巂郡，益州郡，永昌郡，广汉属国，蜀郡属国，犍为属国</t>
+  </si>
+  <si>
+    <t>凉州</t>
+  </si>
+  <si>
+    <t>陇西郡，汉阳郡，武都郡，金城郡，安定郡，北地郡，武威郡，张掖郡，酒泉郡，敦煌郡，张掖属国，居延属国</t>
+  </si>
+  <si>
+    <t>并州</t>
+  </si>
+  <si>
+    <t>上党郡，太原郡，上郡，西河郡，五原郡，云中郡，定襄郡，雁门郡，朔方郡</t>
+  </si>
+  <si>
+    <t>幽州</t>
+  </si>
+  <si>
+    <t>涿郡，广阳郡，代郡，上谷郡，渔阳郡，右北平郡，辽西郡，辽东郡，玄菟郡，乐浪郡，辽东属国</t>
+  </si>
+  <si>
+    <t>交州</t>
+  </si>
+  <si>
+    <t>南海郡，苍梧郡，郁林郡，合浦郡，交趾郡，九真郡，日南郡</t>
   </si>
 </sst>
 </file>
@@ -1079,12 +2343,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,25 +2362,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,14 +2469,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,8 +2488,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,9 +2551,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,6 +2566,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1188,61 +2581,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1251,7 +2601,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA26DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,7 +2655,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,13 +2727,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,85 +2751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,7 +2775,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,47 +2805,68 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1452,6 +2877,45 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1471,45 +2935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1518,30 +2943,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1550,10 +2951,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1562,137 +2963,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1700,6 +3101,108 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1755,12 +3258,191 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8313420" y="3474720"/>
+          <a:ext cx="3329940" cy="2468880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8633460" y="20558760"/>
+          <a:ext cx="1493520" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8221980" y="16253460"/>
+          <a:ext cx="6362700" cy="3764280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7970520" y="635"/>
+          <a:ext cx="6461760" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2050,201 +3732,1809 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:N17"/>
+  <dimension ref="B1:H108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="9" style="4"/>
+    <col min="4" max="8" width="16.7777777777778" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="16.2" spans="3:8">
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="16.2" spans="3:8">
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="16.2" spans="3:8">
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="16.2" spans="3:8">
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" ht="16.2" spans="3:8">
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" ht="16.2" spans="3:8">
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="16.2" spans="3:8">
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="16.2" spans="3:8">
+      <c r="C16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" ht="16.2" spans="3:8">
+      <c r="C17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="20"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10">
+        <v>4</v>
+      </c>
+      <c r="G21" s="11">
+        <v>3</v>
+      </c>
+      <c r="H21" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="16.2" spans="3:8">
+      <c r="C22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" ht="16.2" spans="3:8">
+      <c r="C23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" ht="16.2" spans="3:8">
+      <c r="C24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" ht="16.2" spans="3:8">
+      <c r="C25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" ht="16.2" spans="3:8">
+      <c r="C26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" ht="16.2" spans="3:8">
+      <c r="C29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" ht="16.2" spans="3:8">
+      <c r="C31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" ht="16.2" spans="3:8">
+      <c r="C32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" ht="16.2" spans="3:8">
+      <c r="C33" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" ht="16.2" spans="3:8">
+      <c r="C34" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" ht="16.2" spans="3:8">
+      <c r="C35" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" ht="16.2" spans="3:8">
+      <c r="C36" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" ht="16.2" spans="3:8">
+      <c r="C39" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" ht="16.2" spans="3:8">
+      <c r="C40" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" ht="16.2" spans="3:8">
+      <c r="C41" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" ht="16.2" spans="3:8">
+      <c r="C42" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" ht="16.2" spans="3:8">
+      <c r="C43" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" ht="16.2" spans="3:8">
+      <c r="C44" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" ht="16.2" spans="3:8">
+      <c r="C45" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8">
+        <v>6</v>
+      </c>
+      <c r="E48" s="9">
+        <v>5</v>
+      </c>
+      <c r="F48" s="10">
+        <v>4</v>
+      </c>
+      <c r="G48" s="11">
+        <v>3</v>
+      </c>
+      <c r="H48" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" ht="16.2" spans="3:8">
+      <c r="C49" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" ht="16.2" spans="3:8">
+      <c r="C50" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" ht="16.2" spans="3:8">
+      <c r="C51" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" ht="16.2" spans="3:8">
+      <c r="C52" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" ht="16.2" spans="3:8">
+      <c r="C54" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" ht="16.2" spans="3:8">
+      <c r="C55" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" ht="16.2" spans="3:8">
+      <c r="C56" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" ht="16.2" spans="3:8">
+      <c r="C57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" ht="16.2" spans="3:8">
+      <c r="C59" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" ht="16.2" spans="3:8">
+      <c r="C60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" ht="16.2" spans="3:8">
+      <c r="C61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" ht="16.2" spans="3:8">
+      <c r="C62" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="18"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" ht="16.2" spans="3:8">
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" ht="16.2" spans="3:8">
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" ht="16.2" spans="3:8">
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="66" ht="16.2" spans="3:8">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+    </row>
+    <row r="67" ht="16.2" spans="3:8">
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="1" spans="2:8">
+      <c r="B70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8">
+        <v>6</v>
+      </c>
+      <c r="E70" s="9">
+        <v>5</v>
+      </c>
+      <c r="F70" s="10">
+        <v>4</v>
+      </c>
+      <c r="G70" s="11">
+        <v>3</v>
+      </c>
+      <c r="H70" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C71" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C72" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C73" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C74" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C75" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" s="4" customFormat="1" spans="3:8">
+      <c r="C76" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C77" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C78" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" s="5" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C79" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="81" s="6" customFormat="1" spans="2:2">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" s="6" customFormat="1" spans="2:8">
+      <c r="B82" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8">
+        <v>6</v>
+      </c>
+      <c r="E82" s="9">
+        <v>5</v>
+      </c>
+      <c r="F82" s="10">
+        <v>4</v>
+      </c>
+      <c r="G82" s="11">
+        <v>3</v>
+      </c>
+      <c r="H82" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B83" s="4"/>
+      <c r="C83" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+    </row>
+    <row r="84" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B84" s="4"/>
+      <c r="C84" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="31"/>
+      <c r="E84" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B85" s="4"/>
+      <c r="C85" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+    </row>
+    <row r="86" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B86" s="4"/>
+      <c r="C86" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B87" s="4"/>
+      <c r="C87" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="32"/>
+      <c r="E87" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B88" s="4"/>
+      <c r="C88" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="31"/>
+      <c r="E88" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+    </row>
+    <row r="89" s="6" customFormat="1" spans="2:8">
+      <c r="B89" s="4"/>
+      <c r="C89" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+    </row>
+    <row r="90" s="6" customFormat="1" spans="2:8">
+      <c r="B90" s="4"/>
+      <c r="C90" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+    </row>
+    <row r="91" s="6" customFormat="1" spans="2:8">
+      <c r="B91" s="4"/>
+      <c r="C91" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+    </row>
+    <row r="92" s="6" customFormat="1" spans="2:8">
+      <c r="B92" s="4"/>
+      <c r="C92" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+    </row>
+    <row r="93" s="6" customFormat="1" spans="2:8">
+      <c r="B93" s="4"/>
+      <c r="C93" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" s="31"/>
+      <c r="F93" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+    </row>
+    <row r="94" s="6" customFormat="1" spans="2:8">
+      <c r="B94" s="4"/>
+      <c r="C94" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H94" s="31"/>
+    </row>
+    <row r="95" s="6" customFormat="1" spans="2:2">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="97" s="4" customFormat="1" spans="2:8">
+      <c r="B97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8">
+        <v>6</v>
+      </c>
+      <c r="E97" s="9">
+        <v>5</v>
+      </c>
+      <c r="F97" s="10">
+        <v>4</v>
+      </c>
+      <c r="G97" s="11">
+        <v>3</v>
+      </c>
+      <c r="H97" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C98" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C99" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C100" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C101" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="3:8">
+      <c r="C102" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="3:8">
+      <c r="C103" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" s="4" customFormat="1" spans="3:8">
+      <c r="C104" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C105" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C106" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="3:8">
+      <c r="C107" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" s="4" customFormat="1" spans="3:8">
+      <c r="C108" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" spans="2:14">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="11:11">
-      <c r="K3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="2:11">
+        <v>216</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:7">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:4">
+        <v>225</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:11">
+        <v>228</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:4">
+        <v>231</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:4">
+        <v>234</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:4">
+        <v>237</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:4">
+        <v>240</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:4">
+        <v>242</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:4">
+        <v>245</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:4">
+        <v>248</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="2:4">
+        <v>251</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:4">
+        <v>253</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:4">
+        <v>255</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2253,12 +5543,447 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>365</v>
+      </c>
+      <c r="B27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>376</v>
+      </c>
+      <c r="B32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>380</v>
+      </c>
+      <c r="B34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>384</v>
+      </c>
+      <c r="B36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>386</v>
+      </c>
+      <c r="B37" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>388</v>
+      </c>
+      <c r="B38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>390</v>
+      </c>
+      <c r="B39" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>392</v>
+      </c>
+      <c r="B40" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>396</v>
+      </c>
+      <c r="B42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>401</v>
+      </c>
+      <c r="B45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>405</v>
+      </c>
+      <c r="B47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>407</v>
+      </c>
+      <c r="B48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>409</v>
+      </c>
+      <c r="B49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>411</v>
+      </c>
+      <c r="B50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2278,484 +6003,484 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>414</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>416</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>417</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>418</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>419</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>420</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>421</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>423</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>424</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>425</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>427</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>428</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>429</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>430</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>432</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>433</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>434</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>436</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:11">
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>83</v>
+        <v>445</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>446</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>448</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>87</v>
+        <v>449</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>450</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>89</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>452</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>453</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>454</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>455</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>94</v>
+        <v>456</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>95</v>
+        <v>457</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>96</v>
+        <v>458</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>97</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>460</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>461</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>462</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>101</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>464</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>465</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>467</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>468</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>469</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>108</v>
+        <v>470</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>110</v>
+        <v>472</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>111</v>
+        <v>473</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>112</v>
+        <v>474</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>113</v>
+        <v>475</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>476</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>115</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>478</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>479</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>481</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>482</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>483</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>123</v>
+        <v>485</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>486</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>487</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>126</v>
+        <v>488</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>489</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>128</v>
+        <v>490</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>130</v>
+        <v>491</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>131</v>
+        <v>492</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>132</v>
+        <v>493</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>133</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:11">
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>495</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>136</v>
+        <v>497</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>137</v>
+        <v>498</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>138</v>
+        <v>499</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>139</v>
+        <v>500</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>140</v>
+        <v>501</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>141</v>
+        <v>502</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>142</v>
+        <v>503</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>143</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:11">
       <c r="B18" s="1" t="s">
-        <v>144</v>
+        <v>505</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>506</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
+        <v>507</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>147</v>
+        <v>508</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>148</v>
+        <v>509</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>149</v>
+        <v>510</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>150</v>
+        <v>511</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>151</v>
+        <v>512</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>152</v>
+        <v>513</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>153</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>154</v>
+        <v>515</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>155</v>
+        <v>516</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>156</v>
+        <v>517</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>157</v>
+        <v>518</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>158</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>520</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>521</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>162</v>
+        <v>523</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>524</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>164</v>
+        <v>525</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>526</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>166</v>
+        <v>527</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>167</v>
+        <v>528</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>168</v>
+        <v>529</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>169</v>
+        <v>530</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>170</v>
+        <v>531</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>155</v>
+        <v>516</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>171</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:11">
       <c r="B22" s="1" t="s">
-        <v>172</v>
+        <v>533</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>173</v>
+        <v>534</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>174</v>
+        <v>535</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>175</v>
+        <v>536</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>176</v>
+        <v>537</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>177</v>
+        <v>538</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>178</v>
+        <v>539</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>179</v>
+        <v>540</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>180</v>
+        <v>541</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>181</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>183</v>
+        <v>544</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>545</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>185</v>
+        <v>546</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>186</v>
+        <v>547</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>187</v>
+        <v>548</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>188</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>189</v>
+        <v>550</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>190</v>
+        <v>551</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>191</v>
+        <v>552</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>192</v>
+        <v>553</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>193</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +6489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I33"/>
@@ -2788,572 +6513,724 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>414</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>416</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>557</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>558</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>198</v>
+        <v>559</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>199</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>561</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>201</v>
+        <v>562</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>202</v>
+        <v>563</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>203</v>
+        <v>564</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>204</v>
+        <v>565</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>205</v>
+        <v>566</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>206</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>568</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>569</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>209</v>
+        <v>570</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>210</v>
+        <v>571</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>211</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>573</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>213</v>
+        <v>574</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>214</v>
+        <v>575</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>576</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>216</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>427</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>579</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
+        <v>580</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>220</v>
+        <v>581</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>582</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>222</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:6">
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>584</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>585</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>225</v>
+        <v>586</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>226</v>
+        <v>587</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>227</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>589</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>590</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>230</v>
+        <v>591</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>231</v>
+        <v>592</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>232</v>
+        <v>593</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>233</v>
+        <v>594</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>234</v>
+        <v>595</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>235</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>597</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>598</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>238</v>
+        <v>599</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>239</v>
+        <v>600</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>240</v>
+        <v>601</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>241</v>
+        <v>602</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>242</v>
+        <v>603</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>243</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>605</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>245</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>467</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>607</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>247</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
       <c r="B14" s="1" t="s">
-        <v>248</v>
+        <v>609</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>610</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>250</v>
+        <v>611</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>251</v>
+        <v>612</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>252</v>
+        <v>613</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>253</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>254</v>
+        <v>615</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
+        <v>616</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>256</v>
+        <v>617</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>257</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:9">
       <c r="B16" s="1" t="s">
-        <v>258</v>
+        <v>619</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>259</v>
+        <v>620</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>260</v>
+        <v>621</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>261</v>
+        <v>622</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>262</v>
+        <v>623</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>263</v>
+        <v>624</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>264</v>
+        <v>625</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>265</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:8">
       <c r="B17" s="1" t="s">
-        <v>266</v>
+        <v>627</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>267</v>
+        <v>628</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>268</v>
+        <v>629</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>269</v>
+        <v>630</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>270</v>
+        <v>631</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>271</v>
+        <v>632</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>272</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>273</v>
+        <v>634</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>274</v>
+        <v>635</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>275</v>
+        <v>636</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>276</v>
+        <v>637</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>277</v>
+        <v>638</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:9">
       <c r="B19" s="1" t="s">
-        <v>278</v>
+        <v>639</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>279</v>
+        <v>640</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>280</v>
+        <v>641</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>281</v>
+        <v>642</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>282</v>
+        <v>643</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>283</v>
+        <v>644</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>284</v>
+        <v>645</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>285</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>286</v>
+        <v>647</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>287</v>
+        <v>648</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>288</v>
+        <v>649</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>289</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>290</v>
+        <v>651</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>291</v>
+        <v>652</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>292</v>
+        <v>653</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>293</v>
+        <v>654</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>294</v>
+        <v>655</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>295</v>
+        <v>656</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>296</v>
+        <v>657</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>297</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
       <c r="B22" s="1" t="s">
-        <v>298</v>
+        <v>659</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>299</v>
+        <v>660</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>300</v>
+        <v>661</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>301</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>123</v>
+        <v>485</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>302</v>
+        <v>663</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>303</v>
+        <v>664</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>304</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>305</v>
+        <v>666</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>306</v>
+        <v>667</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>307</v>
+        <v>668</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>308</v>
+        <v>669</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>309</v>
+        <v>670</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>310</v>
+        <v>671</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>311</v>
+        <v>672</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>312</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:9">
       <c r="B25" s="1" t="s">
-        <v>313</v>
+        <v>674</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>314</v>
+        <v>675</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>315</v>
+        <v>676</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>316</v>
+        <v>677</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>317</v>
+        <v>678</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>318</v>
+        <v>679</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>319</v>
+        <v>680</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>320</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:9">
       <c r="B26" s="1" t="s">
-        <v>321</v>
+        <v>682</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>322</v>
+        <v>683</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>323</v>
+        <v>684</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>324</v>
+        <v>685</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>325</v>
+        <v>686</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>326</v>
+        <v>687</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>327</v>
+        <v>688</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>328</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
       <c r="B27" s="1" t="s">
-        <v>329</v>
+        <v>690</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>330</v>
+        <v>691</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>331</v>
+        <v>692</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>332</v>
+        <v>693</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>333</v>
+        <v>694</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>334</v>
+        <v>695</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>335</v>
+        <v>696</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>336</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:4">
       <c r="B28" s="1" t="s">
-        <v>337</v>
+        <v>698</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>338</v>
+        <v>699</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>339</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>520</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>340</v>
+        <v>701</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>341</v>
+        <v>702</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>342</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>343</v>
+        <v>704</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>344</v>
+        <v>705</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>345</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>523</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>346</v>
+        <v>707</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>347</v>
+        <v>708</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>544</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>348</v>
+        <v>709</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>349</v>
+        <v>710</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>350</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>189</v>
+        <v>550</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>351</v>
+        <v>712</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/文案_设定.xlsx
+++ b/策划文档/文案_设定.xlsx
@@ -24,7 +24,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E27" authorId="0">
+    <comment ref="E28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,34 +46,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-等有虎豹骑之后，变骠骑</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="737">
   <si>
     <t>刘备</t>
   </si>
@@ -117,6 +95,9 @@
     <t>连弩</t>
   </si>
   <si>
+    <t>姜维</t>
+  </si>
+  <si>
     <t>李严</t>
   </si>
   <si>
@@ -126,9 +107,6 @@
     <t>元戎弩</t>
   </si>
   <si>
-    <t>姜维</t>
-  </si>
-  <si>
     <t>大刀</t>
   </si>
   <si>
@@ -246,13 +224,22 @@
     <t>曹洪</t>
   </si>
   <si>
+    <t>虎豹骑</t>
+  </si>
+  <si>
+    <t>曹真</t>
+  </si>
+  <si>
+    <t>曹休、曹纯</t>
+  </si>
+  <si>
     <t>骠骑</t>
   </si>
   <si>
     <t>张辽</t>
   </si>
   <si>
-    <t>曹休</t>
+    <t>于禁</t>
   </si>
   <si>
     <t>曹昂</t>
@@ -270,9 +257,6 @@
     <t>乐进</t>
   </si>
   <si>
-    <t>曹纯</t>
-  </si>
-  <si>
     <t>车冑</t>
   </si>
   <si>
@@ -282,12 +266,6 @@
     <t>徐晃</t>
   </si>
   <si>
-    <t>白马</t>
-  </si>
-  <si>
-    <t>于禁</t>
-  </si>
-  <si>
     <t>戟</t>
   </si>
   <si>
@@ -382,15 +360,6 @@
   </si>
   <si>
     <t>李典</t>
-  </si>
-  <si>
-    <t>虎豹骑</t>
-  </si>
-  <si>
-    <t>曹真</t>
-  </si>
-  <si>
-    <t>曹休、曹纯</t>
   </si>
   <si>
     <t>枪</t>
@@ -2343,12 +2312,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2418,13 +2387,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.5"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -2437,11 +2399,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2453,8 +2436,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2475,38 +2475,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2520,19 +2496,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2544,17 +2512,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2581,18 +2543,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2631,37 +2593,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2679,7 +2647,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2691,7 +2701,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2703,55 +2743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2763,7 +2761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2781,43 +2779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2846,17 +2814,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2881,6 +2852,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2892,15 +2893,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2919,30 +2911,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2951,10 +2919,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2963,137 +2931,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3142,19 +3110,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3163,25 +3131,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3196,10 +3161,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3285,7 +3250,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3320,13 +3285,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3344,7 +3309,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8633460" y="20558760"/>
+          <a:off x="8633460" y="20360640"/>
           <a:ext cx="1493520" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3362,13 +3327,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3386,7 +3351,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8221980" y="16253460"/>
+          <a:off x="8221980" y="16055340"/>
           <a:ext cx="6362700" cy="3764280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3732,10 +3697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H108"/>
+  <dimension ref="B1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3810,20 +3775,20 @@
       <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="16.2" spans="3:8">
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="7"/>
@@ -3914,7 +3879,7 @@
       <c r="D12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="7"/>
@@ -3960,10 +3925,10 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" ht="16.2" spans="3:8">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="15"/>
@@ -3972,7 +3937,7 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" ht="16.2" spans="3:8">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="7"/>
@@ -3986,7 +3951,7 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="7"/>
@@ -3996,9 +3961,6 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="20"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
@@ -4062,59 +4024,57 @@
       <c r="H24" s="7"/>
     </row>
     <row r="25" ht="16.2" spans="3:8">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" ht="16.2" spans="3:8">
       <c r="C26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="F26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="7" t="s">
+    </row>
+    <row r="27" ht="16.2" spans="3:8">
+      <c r="C27" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="D27" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="14" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="7"/>
@@ -4190,7 +4150,7 @@
       </c>
     </row>
     <row r="34" ht="16.2" spans="3:8">
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -4199,7 +4159,7 @@
       <c r="E34" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="24" t="s">
         <v>85</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -4212,7 +4172,7 @@
         <v>87</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="19" t="s">
         <v>88</v>
       </c>
       <c r="F35" s="7"/>
@@ -4237,7 +4197,7 @@
       <c r="C37" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="24" t="s">
         <v>93</v>
       </c>
       <c r="F37" s="7"/>
@@ -4245,10 +4205,10 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F38" s="7"/>
@@ -4262,7 +4222,7 @@
       <c r="D39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="19" t="s">
         <v>98</v>
       </c>
       <c r="F39" s="7"/>
@@ -4270,197 +4230,196 @@
       <c r="H39" s="7"/>
     </row>
     <row r="40" ht="16.2" spans="3:8">
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="24" t="s">
         <v>102</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" ht="16.2" spans="3:8">
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>105</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" ht="16.2" spans="3:8">
-      <c r="C42" s="21" t="s">
-        <v>106</v>
+      <c r="C42" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="23" t="s">
-        <v>107</v>
-      </c>
+      <c r="E42" s="24"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" ht="16.2" spans="3:8">
-      <c r="C43" s="24" t="s">
-        <v>108</v>
+      <c r="C43" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="D43" s="15"/>
-      <c r="E43" s="23"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" ht="16.2" spans="3:8">
-      <c r="C44" s="24" t="s">
-        <v>109</v>
+      <c r="C44" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="D44" s="15"/>
-      <c r="E44" s="23"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" ht="16.2" spans="3:8">
-      <c r="C45" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="23"/>
+    <row r="45" spans="3:8">
+      <c r="C45" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="17" t="s">
+    <row r="47" spans="2:8">
+      <c r="B47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8">
+        <v>6</v>
+      </c>
+      <c r="E47" s="9">
+        <v>5</v>
+      </c>
+      <c r="F47" s="10">
+        <v>4</v>
+      </c>
+      <c r="G47" s="11">
+        <v>3</v>
+      </c>
+      <c r="H47" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" ht="16.2" spans="3:8">
+      <c r="C48" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="4" t="s">
+      <c r="E48" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8">
-        <v>6</v>
-      </c>
-      <c r="E48" s="9">
-        <v>5</v>
-      </c>
-      <c r="F48" s="10">
-        <v>4</v>
-      </c>
-      <c r="G48" s="11">
-        <v>3</v>
-      </c>
-      <c r="H48" s="12">
-        <v>2</v>
-      </c>
+      <c r="F48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" ht="16.2" spans="3:8">
       <c r="C49" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="D49" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="F49" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="50" ht="16.2" spans="3:8">
       <c r="C50" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50" s="27" t="s">
         <v>121</v>
       </c>
+      <c r="E50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="H50" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" ht="16.2" spans="3:8">
       <c r="C51" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="E51" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" ht="16.2" spans="3:8">
-      <c r="C52" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>130</v>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="3:8">
+    <row r="53" ht="16.2" spans="3:8">
       <c r="C53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" ht="16.2" spans="3:8">
       <c r="C54" s="7" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -4469,63 +4428,63 @@
     </row>
     <row r="55" ht="16.2" spans="3:8">
       <c r="C55" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" ht="16.2" spans="3:8">
       <c r="C56" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" ht="16.2" spans="3:8">
+    <row r="57" spans="3:8">
       <c r="C57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="F57" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="3:8">
+    <row r="58" ht="16.2" spans="3:8">
       <c r="C58" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D58" s="21"/>
-      <c r="E58" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>139</v>
-      </c>
+      <c r="E58" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" ht="16.2" spans="3:8">
       <c r="C59" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D59" s="21"/>
-      <c r="E59" s="18" t="s">
-        <v>140</v>
+      <c r="E59" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
@@ -4533,609 +4492,569 @@
     </row>
     <row r="60" ht="16.2" spans="3:8">
       <c r="C60" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="18" t="s">
-        <v>141</v>
+        <v>80</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" ht="16.2" spans="3:8">
-      <c r="C61" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="18" t="s">
+    <row r="61" ht="16.2" spans="3:5">
+      <c r="C61" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" ht="16.2" spans="5:5">
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" ht="16.2" spans="5:5">
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" ht="16.2" spans="5:5">
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" ht="16.2" spans="5:5">
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" ht="16.2" spans="5:5">
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" s="4" customFormat="1" spans="2:8">
+      <c r="B69" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" ht="16.2" spans="3:8">
-      <c r="C62" s="28" t="s">
+      <c r="C69" s="7"/>
+      <c r="D69" s="8">
+        <v>6</v>
+      </c>
+      <c r="E69" s="9">
+        <v>5</v>
+      </c>
+      <c r="F69" s="10">
+        <v>4</v>
+      </c>
+      <c r="G69" s="11">
+        <v>3</v>
+      </c>
+      <c r="H69" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C70" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" ht="16.2" spans="3:8">
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-    </row>
-    <row r="64" ht="16.2" spans="3:8">
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-    </row>
-    <row r="65" ht="16.2" spans="3:8">
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-    </row>
-    <row r="66" ht="16.2" spans="3:8">
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-    </row>
-    <row r="67" ht="16.2" spans="3:8">
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-    </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="7" t="s">
+      <c r="D70" s="15" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="70" s="4" customFormat="1" spans="2:8">
-      <c r="B70" s="4" t="s">
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8">
-        <v>6</v>
-      </c>
-      <c r="E70" s="9">
-        <v>5</v>
-      </c>
-      <c r="F70" s="10">
-        <v>4</v>
-      </c>
-      <c r="G70" s="11">
-        <v>3</v>
-      </c>
-      <c r="H70" s="12">
-        <v>2</v>
+      <c r="G70" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C71" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>147</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>150</v>
-      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C72" s="13" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="E72" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="F72" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
     <row r="73" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C73" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>152</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
     <row r="74" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C74" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C75" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D75" s="15" t="s">
+    <row r="75" s="4" customFormat="1" spans="3:8">
+      <c r="C75" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7" t="s">
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C76" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" s="4" customFormat="1" spans="3:8">
-      <c r="C76" s="7" t="s">
+      <c r="F76" s="7"/>
+      <c r="G76" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7" t="s">
+      <c r="H76" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H76" s="7"/>
     </row>
     <row r="77" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C77" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="15" t="s">
         <v>159</v>
       </c>
       <c r="F77" s="7"/>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H77" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" s="5" customFormat="1" ht="16.2" spans="3:8">
       <c r="C78" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="80" s="6" customFormat="1" spans="2:2">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" s="6" customFormat="1" spans="2:8">
+      <c r="B81" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8">
+        <v>6</v>
+      </c>
+      <c r="E81" s="9">
+        <v>5</v>
+      </c>
+      <c r="F81" s="10">
+        <v>4</v>
+      </c>
+      <c r="G81" s="11">
+        <v>3</v>
+      </c>
+      <c r="H81" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B82" s="4"/>
+      <c r="C82" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7" t="s">
+      <c r="D82" s="30"/>
+      <c r="E82" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" s="5" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C79" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="81" s="6" customFormat="1" spans="2:2">
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" s="6" customFormat="1" spans="2:8">
-      <c r="B82" s="4" t="s">
+      <c r="F82" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="8">
-        <v>6</v>
-      </c>
-      <c r="E82" s="9">
-        <v>5</v>
-      </c>
-      <c r="F82" s="10">
-        <v>4</v>
-      </c>
-      <c r="G82" s="11">
-        <v>3</v>
-      </c>
-      <c r="H82" s="12">
-        <v>2</v>
-      </c>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
     </row>
     <row r="83" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B83" s="4"/>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="32" t="s">
+      <c r="F83" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="31" t="s">
+      <c r="G83" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
+      <c r="H83" s="30" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="84" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B84" s="4"/>
-      <c r="C84" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F84" s="33" t="s">
+      <c r="C84" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="G84" s="31" t="s">
+      <c r="F84" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="H84" s="31" t="s">
-        <v>171</v>
-      </c>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
     </row>
     <row r="85" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B85" s="4"/>
-      <c r="C85" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E85" s="31" t="s">
+      <c r="C85" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="F85" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
+      <c r="H85" s="30" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="86" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B86" s="4"/>
-      <c r="C86" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E86" s="33" t="s">
+      <c r="C86" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="31"/>
+      <c r="E86" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="H86" s="31" t="s">
+      <c r="G86" s="30"/>
+      <c r="H86" s="30" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="87" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B87" s="4"/>
-      <c r="C87" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" s="32"/>
+      <c r="C87" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="30"/>
       <c r="E87" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="F87" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+    </row>
+    <row r="88" s="6" customFormat="1" spans="2:8">
       <c r="B88" s="4"/>
       <c r="C88" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
     </row>
     <row r="89" s="6" customFormat="1" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
+      <c r="C89" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
     </row>
     <row r="90" s="6" customFormat="1" spans="2:8">
       <c r="B90" s="4"/>
-      <c r="C90" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
+      <c r="C90" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" s="6" customFormat="1" spans="2:8">
       <c r="B91" s="4"/>
-      <c r="C91" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
+      <c r="C91" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
     </row>
     <row r="92" s="6" customFormat="1" spans="2:8">
       <c r="B92" s="4"/>
-      <c r="C92" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
+      <c r="C92" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" s="30"/>
+      <c r="F92" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
     </row>
     <row r="93" s="6" customFormat="1" spans="2:8">
       <c r="B93" s="4"/>
-      <c r="C93" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" s="31"/>
-      <c r="F93" s="36" t="s">
+      <c r="C93" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H93" s="30"/>
+    </row>
+    <row r="94" s="6" customFormat="1" spans="2:2">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="96" s="4" customFormat="1" spans="2:8">
+      <c r="B96" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8">
+        <v>6</v>
+      </c>
+      <c r="E96" s="9">
+        <v>5</v>
+      </c>
+      <c r="F96" s="10">
+        <v>4</v>
+      </c>
+      <c r="G96" s="11">
+        <v>3</v>
+      </c>
+      <c r="H96" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C97" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-    </row>
-    <row r="94" s="6" customFormat="1" spans="2:8">
-      <c r="B94" s="4"/>
-      <c r="C94" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="36" t="s">
+      <c r="E97" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H94" s="31"/>
-    </row>
-    <row r="95" s="6" customFormat="1" spans="2:2">
-      <c r="B95" s="4"/>
-    </row>
-    <row r="97" s="4" customFormat="1" spans="2:8">
-      <c r="B97" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="8">
-        <v>6</v>
-      </c>
-      <c r="E97" s="9">
-        <v>5</v>
-      </c>
-      <c r="F97" s="10">
-        <v>4</v>
-      </c>
-      <c r="G97" s="11">
-        <v>3</v>
-      </c>
-      <c r="H97" s="12">
-        <v>2</v>
+      <c r="F97" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C98" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>190</v>
+        <v>25</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G98" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H98" s="7" t="s">
-        <v>194</v>
-      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
     </row>
     <row r="99" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C99" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
     <row r="100" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C100" s="13" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="D100" s="7"/>
-      <c r="E100" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="F100" s="7" t="s">
+      <c r="E100" s="15" t="s">
         <v>198</v>
       </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C101" s="13" t="s">
+      <c r="H100" s="7" t="s">
         <v>200</v>
       </c>
+    </row>
+    <row r="101" s="4" customFormat="1" spans="3:8">
+      <c r="C101" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="D101" s="7"/>
-      <c r="E101" s="15" t="s">
+      <c r="E101" s="7"/>
+      <c r="F101" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F101" s="7"/>
       <c r="G101" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H101" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="H101" s="7"/>
     </row>
     <row r="102" s="4" customFormat="1" spans="3:8">
       <c r="C102" s="7" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>205</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
     <row r="103" s="4" customFormat="1" spans="3:8">
       <c r="C103" s="7" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="7" t="s">
-        <v>206</v>
+      <c r="F103" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" s="4" customFormat="1" spans="3:8">
+    <row r="104" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C104" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="14" t="s">
-        <v>207</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
     <row r="105" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C105" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" s="4" customFormat="1" ht="16.2" spans="3:8">
+    <row r="106" s="4" customFormat="1" spans="3:8">
       <c r="C106" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F106" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
     <row r="107" s="4" customFormat="1" spans="3:8">
       <c r="C107" s="7" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="14" t="s">
-        <v>209</v>
+      <c r="F107" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
-    </row>
-    <row r="108" s="4" customFormat="1" spans="3:8">
-      <c r="C108" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5161,378 +5080,378 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -5556,420 +5475,420 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B23" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B27" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B30" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B31" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B33" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B34" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B35" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B37" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B39" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B41" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B43" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B45" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -6003,484 +5922,484 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:5">
       <c r="B8" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:11">
       <c r="B9" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:11">
       <c r="B17" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:11">
       <c r="B18" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="J21" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:11">
       <c r="B22" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -6513,572 +6432,572 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:6">
       <c r="B5" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
       <c r="B8" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:6">
       <c r="B9" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
       <c r="B11" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
       <c r="B14" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:9">
       <c r="B16" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:8">
       <c r="B17" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:6">
       <c r="B18" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:9">
       <c r="B19" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:5">
       <c r="B20" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:9">
       <c r="B21" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
       <c r="B22" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:9">
       <c r="B24" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:9">
       <c r="B25" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:9">
       <c r="B26" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
       <c r="B27" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:4">
       <c r="B28" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -7100,137 +7019,137 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/文案_设定.xlsx
+++ b/策划文档/文案_设定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20928" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="势力武将" sheetId="6" r:id="rId1"/>
@@ -18,40 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="E28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-当有武卫骑后，变红武卫骑</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="751">
   <si>
     <t>刘备</t>
   </si>
@@ -95,16 +63,34 @@
     <t>连弩</t>
   </si>
   <si>
+    <t>霍峻</t>
+  </si>
+  <si>
+    <t>霍戈</t>
+  </si>
+  <si>
+    <t>李严</t>
+  </si>
+  <si>
+    <t>吴兰</t>
+  </si>
+  <si>
+    <t>元戎弩</t>
+  </si>
+  <si>
     <t>姜维</t>
   </si>
   <si>
-    <t>李严</t>
-  </si>
-  <si>
-    <t>吴兰</t>
-  </si>
-  <si>
-    <t>元戎弩</t>
+    <t>罗宪</t>
+  </si>
+  <si>
+    <t>无当</t>
+  </si>
+  <si>
+    <t>张嶷</t>
+  </si>
+  <si>
+    <t>王平</t>
   </si>
   <si>
     <t>大刀</t>
@@ -113,6 +99,9 @@
     <t>关羽</t>
   </si>
   <si>
+    <t>关兴</t>
+  </si>
+  <si>
     <t>长枪</t>
   </si>
   <si>
@@ -128,7 +117,13 @@
     <t>赵云</t>
   </si>
   <si>
-    <t>禁卫</t>
+    <t>白毦</t>
+  </si>
+  <si>
+    <t>陈到</t>
+  </si>
+  <si>
+    <t>羽林</t>
   </si>
   <si>
     <t>医士</t>
@@ -158,6 +153,12 @@
     <t>马谡</t>
   </si>
   <si>
+    <t>奇士</t>
+  </si>
+  <si>
+    <t>庞统</t>
+  </si>
+  <si>
     <t>隐士</t>
   </si>
   <si>
@@ -170,33 +171,15 @@
     <t>黄月英</t>
   </si>
   <si>
+    <t>费诗</t>
+  </si>
+  <si>
     <t>攻城车</t>
   </si>
   <si>
     <t>黄权</t>
   </si>
   <si>
-    <t>神机</t>
-  </si>
-  <si>
-    <t>庞统</t>
-  </si>
-  <si>
-    <t>无当</t>
-  </si>
-  <si>
-    <t>张嶷</t>
-  </si>
-  <si>
-    <t>王平</t>
-  </si>
-  <si>
-    <t>白毦</t>
-  </si>
-  <si>
-    <t>陈到</t>
-  </si>
-  <si>
     <t>曹操</t>
   </si>
   <si>
@@ -215,7 +198,7 @@
     <t>郝昭</t>
   </si>
   <si>
-    <t>盾</t>
+    <t>大盾</t>
   </si>
   <si>
     <t>曹仁</t>
@@ -233,48 +216,78 @@
     <t>曹休、曹纯</t>
   </si>
   <si>
+    <t>青州</t>
+  </si>
+  <si>
+    <t>史涣、韩浩</t>
+  </si>
+  <si>
     <t>骠骑</t>
   </si>
   <si>
     <t>张辽</t>
   </si>
   <si>
+    <t>曹昂</t>
+  </si>
+  <si>
+    <t>王忠、卞喜</t>
+  </si>
+  <si>
+    <t>飞骑</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>乐进</t>
+  </si>
+  <si>
+    <t>车冑</t>
+  </si>
+  <si>
+    <t>弓骑</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>庞德</t>
+  </si>
+  <si>
+    <t>李典</t>
+  </si>
+  <si>
+    <t>骁骑</t>
+  </si>
+  <si>
     <t>于禁</t>
   </si>
   <si>
-    <t>曹昂</t>
-  </si>
-  <si>
-    <t>王忠、卞喜</t>
-  </si>
-  <si>
-    <t>先锋</t>
-  </si>
-  <si>
-    <t>张郃</t>
-  </si>
-  <si>
-    <t>乐进</t>
-  </si>
-  <si>
-    <t>车冑</t>
-  </si>
-  <si>
-    <t>斧</t>
+    <t>斧骑</t>
   </si>
   <si>
     <t>徐晃</t>
   </si>
   <si>
+    <t>枪骑</t>
+  </si>
+  <si>
+    <t>文聘、张绣</t>
+  </si>
+  <si>
     <t>戟</t>
   </si>
   <si>
+    <t>曹彰</t>
+  </si>
+  <si>
+    <t>双戟</t>
+  </si>
+  <si>
     <t>典韦</t>
   </si>
   <si>
-    <t>曹彰</t>
-  </si>
-  <si>
     <t>夏侯恩</t>
   </si>
   <si>
@@ -296,30 +309,33 @@
     <t>说客</t>
   </si>
   <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>蒋干</t>
+  </si>
+  <si>
+    <t>荀彧</t>
+  </si>
+  <si>
+    <t>陈登</t>
+  </si>
+  <si>
+    <t>钟繇</t>
+  </si>
+  <si>
+    <t>曹冲</t>
+  </si>
+  <si>
+    <t>内政</t>
+  </si>
+  <si>
+    <t>荀攸</t>
+  </si>
+  <si>
     <t>杨修</t>
   </si>
   <si>
-    <t>蒋干</t>
-  </si>
-  <si>
-    <t>荀彧</t>
-  </si>
-  <si>
-    <t>陈登</t>
-  </si>
-  <si>
-    <t>钟繇</t>
-  </si>
-  <si>
-    <t>曹冲</t>
-  </si>
-  <si>
-    <t>内政</t>
-  </si>
-  <si>
-    <t>荀攸</t>
-  </si>
-  <si>
     <t>投石车</t>
   </si>
   <si>
@@ -347,40 +363,88 @@
     <t>司马懿</t>
   </si>
   <si>
-    <t>贾诩</t>
-  </si>
-  <si>
-    <t>弓骑</t>
-  </si>
-  <si>
-    <t>夏侯渊</t>
-  </si>
-  <si>
-    <t>庞德</t>
-  </si>
-  <si>
-    <t>李典</t>
-  </si>
-  <si>
-    <t>枪</t>
-  </si>
-  <si>
-    <t>文聘、张绣</t>
-  </si>
-  <si>
-    <t>青州兵</t>
-  </si>
-  <si>
-    <t>泰山军</t>
-  </si>
-  <si>
-    <t>渔阳突骑</t>
-  </si>
-  <si>
-    <t>武卫骑</t>
-  </si>
-  <si>
     <t>孙权</t>
+  </si>
+  <si>
+    <t>火船</t>
+  </si>
+  <si>
+    <t>凌统</t>
+  </si>
+  <si>
+    <t>黄盖、陈武、董袭</t>
+  </si>
+  <si>
+    <t>张承、祖茂、周鲂、凌操</t>
+  </si>
+  <si>
+    <t>左奕、全祎</t>
+  </si>
+  <si>
+    <t>解烦</t>
+  </si>
+  <si>
+    <t>朱然</t>
+  </si>
+  <si>
+    <t>朱治、潘璋、丁奉</t>
+  </si>
+  <si>
+    <t>胡综、徐详、陈修</t>
+  </si>
+  <si>
+    <t>锦帆</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>全琮</t>
+  </si>
+  <si>
+    <t>苏飞</t>
+  </si>
+  <si>
+    <t>蛟鳄</t>
+  </si>
+  <si>
+    <t>徐盛</t>
+  </si>
+  <si>
+    <t>韦昭、朱据</t>
+  </si>
+  <si>
+    <t>艨艟</t>
+  </si>
+  <si>
+    <t>吕蒙</t>
+  </si>
+  <si>
+    <t>蒋钦</t>
+  </si>
+  <si>
+    <t>孙翊、朱异</t>
+  </si>
+  <si>
+    <t>孙朗</t>
+  </si>
+  <si>
+    <t>鲁肃</t>
+  </si>
+  <si>
+    <t>诸葛瑾</t>
+  </si>
+  <si>
+    <t>孙策</t>
+  </si>
+  <si>
+    <t>虎卫</t>
+  </si>
+  <si>
+    <t>孙坚</t>
+  </si>
+  <si>
+    <t>小乔、大乔</t>
   </si>
   <si>
     <t>统帅</t>
@@ -413,66 +477,15 @@
     <t>程普</t>
   </si>
   <si>
-    <t>火船</t>
-  </si>
-  <si>
-    <t>甘宁</t>
-  </si>
-  <si>
-    <t>凌统</t>
-  </si>
-  <si>
-    <t>黄盖、朱治、陈武、董袭</t>
-  </si>
-  <si>
-    <t>张承、祖茂、周鲂、凌操</t>
-  </si>
-  <si>
-    <t>苏飞、左奕、全祎</t>
-  </si>
-  <si>
-    <t>战船</t>
-  </si>
-  <si>
-    <t>吕蒙</t>
-  </si>
-  <si>
-    <t>朱然</t>
-  </si>
-  <si>
-    <t>蒋钦</t>
-  </si>
-  <si>
-    <t>孙翊、朱异</t>
-  </si>
-  <si>
-    <t>孙朗</t>
-  </si>
-  <si>
-    <t>鲁肃</t>
-  </si>
-  <si>
-    <t>诸葛瑾</t>
-  </si>
-  <si>
-    <t>孙策</t>
-  </si>
-  <si>
-    <t>虎卫</t>
-  </si>
-  <si>
-    <t>孙坚</t>
-  </si>
-  <si>
-    <t>小乔、大乔</t>
-  </si>
-  <si>
-    <t>弓</t>
+    <t>火矢</t>
   </si>
   <si>
     <t>太史慈</t>
   </si>
   <si>
+    <t>陆抗</t>
+  </si>
+  <si>
     <t>韩当</t>
   </si>
   <si>
@@ -491,12 +504,6 @@
     <t>张纮</t>
   </si>
   <si>
-    <t>锦帆</t>
-  </si>
-  <si>
-    <t>陆抗</t>
-  </si>
-  <si>
     <t>袁绍</t>
   </si>
   <si>
@@ -518,6 +525,9 @@
     <t>高览</t>
   </si>
   <si>
+    <t>枪</t>
+  </si>
+  <si>
     <t>牵招</t>
   </si>
   <si>
@@ -527,6 +537,9 @@
     <t>颜良</t>
   </si>
   <si>
+    <t>斧</t>
+  </si>
+  <si>
     <t>文丑</t>
   </si>
   <si>
@@ -569,40 +582,46 @@
     <t>马腾</t>
   </si>
   <si>
+    <t>韩遂</t>
+  </si>
+  <si>
+    <t>张济、段煨</t>
+  </si>
+  <si>
+    <t>樊稠、李蒙、王方、胡轸</t>
+  </si>
+  <si>
+    <t>华雄</t>
+  </si>
+  <si>
+    <t>狼骑</t>
+  </si>
+  <si>
+    <t>魏续、宋宪</t>
+  </si>
+  <si>
+    <t>曹性</t>
+  </si>
+  <si>
+    <t>郝萌</t>
+  </si>
+  <si>
+    <t>侯成</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>徐荣</t>
+  </si>
+  <si>
+    <t>飞熊骑</t>
+  </si>
+  <si>
     <t>李傕、郭汜</t>
   </si>
   <si>
-    <t>牛辅、张济、段煨</t>
-  </si>
-  <si>
-    <t>樊稠、李蒙、王方、胡轸</t>
-  </si>
-  <si>
-    <t>华雄</t>
-  </si>
-  <si>
-    <t>徐荣</t>
-  </si>
-  <si>
-    <t>狼骑</t>
-  </si>
-  <si>
-    <t>臧霸</t>
-  </si>
-  <si>
-    <t>韩遂</t>
-  </si>
-  <si>
-    <t>魏续、宋宪</t>
-  </si>
-  <si>
-    <t>曹性</t>
-  </si>
-  <si>
-    <t>郝萌</t>
-  </si>
-  <si>
-    <t>侯成</t>
+    <t>牛辅</t>
   </si>
   <si>
     <t>巾帼</t>
@@ -629,7 +648,7 @@
     <t>李肃</t>
   </si>
   <si>
-    <t>刺甲</t>
+    <t>刺盾</t>
   </si>
   <si>
     <t>邓艾</t>
@@ -717,12 +736,6 @@
     <t>贾充</t>
   </si>
   <si>
-    <t>短弓</t>
-  </si>
-  <si>
-    <t>胡奋</t>
-  </si>
-  <si>
     <t>1长安</t>
   </si>
   <si>
@@ -2257,9 +2270,6 @@
   </si>
   <si>
     <t>彭城国，下邳国、东海国，琅邪国，广陵郡</t>
-  </si>
-  <si>
-    <t>青州</t>
   </si>
   <si>
     <t>济南国，平原郡，乐安国，北海国，东莱郡，齐国</t>
@@ -2312,12 +2322,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2363,13 +2373,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.5"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -2393,10 +2396,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.5"/>
+      <color theme="0" tint="-0.5"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2420,6 +2470,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2428,77 +2492,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2513,6 +2508,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2520,41 +2523,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2593,13 +2586,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2611,19 +2676,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2635,19 +2736,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2659,138 +2766,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2814,11 +2801,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2827,26 +2833,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2867,17 +2853,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2896,21 +2911,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2919,10 +2919,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2931,137 +2931,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3110,43 +3110,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3161,13 +3158,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3241,16 +3244,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3267,7 +3270,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8313420" y="3474720"/>
+          <a:off x="8923020" y="3291840"/>
           <a:ext cx="3329940" cy="2468880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3309,7 +3312,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8633460" y="20360640"/>
+          <a:off x="8633460" y="20413980"/>
           <a:ext cx="1493520" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3327,14 +3330,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3351,7 +3354,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8221980" y="16055340"/>
+          <a:off x="8221980" y="15476220"/>
           <a:ext cx="6362700" cy="3764280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3367,16 +3370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>137795</xdr:rowOff>
+      <xdr:rowOff>122555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3393,7 +3396,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7970520" y="635"/>
+          <a:off x="8900160" y="635"/>
           <a:ext cx="6461760" cy="3162300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3697,10 +3700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H107"/>
+  <dimension ref="B1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3775,196 +3778,205 @@
       <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="16.2" spans="3:8">
-      <c r="C5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+    <row r="6" ht="16.2" spans="3:8">
+      <c r="C6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" ht="16.2" spans="3:8">
+    <row r="8" spans="3:8">
       <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" ht="16.2" spans="3:8">
       <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7"/>
+      <c r="C10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="E11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" ht="16.2" spans="3:8">
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>33</v>
-      </c>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" ht="16.2" spans="3:8">
+    <row r="13" spans="3:8">
       <c r="C13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="14" t="s">
-        <v>38</v>
+    <row r="14" ht="16.2" spans="3:8">
+      <c r="C14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="14" t="s">
-        <v>40</v>
-      </c>
+    <row r="15" ht="16.2" spans="3:8">
+      <c r="C15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" ht="16.2" spans="3:8">
-      <c r="C16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="15"/>
+      <c r="C16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" ht="16.2" spans="3:8">
-      <c r="C17" s="20" t="s">
-        <v>43</v>
+    <row r="17" spans="3:8">
+      <c r="C17" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="7"/>
+      <c r="E17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="18" t="s">
-        <v>46</v>
+      <c r="C18" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8">
@@ -3985,10 +3997,10 @@
     </row>
     <row r="22" ht="16.2" spans="3:8">
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -3997,311 +4009,304 @@
     </row>
     <row r="23" ht="16.2" spans="3:8">
       <c r="C23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" ht="16.2" spans="3:8">
       <c r="C24" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" ht="16.2" spans="3:8">
-      <c r="C25" s="22" t="s">
-        <v>57</v>
+      <c r="C25" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" ht="16.2" spans="3:8">
-      <c r="C26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="C26" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" ht="16.2" spans="3:8">
       <c r="C27" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="H27" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="14" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="28" ht="16.2" spans="3:8">
+      <c r="C28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" ht="16.2" spans="3:8">
-      <c r="C29" s="7" t="s">
-        <v>71</v>
+      <c r="C29" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="7" t="s">
-        <v>25</v>
+    <row r="30" ht="16.2" spans="3:8">
+      <c r="C30" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" ht="16.2" spans="3:8">
-      <c r="C31" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="21" t="s">
-        <v>77</v>
-      </c>
+      <c r="C31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" ht="16.2" spans="3:8">
-      <c r="C32" s="7" t="s">
-        <v>78</v>
+      <c r="C32" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="E32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" ht="16.2" spans="3:8">
-      <c r="C33" s="21" t="s">
-        <v>80</v>
+      <c r="C33" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="E33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" ht="16.2" spans="3:8">
-      <c r="C34" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="C34" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" ht="16.2" spans="3:8">
-      <c r="C35" s="21" t="s">
-        <v>87</v>
+    <row r="35" spans="3:8">
+      <c r="C35" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="19" t="s">
-        <v>88</v>
+      <c r="E35" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="36" ht="16.2" spans="3:8">
-      <c r="C36" s="21" t="s">
-        <v>89</v>
+      <c r="C36" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="24" t="s">
+    <row r="37" ht="16.2" spans="3:8">
+      <c r="C37" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="24" t="s">
+    <row r="38" ht="16.2" spans="3:8">
+      <c r="C38" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="H38" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="39" ht="16.2" spans="3:8">
-      <c r="C39" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="19" t="s">
+      <c r="C39" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="E39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" ht="16.2" spans="3:8">
-      <c r="C40" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="24" t="s">
+      <c r="C40" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" ht="16.2" spans="3:8">
-      <c r="C41" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="24" t="s">
-        <v>104</v>
+      <c r="C41" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" ht="16.2" spans="3:8">
-      <c r="C42" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="24"/>
+      <c r="C42" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" ht="16.2" spans="3:8">
-      <c r="C43" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="24"/>
+      <c r="C43" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" ht="16.2" spans="3:8">
-      <c r="C44" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="24"/>
+      <c r="C44" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="3:8">
-      <c r="C45" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+    <row r="45" spans="5:5">
+      <c r="E45" s="24"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8">
@@ -4322,571 +4327,622 @@
     </row>
     <row r="48" ht="16.2" spans="3:8">
       <c r="C48" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="49" ht="16.2" spans="3:8">
-      <c r="C49" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="C49" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" ht="16.2" spans="3:8">
-      <c r="C50" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="C50" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="26"/>
       <c r="F50" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" ht="16.2" spans="3:8">
-      <c r="C51" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="C51" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+    <row r="52" ht="16.2" spans="3:8">
+      <c r="C52" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="53" ht="16.2" spans="3:8">
-      <c r="C53" s="7" t="s">
-        <v>65</v>
+      <c r="C53" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" ht="16.2" spans="3:8">
+    <row r="54" spans="3:8">
       <c r="C54" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" ht="16.2" spans="3:8">
       <c r="C55" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="15" t="s">
-        <v>131</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" ht="16.2" spans="3:8">
       <c r="C56" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E56" s="7"/>
-      <c r="F56" s="21" t="s">
-        <v>134</v>
-      </c>
+      <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="3:8">
+    <row r="57" ht="16.2" spans="3:8">
       <c r="C57" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>136</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" ht="16.2" spans="3:8">
-      <c r="C58" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F58" s="7"/>
+      <c r="C58" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" ht="16.2" spans="3:8">
-      <c r="C59" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F59" s="7"/>
+      <c r="C59" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
     <row r="60" ht="16.2" spans="3:8">
       <c r="C60" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" ht="16.2" spans="3:5">
-      <c r="C61" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="19"/>
-    </row>
-    <row r="62" ht="16.2" spans="5:5">
-      <c r="E62" s="19"/>
-    </row>
-    <row r="63" ht="16.2" spans="5:5">
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" ht="16.2" spans="5:5">
-      <c r="E64" s="19"/>
-    </row>
-    <row r="65" ht="16.2" spans="5:5">
-      <c r="E65" s="19"/>
-    </row>
-    <row r="66" ht="16.2" spans="5:5">
-      <c r="E66" s="19"/>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" s="4" customFormat="1" spans="2:8">
-      <c r="B69" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="8">
+    <row r="61" ht="16.2" spans="3:8">
+      <c r="C61" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" ht="16.2" spans="3:8">
+      <c r="C62" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" ht="16.2" spans="3:8">
+      <c r="C63" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="66" s="4" customFormat="1" spans="2:8">
+      <c r="B66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8">
         <v>6</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E66" s="9">
         <v>5</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F66" s="10">
         <v>4</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G66" s="11">
         <v>3</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H66" s="12">
         <v>2</v>
       </c>
+    </row>
+    <row r="67" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C67" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C68" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C69" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C70" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>144</v>
+        <v>164</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C71" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C72" s="13" t="s">
-        <v>103</v>
+    <row r="72" s="4" customFormat="1" spans="3:8">
+      <c r="C72" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="D72" s="7"/>
-      <c r="E72" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="H72" s="7"/>
     </row>
     <row r="73" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C73" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" s="7"/>
+      <c r="C73" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="G73" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="74" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C74" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G74" s="7"/>
+      <c r="C74" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" s="4" customFormat="1" spans="3:8">
+    <row r="75" s="5" customFormat="1" ht="16.2" spans="3:8">
       <c r="C75" s="7" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
-        <v>142</v>
+      <c r="E75" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="7" t="s">
-        <v>155</v>
-      </c>
+      <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C76" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C77" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" s="5" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C78" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="80" s="6" customFormat="1" spans="2:2">
+    <row r="77" s="6" customFormat="1" spans="2:2">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" s="6" customFormat="1" spans="2:8">
+      <c r="B78" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8">
+        <v>6</v>
+      </c>
+      <c r="E78" s="9">
+        <v>5</v>
+      </c>
+      <c r="F78" s="10">
+        <v>4</v>
+      </c>
+      <c r="G78" s="11">
+        <v>3</v>
+      </c>
+      <c r="H78" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B79" s="4"/>
+      <c r="C79" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+    </row>
+    <row r="80" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B80" s="4"/>
-    </row>
-    <row r="81" s="6" customFormat="1" spans="2:8">
-      <c r="B81" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="8">
-        <v>6</v>
-      </c>
-      <c r="E81" s="9">
-        <v>5</v>
-      </c>
-      <c r="F81" s="10">
-        <v>4</v>
-      </c>
-      <c r="G81" s="11">
-        <v>3</v>
-      </c>
-      <c r="H81" s="12">
-        <v>2</v>
-      </c>
+      <c r="C80" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B81" s="4"/>
+      <c r="C81" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
     </row>
     <row r="82" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B82" s="4"/>
-      <c r="C82" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" s="30"/>
-      <c r="E82" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F82" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
+      <c r="C82" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H82" s="33"/>
     </row>
     <row r="83" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B83" s="4"/>
-      <c r="C83" s="29" t="s">
-        <v>1</v>
+      <c r="C83" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="D83" s="30"/>
-      <c r="E83" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="F83" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G83" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H83" s="30" t="s">
-        <v>168</v>
-      </c>
+      <c r="E83" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="H83" s="33"/>
     </row>
     <row r="84" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B84" s="4"/>
-      <c r="C84" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D84" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F84" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
+      <c r="C84" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="33"/>
+      <c r="E84" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
     </row>
     <row r="85" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B85" s="4"/>
-      <c r="C85" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>174</v>
-      </c>
+      <c r="C85" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="33"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
     </row>
     <row r="86" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B86" s="4"/>
-      <c r="C86" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30" t="s">
-        <v>177</v>
-      </c>
+      <c r="C86" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="30"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H86" s="29"/>
     </row>
     <row r="87" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B87" s="4"/>
-      <c r="C87" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
+      <c r="C87" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" s="6" customFormat="1" spans="2:8">
       <c r="B88" s="4"/>
-      <c r="C88" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
+      <c r="C88" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
     </row>
     <row r="89" s="6" customFormat="1" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D89" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
+      <c r="C89" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
     </row>
     <row r="90" s="6" customFormat="1" spans="2:8">
       <c r="B90" s="4"/>
-      <c r="C90" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
+      <c r="C90" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
     </row>
     <row r="91" s="6" customFormat="1" spans="2:8">
       <c r="B91" s="4"/>
-      <c r="C91" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-    </row>
-    <row r="92" s="6" customFormat="1" spans="2:8">
+      <c r="C91" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+    </row>
+    <row r="92" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B92" s="4"/>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D92" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92" s="30"/>
-      <c r="F92" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-    </row>
-    <row r="93" s="6" customFormat="1" spans="2:8">
+      <c r="E92" s="29"/>
+      <c r="F92" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+    </row>
+    <row r="93" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B93" s="4"/>
-      <c r="C93" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="H93" s="30"/>
+      <c r="C93" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H93" s="29"/>
     </row>
     <row r="94" s="6" customFormat="1" spans="2:2">
       <c r="B94" s="4"/>
     </row>
     <row r="96" s="4" customFormat="1" spans="2:8">
       <c r="B96" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8">
@@ -4907,33 +4963,33 @@
     </row>
     <row r="97" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C97" s="13" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C98" s="13" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -4941,92 +4997,92 @@
     </row>
     <row r="99" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C99" s="13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="14" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H99" s="7"/>
     </row>
     <row r="100" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C100" s="13" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="15" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" spans="3:8">
       <c r="C101" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H101" s="7"/>
     </row>
     <row r="102" s="4" customFormat="1" spans="3:8">
       <c r="C102" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
     <row r="103" s="4" customFormat="1" spans="3:8">
       <c r="C103" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="14" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
     <row r="104" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C104" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
     <row r="105" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C105" s="7" t="s">
-        <v>80</v>
+      <c r="C105" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="15" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
@@ -5034,33 +5090,20 @@
     </row>
     <row r="106" s="4" customFormat="1" spans="3:8">
       <c r="C106" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="14" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-    </row>
-    <row r="107" s="4" customFormat="1" spans="3:8">
-      <c r="C107" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5080,378 +5123,378 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -5475,420 +5518,420 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B15" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B21" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B22" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="C23" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="B24" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="B26" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B27" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B29" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C29" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="B30" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="B31" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="B32" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="B33" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B36" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="B37" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B38" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B42" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B43" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="B46" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="B47" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B48" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B50" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -5922,484 +5965,484 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:11">
       <c r="B9" s="1" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:11">
       <c r="B17" s="1" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:11">
       <c r="B18" s="1" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:11">
       <c r="B22" s="1" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -6432,572 +6475,572 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:6">
       <c r="B9" s="1" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
       <c r="B11" s="1" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
       <c r="B14" s="1" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:9">
       <c r="B16" s="1" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:8">
       <c r="B17" s="1" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:9">
       <c r="B19" s="1" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
       <c r="B22" s="1" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:9">
       <c r="B25" s="1" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:9">
       <c r="B26" s="1" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
       <c r="B27" s="1" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:4">
       <c r="B28" s="1" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -7019,137 +7062,137 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>721</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/文案_设定.xlsx
+++ b/策划文档/文案_设定.xlsx
@@ -4,171 +4,1339 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="20928" windowHeight="9960"/>
   </bookViews>
   <sheets>
-    <sheet name="城池" sheetId="1" r:id="rId1"/>
-    <sheet name="文官" sheetId="2" r:id="rId2"/>
-    <sheet name="武官" sheetId="3" r:id="rId3"/>
+    <sheet name="势力武将" sheetId="6" r:id="rId1"/>
+    <sheet name="城池" sheetId="1" r:id="rId2"/>
+    <sheet name="NPC城池" sheetId="4" r:id="rId3"/>
+    <sheet name="文官" sheetId="2" r:id="rId4"/>
+    <sheet name="武官" sheetId="3" r:id="rId5"/>
+    <sheet name="十三州" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="352">
-  <si>
-    <t>城池</t>
-  </si>
-  <si>
-    <t>大战</t>
-  </si>
-  <si>
-    <t>关隘</t>
-  </si>
-  <si>
-    <t>山</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="751">
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>铁骑</t>
+  </si>
+  <si>
+    <t>马超</t>
+  </si>
+  <si>
+    <t>马云禄</t>
+  </si>
+  <si>
+    <t>马岱</t>
+  </si>
+  <si>
+    <t>马休</t>
+  </si>
+  <si>
+    <t>马铁</t>
+  </si>
+  <si>
+    <t>大弓</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>魏延</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>刘封</t>
+  </si>
+  <si>
+    <t>孟达</t>
+  </si>
+  <si>
+    <t>连弩</t>
+  </si>
+  <si>
+    <t>霍峻</t>
+  </si>
+  <si>
+    <t>霍戈</t>
+  </si>
+  <si>
+    <t>李严</t>
+  </si>
+  <si>
+    <t>吴兰</t>
+  </si>
+  <si>
+    <t>元戎弩</t>
+  </si>
+  <si>
+    <t>姜维</t>
+  </si>
+  <si>
+    <t>罗宪</t>
+  </si>
+  <si>
+    <t>无当</t>
+  </si>
+  <si>
+    <t>张嶷</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>大刀</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>关兴</t>
+  </si>
+  <si>
+    <t>长枪</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>张苞</t>
+  </si>
+  <si>
+    <t>神武</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>白毦</t>
+  </si>
+  <si>
+    <t>陈到</t>
+  </si>
+  <si>
+    <t>羽林</t>
+  </si>
+  <si>
+    <t>医士</t>
+  </si>
+  <si>
+    <t>华佗</t>
+  </si>
+  <si>
+    <t>辅佐</t>
+  </si>
+  <si>
+    <t>马良</t>
+  </si>
+  <si>
+    <t>糜竺</t>
+  </si>
+  <si>
+    <t>军师</t>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+  </si>
+  <si>
+    <t>法正</t>
+  </si>
+  <si>
+    <t>马谡</t>
+  </si>
+  <si>
+    <t>奇士</t>
+  </si>
+  <si>
+    <t>庞统</t>
+  </si>
+  <si>
+    <t>隐士</t>
+  </si>
+  <si>
+    <t>徐庶</t>
+  </si>
+  <si>
+    <t>器械</t>
+  </si>
+  <si>
+    <t>黄月英</t>
+  </si>
+  <si>
+    <t>费诗</t>
+  </si>
+  <si>
+    <t>攻城车</t>
+  </si>
+  <si>
+    <t>黄权</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>敢死</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>近战</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>郝昭</t>
+  </si>
+  <si>
+    <t>大盾</t>
+  </si>
+  <si>
+    <t>曹仁</t>
+  </si>
+  <si>
+    <t>曹洪</t>
+  </si>
+  <si>
+    <t>虎豹骑</t>
+  </si>
+  <si>
+    <t>曹真</t>
+  </si>
+  <si>
+    <t>曹休、曹纯</t>
+  </si>
+  <si>
+    <t>青州</t>
+  </si>
+  <si>
+    <t>史涣、韩浩</t>
+  </si>
+  <si>
+    <t>骠骑</t>
+  </si>
+  <si>
+    <t>张辽</t>
+  </si>
+  <si>
+    <t>曹昂</t>
+  </si>
+  <si>
+    <t>王忠、卞喜</t>
+  </si>
+  <si>
+    <t>飞骑</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>乐进</t>
+  </si>
+  <si>
+    <t>车冑</t>
+  </si>
+  <si>
+    <t>弓骑</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>庞德</t>
+  </si>
+  <si>
+    <t>李典</t>
+  </si>
+  <si>
+    <t>骁骑</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>斧骑</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>枪骑</t>
+  </si>
+  <si>
+    <t>文聘、张绣</t>
+  </si>
+  <si>
+    <t>戟</t>
+  </si>
+  <si>
+    <t>曹彰</t>
+  </si>
+  <si>
+    <t>双戟</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>夏侯恩</t>
+  </si>
+  <si>
+    <t>谋士</t>
+  </si>
+  <si>
+    <t>郭嘉</t>
+  </si>
+  <si>
+    <t>戏志才</t>
+  </si>
+  <si>
+    <t>辩士</t>
+  </si>
+  <si>
+    <t>曹植</t>
+  </si>
+  <si>
+    <t>说客</t>
+  </si>
+  <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>蒋干</t>
+  </si>
+  <si>
+    <t>荀彧</t>
+  </si>
+  <si>
+    <t>陈登</t>
+  </si>
+  <si>
+    <t>钟繇</t>
+  </si>
+  <si>
+    <t>曹冲</t>
+  </si>
+  <si>
+    <t>内政</t>
+  </si>
+  <si>
+    <t>荀攸</t>
+  </si>
+  <si>
+    <t>杨修</t>
+  </si>
+  <si>
+    <t>投石车</t>
+  </si>
+  <si>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>刘晔</t>
+  </si>
+  <si>
+    <t>美人</t>
+  </si>
+  <si>
+    <t>蔡文姬</t>
+  </si>
+  <si>
+    <t>红颜</t>
+  </si>
+  <si>
+    <t>甄姬</t>
+  </si>
+  <si>
+    <t>毒士</t>
+  </si>
+  <si>
+    <t>司马懿</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>火船</t>
+  </si>
+  <si>
+    <t>凌统</t>
+  </si>
+  <si>
+    <t>黄盖、陈武、董袭</t>
+  </si>
+  <si>
+    <t>张承、祖茂、周鲂、凌操</t>
+  </si>
+  <si>
+    <t>左奕、全祎</t>
+  </si>
+  <si>
+    <t>解烦</t>
+  </si>
+  <si>
+    <t>朱然</t>
+  </si>
+  <si>
+    <t>朱治、潘璋、丁奉</t>
+  </si>
+  <si>
+    <t>胡综、徐详、陈修</t>
+  </si>
+  <si>
+    <t>锦帆</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>全琮</t>
+  </si>
+  <si>
+    <t>苏飞</t>
+  </si>
+  <si>
+    <t>蛟鳄</t>
+  </si>
+  <si>
+    <t>徐盛</t>
+  </si>
+  <si>
+    <t>韦昭、朱据</t>
+  </si>
+  <si>
+    <t>艨艟</t>
+  </si>
+  <si>
+    <t>吕蒙</t>
+  </si>
+  <si>
+    <t>蒋钦</t>
+  </si>
+  <si>
+    <t>孙翊、朱异</t>
+  </si>
+  <si>
+    <t>孙朗</t>
+  </si>
+  <si>
+    <t>鲁肃</t>
+  </si>
+  <si>
+    <t>诸葛瑾</t>
+  </si>
+  <si>
+    <t>孙策</t>
+  </si>
+  <si>
+    <t>虎卫</t>
+  </si>
+  <si>
+    <t>孙坚</t>
+  </si>
+  <si>
+    <t>小乔、大乔</t>
+  </si>
+  <si>
+    <t>统帅</t>
+  </si>
+  <si>
+    <t>周瑜</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆逊、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诸葛恪</t>
+    </r>
+  </si>
+  <si>
+    <t>程普</t>
+  </si>
+  <si>
+    <t>火矢</t>
+  </si>
+  <si>
+    <t>太史慈</t>
+  </si>
+  <si>
+    <t>陆抗</t>
+  </si>
+  <si>
+    <t>韩当</t>
+  </si>
+  <si>
+    <t>孙尚香</t>
+  </si>
+  <si>
+    <t>孙恒</t>
+  </si>
+  <si>
+    <t>周泰</t>
+  </si>
+  <si>
+    <t>张昭</t>
+  </si>
+  <si>
+    <t>张纮</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>先登</t>
+  </si>
+  <si>
+    <t>麴义</t>
+  </si>
+  <si>
+    <t>淳于琼</t>
+  </si>
+  <si>
+    <t>蒋义渠、韩猛</t>
+  </si>
+  <si>
+    <t>吕旷、高干、周昂、王门、郭援</t>
+  </si>
+  <si>
+    <t>高览</t>
+  </si>
+  <si>
+    <t>枪</t>
+  </si>
+  <si>
+    <t>牵招</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>颜良</t>
+  </si>
+  <si>
+    <t>斧</t>
+  </si>
+  <si>
+    <t>文丑</t>
+  </si>
+  <si>
+    <t>纪灵</t>
+  </si>
+  <si>
+    <t>战车</t>
+  </si>
+  <si>
+    <t>袁术</t>
+  </si>
+  <si>
+    <t>沮授</t>
+  </si>
+  <si>
+    <t>审配、逢纪</t>
+  </si>
+  <si>
+    <t>郭图、许攸</t>
+  </si>
+  <si>
+    <t>田丰</t>
+  </si>
+  <si>
+    <t>王修</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>陷阵</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>成廉</t>
+  </si>
+  <si>
+    <t>马腾</t>
+  </si>
+  <si>
+    <t>韩遂</t>
+  </si>
+  <si>
+    <t>张济、段煨</t>
+  </si>
+  <si>
+    <t>樊稠、李蒙、王方、胡轸</t>
+  </si>
+  <si>
+    <t>华雄</t>
+  </si>
+  <si>
+    <t>狼骑</t>
+  </si>
+  <si>
+    <t>魏续、宋宪</t>
+  </si>
+  <si>
+    <t>曹性</t>
+  </si>
+  <si>
+    <t>郝萌</t>
+  </si>
+  <si>
+    <t>侯成</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>徐荣</t>
+  </si>
+  <si>
+    <t>飞熊骑</t>
+  </si>
+  <si>
+    <t>李傕、郭汜</t>
+  </si>
+  <si>
+    <t>牛辅</t>
+  </si>
+  <si>
+    <t>巾帼</t>
+  </si>
+  <si>
+    <t>吕玲绮</t>
+  </si>
+  <si>
+    <t>陈宫</t>
+  </si>
+  <si>
+    <t>貂蝉</t>
+  </si>
+  <si>
+    <t>董卓</t>
+  </si>
+  <si>
+    <t>蔡邕</t>
+  </si>
+  <si>
+    <t>李儒</t>
+  </si>
+  <si>
+    <t>李肃</t>
+  </si>
+  <si>
+    <t>刺盾</t>
+  </si>
+  <si>
+    <t>邓艾</t>
+  </si>
+  <si>
+    <t>司马师</t>
+  </si>
+  <si>
+    <t>郭淮</t>
+  </si>
+  <si>
+    <t>邓忠</t>
+  </si>
+  <si>
+    <t>孙秀、杨欣</t>
+  </si>
+  <si>
+    <t>司马炎</t>
+  </si>
+  <si>
+    <t>司马昭</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羊祜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张春华</t>
+    </r>
+  </si>
+  <si>
+    <t>杜预、辛宪英</t>
+  </si>
+  <si>
+    <t>王元姬</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>文鸯</t>
+  </si>
+  <si>
+    <t>杨济、成济</t>
+  </si>
+  <si>
+    <t>王谈、文虎</t>
+  </si>
+  <si>
+    <t>司马攸</t>
+  </si>
+  <si>
+    <t>裴秀</t>
+  </si>
+  <si>
+    <t>卫瓘</t>
+  </si>
+  <si>
+    <t>马隆</t>
+  </si>
+  <si>
+    <t>钟会</t>
+  </si>
+  <si>
+    <t>贾充</t>
+  </si>
+  <si>
+    <t>1长安</t>
+  </si>
+  <si>
+    <t>统辖今陕西省一带，古为雍州州府，函谷为障，陇蜀沃野，渭水通衢，金城千里。其名有长治久安之寓意。董卓曾挟天子迁都于此，后遭吕布、王允刺杀，其部将李傕郭汜击退吕布控制长安，掌握朝纲。</t>
+  </si>
+  <si>
+    <t>长安现称西安</t>
+  </si>
+  <si>
+    <t>2洛阳</t>
+  </si>
+  <si>
+    <t>统辖今河南省一带，古为司隶州府，东汉帝都。自光武定国，以为东都，乃帝业之中心。其名由来是“其居洛水之北，水北而为阳”故名洛阳。汉末曾因十常侍之乱，董卓进京祸乱朝纲，导致天下诸侯共伐，战乱中董卓纵火焚毁帝都，迁至长安。后汉帝归朝重建洛阳，此地仍为天下龙脉之处。</t>
+  </si>
+  <si>
+    <t>汉中如今仍然沿用</t>
+  </si>
+  <si>
+    <t>3汉中</t>
+  </si>
+  <si>
+    <t>统辖今陕西南部一带，古为益州门户，北靠秦岭，南连大巴，前有雄关阳平，为易守难攻之处，有着“得汉中者得天下”一说。其名因城坐落汉江中游，故名汉中。著名的定军山之战便是在此处发生，老将黄忠老当益壮，大破魏军，斩杀曹魏名将夏侯渊，击退张颌所部。此后汉中便为蜀汉之门户，北伐之前哨。</t>
+  </si>
+  <si>
+    <t>河南还有许昌（颍川、中牟）、汝南（谯、宋县、阳安）这类重镇</t>
+  </si>
+  <si>
+    <t>4晋阳</t>
+  </si>
+  <si>
+    <t>统辖今山西省一带，古为并州州府，控带山河，踞天下之肩背，襟四塞之要冲，控五原之都邑。其因周时地处晋国之内，又居悬瓮山之阳面，故名晋阳。晋阳作为并州重镇，东临太行山，西有汾河、吕梁山，北为雁门关，南靠霍太山、高壁岭。且当地民风剽悍，多猛将。</t>
+  </si>
+  <si>
+    <t>并州出去晋阳（雁门、太原、襄垣）外还有上党（西河、壶关、长子）</t>
+  </si>
+  <si>
+    <t>5邺城</t>
+  </si>
+  <si>
+    <t>统辖今河北省一带，古为冀州州府，古之侯都，三台依墙而筑，七子建安风骨，传世佳语。“邺”之名始于黄帝之孙颛顼孙女女修之子大业始居地，曾为袁绍势力核心城市，后因官渡一败，建安九年，曹操北上破毛城、邯郸，降易阳、涉县。五月水淹邺城，七月破袁救兵，同月进军邺。后为曹魏五都之一，城西北有冰井台、铜雀台、金虎台。</t>
+  </si>
+  <si>
+    <t>邺城下有（钜鹿、常山、白马）</t>
+  </si>
+  <si>
+    <t>6襄平</t>
+  </si>
+  <si>
+    <t>统辖今辽宁省一带，古为幽州重镇，燕国古邑，东、北衍水，西小辽水，西南首山在望。筑长城以为障。曾为公孙氏燕国得帝都，后司马懿于其激战襄平，大破之。此后襄平纳入曹魏版图为边疆重镇之一。</t>
+  </si>
+  <si>
+    <t>辽宁在曹魏时期属幽州，分为辽东郡（治所襄平）、玄菟郡（治所高句骊县）、昌黎郡（治所昌黎县）</t>
+  </si>
+  <si>
+    <t>7檅城</t>
+  </si>
+  <si>
+    <t>统辖今吉林一带，古为扶余塞外之城。在玄菟北千里，南与高句丽，东与挹娄，西与鲜卑接，北有弱水，地方二千里，本穢地也。户八万，其民土著，有宫室、仓库、牢狱，多山陵、广泽，于东夷之域最平敞。土地宜五谷，不生五果。其人粗大，性强勇谨厚，不冠钞。</t>
+  </si>
+  <si>
+    <t>穢城</t>
+  </si>
+  <si>
+    <t>8挹娄</t>
+  </si>
+  <si>
+    <t>统辖今黑龙江一带，古为肃慎之国也。在夫馀东北千余里，东滨大海，南与北沃沮接，不知其北所极。土地多山险。自汉兴以后，臣属夫馀。种众虽少，而多勇力，处山险，又善射，发能入人目。弓长四尺，力如弩。长一尺八寸，青石为镞，镞皆施毒，中人即死。便乘船，邻国畏患，而卒不能服。</t>
+  </si>
+  <si>
+    <t>挹娄</t>
+  </si>
+  <si>
+    <t>9襄阳</t>
+  </si>
+  <si>
+    <t>统辖今湖北一带，古为荆州州府，南船北马，七省通达，乱世中之定所，众贤广聚于此。其名由“驾山而下谓之‘襄’”,襄阳城南岘山北麓的十里小河因而名叫“襄水”,襄阳城因此而得名。曾为刘表势力核心地区，孙坚与其略有交锋，后孙坚、刘表陨落，此地成为魏蜀吴三家必争之地，曾发生过三国时期转折得襄樊之战，关羽水淹七军，擒于禁，围曹仁，威震华夏。吕蒙白衣渡江奇袭荆州，迫使关羽败走麦城，兵败而亡。</t>
+  </si>
+  <si>
+    <t>襄阳下有（汉津、新城）</t>
+  </si>
+  <si>
+    <t>10长沙</t>
+  </si>
+  <si>
+    <t>统辖今湖南一带，古为荆州重镇，江陵之咽喉，扼控蛮越，束带上游，可襟带万里。其名来源于长沙星，《史记·天官书》云:“天则有列宿,地则有州域。”二十八宿中轸宿有一附星名为“长沙”。号称江东猛虎的孙坚便是长沙太守，后因北伐讨董长沙被刘表所夺，委任韩玄为长沙太守。才出现孙家后人开拓江东，问鼎中原的霸业。演义中猛将黄忠和魏延也在此处归顺刘备。</t>
+  </si>
+  <si>
+    <t>11寿春</t>
+  </si>
+  <si>
+    <t>统辖今安徽省一带，古为扬州重镇，后曹魏将其改为扬州治所。楚国故都，背靠八公山，淮南旧城。“寿”之东为“春”，故秦国建立郡县的时候命名为“寿春邑”，即“久远土丘东侧的一个城镇”的意思。三国时期为袁术势力根基之地，后因其称帝被曹操所灭，著名的寿春之战亦是在此地发生，司马懿全歼诸葛诞、吴国联军近20万人。</t>
+  </si>
+  <si>
+    <t>寿春下有(合淝、乌江)</t>
+  </si>
+  <si>
+    <t>12柴桑</t>
+  </si>
+  <si>
+    <t>统辖今江西省一带，古为扬州重镇，指娄水为浔阳，即家园为庐阜，饮柴桑之酒，一觞独进，鼓少文之琴，众山皆响。其因县西南有柴桑山得名。三国时期东吴重驻扎地，曾为赤壁之战吴魏对峙点，堪称东吴门户，亦称西望荆襄之踏板。</t>
+  </si>
+  <si>
+    <t>柴桑下有（九江、武昌、鄱阳、南昌、高昌、陆口）</t>
+  </si>
+  <si>
+    <t>13会稽</t>
+  </si>
+  <si>
+    <t>统辖今浙江省一带，古为扬州重镇，赫赫会稽郡，潭潭府公居。一州胜绝处，毕集于庭除。其名相传夏禹至苗山大会诸侯，计功封爵，始名会稽。三国时期孙策开拓基业之地，江东子弟多才俊。</t>
+  </si>
+  <si>
+    <t>会稽下有（章安、始新、建安）</t>
+  </si>
+  <si>
+    <t>14建业</t>
+  </si>
+  <si>
+    <t>统辖今江苏省一带，古为扬州州府，旧为冶铸重镇，临江控淮，钟山虎踞，恃险而依。其名有建功立业之地，又名石头城。三国时期东吴国都，诸葛亮在赤壁之战前夕出使孙吴，经过当时的建业，赞叹道</t>
+  </si>
+  <si>
+    <t>15建安</t>
+  </si>
+  <si>
+    <t>统辖今福建省一带，古为扬州重镇，白鹤东飞拂空翠，铁狮南峙开雄据。中护高人清隐堂，云盘雾结不知处。三国时期孙策起家地之一，同献帝年号，寓意建立安定。</t>
+  </si>
+  <si>
+    <t>16成都</t>
+  </si>
+  <si>
+    <t>统辖今四川省一带，古为益州州府，蜀地心位，河网众集，民多所向往，其城又名</t>
+  </si>
+  <si>
+    <t>17巴郡</t>
+  </si>
+  <si>
+    <t>统辖今重庆省一带，古为益州重镇，北起大巴，川东岭谷，东接武陵，蜀道难行。因其地处大巴山脉，得名巴郡，三国时期曾是老将严颜镇守之地，后被张飞击败，心悦诚服而降蜀。此地靠近三峡，地势险峻，多山路，石道。且当地巴人骁勇善战，山地作战能力强。在此地曹魏和蜀汉进行过巴西之战，张飞大破张颌所部，魏军被迫退回汉中。</t>
+  </si>
+  <si>
+    <t>巴郡（江州为其治所）</t>
+  </si>
+  <si>
+    <t>18武陵</t>
+  </si>
+  <si>
+    <t>统辖今贵州省一带，古为荆州重镇，山中桃花，世外之地，功成拂衣去，归入武陵源。武陵也因山脉得名，与巴郡相接，多山地，三国时期曾属蜀汉版图，后归入吴国版图。为黔地区的门户，战略要冲。</t>
+  </si>
+  <si>
+    <t>19南中</t>
+  </si>
+  <si>
+    <t>统辖今云南省一带，古为益州边郡，多部族，好战勇武，其名泛指岭南各处，演义中为南蛮王孟获领地，后因诸葛亮七擒七纵故降蜀。并保证从此不再作乱反叛，为蜀国北伐出过一份力。</t>
+  </si>
+  <si>
+    <t>南中</t>
+  </si>
+  <si>
+    <t>20金城</t>
+  </si>
+  <si>
+    <t>统辖今甘肃南部一带，古为凉州重镇，群山环绕，民风剽悍，朔风过此地，多锐骑。其因城池固若金汤得名金城。三国时期为北宫伯玉、边章韩遂等人起兵之处，凉州多骑，民风骁勇，后被魏将夏侯渊大破之，此后纳入曹魏版图。</t>
+  </si>
+  <si>
+    <t>21武威</t>
+  </si>
+  <si>
+    <t>统辖今甘肃省一带，古为凉州州府，旧域军址，多经征战，其土金行，地寒而坚。武威多豪强，西凉董卓便是武威人，自西凉起兵，镇守边疆数十载，可看出武威人的善战。谋士贾诩亦是武威人，曾在张绣麾下献计，大破曹军，斩杀曹昂、典韦、曹安民等人。后为曹魏核心谋士团成员，运筹帷幄。</t>
+  </si>
+  <si>
+    <t>武威（令居、张掖、酒泉）、西平（狄道、金城）</t>
+  </si>
+  <si>
+    <t>22敦煌</t>
+  </si>
+  <si>
+    <t>统辖今甘肃北部一带，古为凉州重镇，敦煌壁画，举世闻名，常年风沙，部族混居。敦，大也；煌，盛也，曾因西域诸国繁荣而得名敦煌。三国时期为曹贼北方门户，中西贸易之咽喉，曾有名士仓慈治理敦煌七年，使其能在乱世中维持繁荣昌盛。可以称之为沙漠中的珍珠。</t>
+  </si>
+  <si>
+    <t>23北海</t>
+  </si>
+  <si>
+    <t>统辖今山东省一带，古为青州重镇，靖王旧都，北海古国，废国立郡，归于青州。其源于地理位置近北海而得名。三国时期名士孔融曾为北海相国，后被曹操所杀，北海纳入曹魏版图。</t>
+  </si>
+  <si>
+    <t>24南海</t>
+  </si>
+  <si>
+    <t>统辖今广东省一带，古为扬州边镇，东南濒南海，西至贺州，北连南岭，百越杂处，各有种姓。其因近南海而得名，曾为南越政权首都，平定南越后，废国立郡，三国时期为东吴之地，近海多渔，民可自足，为东吴海洋战略踏板之一。</t>
+  </si>
+  <si>
+    <t>25交趾</t>
+  </si>
+  <si>
+    <t>统辖今广西省一带，古为扬州军镇，汉平南越，地分七郡，建安十五，诏以边远，七郡皆授鼓吹，以重威镇。武帝北置朔方，南置交趾，是“交”为子孙福“址”的意思。三国时期为士燮领地，后被东吴所占，蜀汉曾一度想入交趾打开南方大门，终是未果。</t>
+  </si>
+  <si>
+    <t>交趾</t>
+  </si>
+  <si>
+    <t>26朱崖</t>
+  </si>
+  <si>
+    <t>统辖今海南省一带，古为朱崖州，遥望朱崖洲大如菌，举帆一日一夜至洲。周匝二千里，径度七八百里，可十万家。朱崖是因其红色山崖而得名。三国时期东吴领土，地处偏远，被海环绕，多港海船。</t>
+  </si>
+  <si>
+    <t>朱崖</t>
+  </si>
+  <si>
+    <t>27西海</t>
+  </si>
+  <si>
+    <t>统辖今内蒙古西部一带，古为凉州郡之一，原属张掖，居延城，后为郡，户千人，多军士。西近延海而得名，三国时期归属曹魏，军屯之地，魏正始九年，魏将郭淮进击响应蜀汉的治无戴，在西海发生过交锋，淮大破之，戴随姜维入西川。</t>
+  </si>
+  <si>
+    <t>28盛乐</t>
+  </si>
+  <si>
+    <t>统辖今内蒙古东部一带，古为定襄城，南下阴山，改定襄郡治为盛乐，后立国家，与魏、晋交好。拥兵二十万，虎踞此处，麾下多轻骑，掠如风。少步卒，善奔袭。</t>
+  </si>
+  <si>
+    <t>29西戎</t>
+  </si>
+  <si>
+    <t>统辖今西藏省一带，古为羌人之都，三苗之后，居三危，以变西戎。三国时多部族，西望戎狄而得名，地广人稀，逐水草而生。多善骑射，作为外援部队曾多次加入中原战局，是一把开满的弓。</t>
+  </si>
+  <si>
+    <t>西戎</t>
+  </si>
+  <si>
+    <t>30西域长史府</t>
+  </si>
+  <si>
+    <t>统辖今新疆省一带，古为治理西域之重地，三国时期属曹魏，在稳定西域方面起着最主要的作用，安定诸国，拱卫中原都是此地的职责所在。春风不度，朔风扬沙，环境恶劣且条件艰苦，军民多坚韧不拔，少有轻言放弃者。</t>
+  </si>
+  <si>
+    <t>31安定</t>
+  </si>
+  <si>
+    <t>统辖今宁夏一带，古为雍州重镇，治临泾县，领下属六县，兵家必争之地，经济通道之重镇，意为安邦定国之意。三国时期曹魏操取陇东，破马超，后诸葛亮出祁山北伐，安定降蜀抗魏，后曹真率张颌复平安定。</t>
+  </si>
+  <si>
+    <t>西域长史府</t>
+  </si>
+  <si>
+    <t>32西平</t>
+  </si>
+  <si>
+    <t>统辖今青海省一带，古为凉州郡，分金城，治西都，铸剑之地。西陵平夷，故曰西平。三国时期韩遂重要城池之一，后因韩遂败亡，归于中央，曹魏与蜀汉曾多次在此地发生争夺河煌地区战争，均被曹魏击退</t>
+  </si>
+  <si>
+    <t>西平郡</t>
+  </si>
+  <si>
+    <t>33夷洲</t>
+  </si>
+  <si>
+    <t>统辖今台湾省一带，其在临海郡东南，去郡二千里。土地无霜雪，草木不死。四面是山，众山夷所居。山顶有越王射的正白，乃是石也。三国时期孙权派人开疆拓土，抵达夷洲，此处土地饶沃，既生五谷，又多鱼肉。</t>
+  </si>
+  <si>
+    <t>34蓟城</t>
+  </si>
+  <si>
+    <t>统辖今北京一带，古为幽州州府，虽居北地而洼，拱山临水，地丰民足。三国时期，初为公孙瓒领土，后袁绍白马大破公孙，蓟归于袁家所治，直至官渡之后，归于曹魏统治。</t>
+  </si>
+  <si>
+    <t>蓟下有（渔阳、代县、涿县）</t>
+  </si>
+  <si>
+    <t>35渤海</t>
+  </si>
+  <si>
+    <t>统辖今天津一带，古为幽州重镇，有南、北二城隔济水。南城即被阳县之故城也，北枕济水。汉献帝刘协曾经的封地，渤海国所在之处。</t>
+  </si>
+  <si>
+    <t>36吴郡</t>
+  </si>
+  <si>
+    <t>统辖今上海一带，古为扬州重镇，建安初，策平江东，领吴郡，此为东吴霸业之始。此后孙策便以江东为根基，开创东吴之基业，历三代而传至权。</t>
+  </si>
+  <si>
+    <t>吴郡下属13县，主要亿江苏浙江为主，治所吴在今江苏姑苏区</t>
+  </si>
+  <si>
+    <t>37博罗</t>
+  </si>
+  <si>
+    <t>统辖今香港一带，古为秦时所设立，有罗浮山，自会稽浮往博山，故置博罗。地处南方，善水性者甚多，三国时期所属东吴，是岭南著名宗教圣地。</t>
+  </si>
+  <si>
+    <t>赤壁</t>
+  </si>
+  <si>
+    <t>三国时期著名主战场，吴蜀联军于长江赤壁以少胜多，大破曹操大军。赤壁一役，奠定了三国鼎立的基础。建安十三年，曹操二十万之众顺江而下，东吴左、右都督周瑜、程普各率一万五千精兵，与刘备军逆江而上，与曹军相遇在赤壁，黄盖提出火攻敌船之计，于是，孙刘联军大破曹军，烧毁大量曹军舟船，曹军又将剩余舟船尽数焚毁，随即往北撤离，此战后，孙权、刘备各夺取荆州部分。</t>
+  </si>
+  <si>
+    <t>石头城</t>
+  </si>
+  <si>
+    <t>又称石城，有“东吴第一军事要塞之称”。因山以为城，因江以为池，地形险固，尤有奇势，曾为三国时期东吴旧都。</t>
+  </si>
+  <si>
+    <t>教驽台</t>
+  </si>
+  <si>
+    <t>亦称点将台，台基陡峭，周围浓荫蔽日，曹操筑此台教练强弩兵将，临阵指挥抵御东吴水军。</t>
+  </si>
+  <si>
+    <t>长板桥</t>
+  </si>
+  <si>
+    <t>又称当阳桥，张飞手绰蛇矛，单骑御敌喝退百万曹军之地，京剧唱道“当阳桥头一声吼，喝断桥梁水倒流”。东汉末年，刘备在当阳被曹军击败，仓皇逃跑，曹操率精锐虎豹骑穷追不舍，追至长板桥时，刘备麾下名将张飞率二十余骑，立于当阳长板桥，嗔目横矛。大声喝道</t>
+  </si>
+  <si>
+    <t>“身是张翼德，可来共决死！”曹军无一人敢往前，刘备遂脱身。</t>
+  </si>
+  <si>
+    <t>乌林</t>
+  </si>
+  <si>
+    <t>又名乌林矶，与赤壁隔江相对，东汉末年曹操与刘备、孙权联军于此交战，周瑜与诸葛亮以火计烧乌林。</t>
+  </si>
+  <si>
+    <t>岳阳楼</t>
+  </si>
+  <si>
+    <t>洞庭湖畔，江南三大名楼之一，鲁肃建造的“阅军楼”。楼中楠木金柱直贯楼顶，周围绕以廊、坊、椽、檩互相榫合，结为整体。</t>
+  </si>
+  <si>
+    <t>隆中</t>
+  </si>
+  <si>
+    <t>诸葛亮躬耕隐居之地，刘备三顾茅庐和兴汉蓝图“隆中对策”都发生在这里。“隆然中起”，北枕汉水，林泉幽邃，蔚然深秀。</t>
+  </si>
+  <si>
+    <t>罾口川</t>
+  </si>
+  <si>
+    <t>位于襄樊之地的低谷地带，三国时期关羽于此水淹七军，擒于禁，斩庞德，重创曹魏，威震华夏。</t>
+  </si>
+  <si>
+    <t>点将台</t>
+  </si>
+  <si>
+    <t>荆州点将台以战前夯土筑成，台高十米，方圆十余亩，据传关羽北攻曹仁前筑此高台，阅兵点将，操练军士。</t>
+  </si>
+  <si>
+    <t>义门寺</t>
+  </si>
+  <si>
+    <t>位于豫州谯郡，寺庙幽静，古树参天，为曹操年少读书之处。</t>
   </si>
   <si>
     <t>虎牢关</t>
   </si>
   <si>
-    <t>襄平</t>
-  </si>
-  <si>
-    <t>汝南</t>
-  </si>
-  <si>
-    <t>新野</t>
-  </si>
-  <si>
-    <t>赤壁</t>
+    <t>传闻周穆王曾将进献的猛虎圈养于此，而名虎牢。雄关南连嵩岳，北濒黄河，山岭交错，自成天险。三国时，董卓与诸侯联军决战于此。虎牢之战，为演义杜撰，初平元年，董卓进京祸乱朝纲，以袁绍为盟主的十八路诸侯，举旗讨逆。联军先攻汜水关，守将华雄被关羽所杀，而后近逼门户虎牢，发生了刘关张三英战吕布，吕布败阵。董卓听取李儒之计，焚烧洛阳，迁都长安。</t>
+  </si>
+  <si>
+    <t>潼关</t>
+  </si>
+  <si>
+    <t>潼关乃关中门户。《水经注》载</t>
+  </si>
+  <si>
+    <t>“河在关内南流潼激关山，因谓之潼关”。</t>
+  </si>
+  <si>
+    <t>五丈原</t>
+  </si>
+  <si>
+    <t>五丈原南靠秦岭，北临渭水，形势险要。三国时诸葛亮屯兵于此，与司马懿隔渭河对阵，后因积劳成疾病逝于此。公元234年（曹魏青龙二年、蜀汉建兴十二年），蜀汉丞相诸葛亮率大军第六次北伐，由汉中出发，取道斜谷，穿越秦岭，进驻五丈原。魏军则由司马懿统帅，渡渭水，派郭淮驻守北原，蜀汉军攻北原被郭淮击败，而后两军进入对峙状态持续百余日，终以诸葛亮星落五丈原，蜀汉撤军结束。</t>
+  </si>
+  <si>
+    <t>铁笼山</t>
+  </si>
+  <si>
+    <t>铁笼山绝壁峤峙，孤险云高，其山状若鸟笼，易守难攻。三国时期姜维起兵汉中，再图祁山，曾于此围困司马昭。</t>
+  </si>
+  <si>
+    <t>街亭</t>
+  </si>
+  <si>
+    <t>关中进入陇西的战略通道，山高谷深，地势险要，三国时期，诸葛亮曾安排马谡守卫于此，“失街亭”后，蜀军主力溃败，诸葛亮挥泪斩马谡，初出祁山也宣告失败。</t>
+  </si>
+  <si>
+    <t>牛头山</t>
+  </si>
+  <si>
+    <t>牛头山系剑门山东支，山形险要，三国时姜维率大军伐魏，然而在此遭遇郭淮断粮截击，最终兵败牛头山。</t>
+  </si>
+  <si>
+    <t>桃庄</t>
+  </si>
+  <si>
+    <t>张飞故里。《涿县志》记载</t>
+  </si>
+  <si>
+    <t>张桓侯故里在“县西南里许桃庄，为汉张桓侯故里”。东汉末年，刘备、关羽、张飞三人结义于此，许下同生共死之誓。</t>
+  </si>
+  <si>
+    <t>铜雀三台</t>
+  </si>
+  <si>
+    <t>史书称“邺三台”，曹操击败袁绍后营建邺都，修建了铜雀、金虎、冰井三台，同时也为建安文学的发祥地。</t>
+  </si>
+  <si>
+    <t>楼桑村</t>
+  </si>
+  <si>
+    <t>刘备故里。《三国志•蜀书•先主传》载</t>
+  </si>
+  <si>
+    <t>舍东南角篱上有桑树生高五丈余，遥望见童童如小车盖，往来者皆怪此树非凡，或谓当出贵人。</t>
+  </si>
+  <si>
+    <t>界河</t>
+  </si>
+  <si>
+    <t>今海河流域，曹操疏凿白沟、平虏渠、泉州渠、新河等几条运输渠道，将各河汇流入海，初步形成海河流域。</t>
+  </si>
+  <si>
+    <t>官渡</t>
+  </si>
+  <si>
+    <t>三国时著名古战场，历来为重要的军事要冲之地，曹操于官渡大破袁军，奠定了统一北方的基础。建安五年，袁绍借董承奉衣带诏被杀之事，讨伐曹操。派陈琳书写檄文痛骂曹操，曹、袁二家正式宣战。当曹操正在部署作战之事，参与衣带诏事件的刘备起兵反曹，占领下邳，屯兵沛县，与袁联合，两头攻曹。次年二月，曹操亲率精兵东击刘备，迅速占领沛县，转而攻占下邳，刘备全线溃败，曹操迫降关羽。袁绍畏首畏尾错失战机，四月，曹操北上解白马之围，关羽斩杀颜良，而后曹军诈败，袁军中计，文丑死于乱军之中。十月，许攸投降曹操，建议其偷袭乌巢，断袁军粮草。而后，曹操亲率五千骑火烧乌巢，斩淳于琼，大破袁军，至此官渡之战落下帷幕。</t>
+  </si>
+  <si>
+    <t>广宗</t>
+  </si>
+  <si>
+    <t>声势浩大的黄巾落幕之地，中平元年，黄巾军张梁部在广宗被皇甫嵩所部剿灭，主将张梁战死，三万黄巾被杀，五万余人赴河而亡。皇甫嵩进入广宗，悉虏黄巾军家属，焚烧辎重，将张角剖棺戮尸，传首京师。河北黄巾军主力损失殆尽，最终走向失败。</t>
+  </si>
+  <si>
+    <t>郿坞</t>
+  </si>
+  <si>
+    <t>郿坞是董卓在迁都至长安后，在长安以西二百五十里处建的院邸。东汉初平三年，董卓筑坞于郿，高厚七丈，与长安城相埒，号曰“万岁坞”，世称“郿坞”。坞中广聚珍宝，积谷为三十年储。自云</t>
+  </si>
+  <si>
+    <t>“事成，雄据天下；不成，守此足以毕老。”后卓败，坞毁(故址在今陕西省眉县东北)。</t>
+  </si>
+  <si>
+    <t>围堑</t>
+  </si>
+  <si>
+    <t>公孙瓒战败后，逃回易京，为围堑十重，于堑里筑京，皆高五六丈，为楼其上；中堑为京，特高十丈，自居焉，积谷三百万斛……欲以此弊绍。绍遣将攻之，连年不能拔。</t>
+  </si>
+  <si>
+    <t>界桥</t>
+  </si>
+  <si>
+    <t>袁绍与公孙瓒战局转折点，八百先登大破公孙白马，军势如日中天。汉献帝初平二年冬，公孙瓒屯兵磐河，袁绍在界桥应战。公孙瓒以三万步兵，排列方阵，两翼部署五千骑兵。袁方以大将鞠义所率八百先登为先锋，以强弩数千张为掩护，其统步兵数万在后。公孙瓒轻敌冒进，遭受重创，公孙军全面溃败。鞠义趁乱斩杀严纲，破敌千余人，追至界桥，又大破公孙军。此战之后，袁绍由被动转为主动，公孙瓒一路北退。</t>
+  </si>
+  <si>
+    <t>郊天坛</t>
+  </si>
+  <si>
+    <t>今湖北武汉，相传刘备打仗路过此地，被美丽的景色所吸引，下船欣赏，准备登山而眺，刚至山底忽遇大风，深感不详。于是，登山祭祀，天象吉瑞。后刘备军旗开得胜，迎娶东吴孙夫人。</t>
+  </si>
+  <si>
+    <t>麦城</t>
+  </si>
+  <si>
+    <t>位于湖北省当阳市两河镇境内，为东周时楚国重要城邑，麦城在县东南五十里，沮、漳二水之间，传为春秋时楚昭王所筑。三国时，关羽为孙权所袭，丢荆州败走麦城即此。东汉建安二十四年，蜀将关羽遭吴袭击，溃退于此，故有“关云长丢荆州败麦城”。建安二十四年的荆州之争，由于孙权和曹操的暗中勾结，其形势很快发生了根本性的转变。在曹操和孙权的南北夹击下，关羽丢荆州后，腹背受敌，进无可进，退无可退，终于败走麦城，以身殉职，刘备集团也因此永远失去了荆州。</t>
+  </si>
+  <si>
+    <t>祁山</t>
+  </si>
+  <si>
+    <t>三国时期蜀汉丞相诸葛亮出兵北伐曹魏的必经之地。史书记载诸葛亮北伐曹魏时仅有两次出兵祁山，而“六出祁山”的说法出现于小说《三国演义》，由于《演义》在民间的影响力较大，因此“六出祁山”也渐渐成为诸葛亮北伐的代名词。诸葛亮六出祁山的决策，是贯彻落实《隆中对》策，北定中原，兴复汉室，以成霸业的正确军事举措和重要战略方针，有其重要战略意义。</t>
+  </si>
+  <si>
+    <t>落凤坡</t>
+  </si>
+  <si>
+    <t>位于四川德阳，三国演义中庞统在此被乱箭射杀。东南有童谣云</t>
+  </si>
+  <si>
+    <t>“一凤并一龙，相将到蜀中。才到半路里，凤死落坡东。风送雨，雨随风，隆汉兴时蜀道通，蜀道通时只有龙。”</t>
+  </si>
+  <si>
+    <t>上方谷</t>
+  </si>
+  <si>
+    <t>位于陕西眉县，三国古战场。这次战斗后，诸葛亮因劳成疾病逝。这次战斗诸葛亮用智慧，火困司马懿一家，可惜苍天助曹不助汉，在这大火围困到司马懿一家时，忽然天降大雨让司马懿逃脱。诸葛亮叹息“谋事在人，成事在天！”</t>
+  </si>
+  <si>
+    <t>泰山</t>
+  </si>
+  <si>
+    <t>东岳泰山，著名五岳之一。层峦叠嶂，凌空高耸。自秦始皇始，十数名帝王亲登泰山封禅致祭，刻石纪功。</t>
+  </si>
+  <si>
+    <t>长江</t>
+  </si>
+  <si>
+    <t>中国第一长河，其支流辐辏南北，绵延千里，同时，长江流域也是早期人类生存和演化的重要地区之一。</t>
+  </si>
+  <si>
+    <t>云梦</t>
+  </si>
+  <si>
+    <t>今洞庭湖，中国水量最大的通江湖泊，因湖中洞庭山而得名。湖域广阔，有“八百里洞庭”之称，也是重要的战略要地。</t>
+  </si>
+  <si>
+    <t>檀溪</t>
+  </si>
+  <si>
+    <t>又名檀溪湖，位于襄阳城西南真武山北面，因刘备的卢马“一跃三丈”而“跃马檀溪”闻名。</t>
+  </si>
+  <si>
+    <t>郑国渠</t>
+  </si>
+  <si>
+    <t>战国末年由水工郑国主持兴建。西引泾水，东往洛水，渠成，关中为沃野，无凶年，秦以富强，卒并诸侯。</t>
+  </si>
+  <si>
+    <t>明月峡栈道</t>
+  </si>
+  <si>
+    <t>开凿于先秦，属于剑门蜀道一部分，地势险要，诸葛亮经此栈道出祁山，北伐曹魏。</t>
+  </si>
+  <si>
+    <t>长城</t>
+  </si>
+  <si>
+    <t>中国古代的军事防御工程，主要用于限隔敌骑行动。以城墙为主体，同大量的城、障、亭、标相结合组成了高大坚固的防御体系。</t>
+  </si>
+  <si>
+    <t>白马寺</t>
+  </si>
+  <si>
+    <t>汉时为了纪念白马托经，取名为“白马寺”。中国第一古刹，世界著名伽蓝，乃中国佛教的释源祖庭。</t>
+  </si>
+  <si>
+    <t>灞陵桥</t>
+  </si>
+  <si>
+    <t>灞陵桥位于许昌西郊，由青石砌筑而成，两岸杨柳成行，风景宜人，《三国演义》中是关羽辞曹挑袍，过五关斩六将的起点。</t>
+  </si>
+  <si>
+    <t>毓秀台</t>
+  </si>
+  <si>
+    <t>曹操迎汉献帝自洛阳迁都许昌后，汉献帝率文武百官在此祭天，祈求风调雨顺，国泰民安。</t>
+  </si>
+  <si>
+    <t>黄鹤楼</t>
+  </si>
+  <si>
+    <t>位于武昌蛇山之巅，江南三大名楼之一，夏口城瞭望守戍的“军事楼”，自古享有“天下第一楼”和“天下绝景”之称。</t>
+  </si>
+  <si>
+    <t>米仓道</t>
+  </si>
+  <si>
+    <t>又名汉中古道，自古乃兵家必争之地。三国时行旅往来，兵马驰骋，是当时重要的军事驿道。占领米仓道一侧，可直达另一侧。</t>
+  </si>
+  <si>
+    <t>祁山堡</t>
+  </si>
+  <si>
+    <t>坐落于西汉水北面，四面如削，高峻奇拔。同时也是三国时期诸葛亮统帅三军，挥师北伐的堡垒。</t>
+  </si>
+  <si>
+    <t>关中进入陇西的战略通道，山高谷深，地势险要，三国时期，诸葛亮曾派马谡镇守此地，“失街亭”后，蜀军主力溃败，诸葛亮挥泪斩马谡，初出祁山宣告失败。</t>
+  </si>
+  <si>
+    <t>博望坡</t>
+  </si>
+  <si>
+    <t>西汉张骞出使西域，功勋卓著，汉武帝取“广博瞻望”之意，封“博望侯”于此。同时此处这正是三国时诸葛亮火烧博望坡大破夏侯惇所率曹军的古战场。</t>
+  </si>
+  <si>
+    <t>长坂坡</t>
+  </si>
+  <si>
+    <t>位于荆山余脉下的冈岭地带，三国时，刘备遭到曹军猛烈打击后撤离荆州，逃至此地，家眷于乱军中走散，刘备麾下名将赵云一人一骑一枪，在曹军阵中七进七出，浴血奋战，身抱幼主单骑突围。</t>
   </si>
   <si>
     <t>华容道</t>
   </si>
   <si>
-    <t>北平</t>
-  </si>
-  <si>
-    <t>洛阳</t>
-  </si>
-  <si>
-    <t>襄阳</t>
-  </si>
-  <si>
-    <t>官渡</t>
-  </si>
-  <si>
-    <t>蓟</t>
-  </si>
-  <si>
-    <t>宛</t>
-  </si>
-  <si>
-    <t>江陵</t>
-  </si>
-  <si>
-    <t>南皮</t>
-  </si>
-  <si>
-    <t>长安</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>剑阁</t>
-  </si>
-  <si>
-    <t>平原</t>
-  </si>
-  <si>
-    <t>上庸</t>
-  </si>
-  <si>
-    <t>武陵</t>
-  </si>
-  <si>
-    <t>晋阳</t>
-  </si>
-  <si>
-    <t>安定</t>
-  </si>
-  <si>
-    <t>桂阳</t>
-  </si>
-  <si>
-    <t>邺</t>
-  </si>
-  <si>
-    <t>天水</t>
-  </si>
-  <si>
-    <t>零陵</t>
-  </si>
-  <si>
-    <t>北海</t>
-  </si>
-  <si>
-    <t>武威</t>
-  </si>
-  <si>
-    <t>永安</t>
-  </si>
-  <si>
-    <t>下邳</t>
-  </si>
-  <si>
-    <t>建业</t>
-  </si>
-  <si>
-    <t>汉中</t>
-  </si>
-  <si>
-    <t>小沛</t>
-  </si>
-  <si>
-    <t>吴</t>
-  </si>
-  <si>
-    <t>梓潼</t>
-  </si>
-  <si>
-    <t>寿春</t>
-  </si>
-  <si>
-    <t>会稽</t>
-  </si>
-  <si>
-    <t>江州</t>
-  </si>
-  <si>
-    <t>濮阳</t>
-  </si>
-  <si>
-    <t>庐江</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>陈留</t>
-  </si>
-  <si>
-    <t>柴桑</t>
-  </si>
-  <si>
-    <t>建宁</t>
-  </si>
-  <si>
-    <t>许昌</t>
-  </si>
-  <si>
-    <t>江夏</t>
-  </si>
-  <si>
-    <t>云南</t>
+    <t>华容道地窄路险，坎坷难行，赤壁之战后，曹操率残部溃逃，欲经此地逃往华容县城，中途遭蜀军截击，损失惨重。《三国演义》中此地是关羽义释曹孟德之地。</t>
+  </si>
+  <si>
+    <t>定军山</t>
+  </si>
+  <si>
+    <t>属大巴山脉，有十二座秀峰，有“得定军山则得汉中，得汉中则得天下”的美誉，三国时，蜀汉与曹魏争夺汉中时，蜀汉大将黄忠听从法正之策，在此击毙曹军大将夏侯渊，赢得老当益壮之名。</t>
+  </si>
+  <si>
+    <t>夷陵</t>
+  </si>
+  <si>
+    <t>临近长江西陵峡口，地势险要，江流湍急，夷陵之战时，东吴大都督陆逊曾在此火烧刘备七百里连营，重创蜀军精锐，导致刘备病逝白帝。</t>
+  </si>
+  <si>
+    <t>逍遥津</t>
+  </si>
+  <si>
+    <t>古为淝水之上的津渡，三国时期曹魏名将张辽率领麾下部众，分兵毁桥，于此大破东吴大军。经此一役，威震江东。演义中此战为“威震逍遥津”，张辽凭八百精兵折孙权大军锐气，又凭七千之众抵挡东吴十万大军，孙权撤军之时，张辽又下令追击，大破吴军，威震江东，江东小儿啼哭不肯止者，闻张辽之名不敢再啼。</t>
   </si>
   <si>
     <t>大汉文官</t>
@@ -405,9 +1573,6 @@
     <t>中庶子</t>
   </si>
   <si>
-    <t>军师</t>
-  </si>
-  <si>
     <t>丞相征事</t>
   </si>
   <si>
@@ -1072,6 +2237,84 @@
   </si>
   <si>
     <t>校尉</t>
+  </si>
+  <si>
+    <t>东汉末年全国十三个州</t>
+  </si>
+  <si>
+    <t>司隶</t>
+  </si>
+  <si>
+    <t>河南尹，河内郡，河东郡，弘农郡，京兆郡，冯翊郡，扶风郡</t>
+  </si>
+  <si>
+    <t>豫州</t>
+  </si>
+  <si>
+    <t>颍川郡，汝南郡，梁国，沛国，陈国，鲁国</t>
+  </si>
+  <si>
+    <t>冀州</t>
+  </si>
+  <si>
+    <t>魏郡，巨鹿郡，常山郡，中山国，安平国，河间国，清河国，赵国，渤海郡</t>
+  </si>
+  <si>
+    <t>兖州</t>
+  </si>
+  <si>
+    <t>陈留郡，东郡，东平国，任城国，泰山郡，济北郡，山阳郡，济阴郡</t>
+  </si>
+  <si>
+    <t>徐州</t>
+  </si>
+  <si>
+    <t>彭城国，下邳国、东海国，琅邪国，广陵郡</t>
+  </si>
+  <si>
+    <t>济南国，平原郡，乐安国，北海国，东莱郡，齐国</t>
+  </si>
+  <si>
+    <t>荆州</t>
+  </si>
+  <si>
+    <t>南阳郡，南郡，江夏郡，零陵郡，桂阳郡，武陵郡，长沙郡</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>九江郡，丹阳郡，庐江郡，会稽郡，吴郡，豫章郡</t>
+  </si>
+  <si>
+    <t>益州</t>
+  </si>
+  <si>
+    <t>汉中郡，巴郡，广汉郡，蜀郡，犍为郡，牂牁郡，越巂郡，益州郡，永昌郡，广汉属国，蜀郡属国，犍为属国</t>
+  </si>
+  <si>
+    <t>凉州</t>
+  </si>
+  <si>
+    <t>陇西郡，汉阳郡，武都郡，金城郡，安定郡，北地郡，武威郡，张掖郡，酒泉郡，敦煌郡，张掖属国，居延属国</t>
+  </si>
+  <si>
+    <t>并州</t>
+  </si>
+  <si>
+    <t>上党郡，太原郡，上郡，西河郡，五原郡，云中郡，定襄郡，雁门郡，朔方郡</t>
+  </si>
+  <si>
+    <t>幽州</t>
+  </si>
+  <si>
+    <t>涿郡，广阳郡，代郡，上谷郡，渔阳郡，右北平郡，辽西郡，辽东郡，玄菟郡，乐浪郡，辽东属国</t>
+  </si>
+  <si>
+    <t>交州</t>
+  </si>
+  <si>
+    <t>南海郡，苍梧郡，郁林郡，合浦郡，交趾郡，九真郡，日南郡</t>
   </si>
 </sst>
 </file>
@@ -1080,11 +2323,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,17 +2341,71 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,22 +2413,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,9 +2464,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1174,45 +2508,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1227,14 +2540,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1242,7 +2547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1251,7 +2556,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA26DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,7 +2628,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,19 +2712,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,37 +2742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,102 +2772,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1445,28 +2786,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1486,26 +2829,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1528,6 +2871,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1550,10 +2919,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1562,137 +2931,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1700,6 +3069,108 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1755,12 +3226,191 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8923020" y="3291840"/>
+          <a:ext cx="3329940" cy="2468880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8633460" y="20413980"/>
+          <a:ext cx="1493520" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8221980" y="15476220"/>
+          <a:ext cx="6362700" cy="3764280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8900160" y="635"/>
+          <a:ext cx="6461760" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2050,201 +3700,1803 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:N17"/>
+  <dimension ref="B1:H106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="9" style="4"/>
+    <col min="4" max="8" width="16.7777777777778" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="16.2" spans="3:8">
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="16.2" spans="3:8">
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="16.2" spans="3:8">
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="16.2" spans="3:8">
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" ht="16.2" spans="3:8">
+      <c r="C6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="16.2" spans="3:8">
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" ht="16.2" spans="3:8">
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" ht="16.2" spans="3:8">
+      <c r="C14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" ht="16.2" spans="3:8">
+      <c r="C15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="16.2" spans="3:8">
+      <c r="C16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10">
+        <v>4</v>
+      </c>
+      <c r="G21" s="11">
+        <v>3</v>
+      </c>
+      <c r="H21" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="16.2" spans="3:8">
+      <c r="C22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" ht="16.2" spans="3:8">
+      <c r="C23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" ht="16.2" spans="3:8">
+      <c r="C24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" ht="16.2" spans="3:8">
+      <c r="C25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" ht="16.2" spans="3:8">
+      <c r="C26" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" ht="16.2" spans="3:8">
+      <c r="C27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" ht="16.2" spans="3:8">
+      <c r="C28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" ht="16.2" spans="3:8">
+      <c r="C29" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" ht="16.2" spans="3:8">
+      <c r="C30" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" ht="16.2" spans="3:8">
+      <c r="C31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" ht="16.2" spans="3:8">
+      <c r="C32" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" ht="16.2" spans="3:8">
+      <c r="C33" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" ht="16.2" spans="3:8">
+      <c r="C34" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" ht="16.2" spans="3:8">
+      <c r="C36" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" ht="16.2" spans="3:8">
+      <c r="C37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" ht="16.2" spans="3:8">
+      <c r="C38" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="H38" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" ht="16.2" spans="3:8">
+      <c r="C39" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" ht="16.2" spans="3:8">
+      <c r="C40" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" ht="16.2" spans="3:8">
+      <c r="C41" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" ht="16.2" spans="3:8">
+      <c r="C42" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" ht="16.2" spans="3:8">
+      <c r="C43" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" ht="16.2" spans="3:8">
+      <c r="C44" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="24"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8">
+        <v>6</v>
+      </c>
+      <c r="E47" s="9">
+        <v>5</v>
+      </c>
+      <c r="F47" s="10">
+        <v>4</v>
+      </c>
+      <c r="G47" s="11">
+        <v>3</v>
+      </c>
+      <c r="H47" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" ht="16.2" spans="3:8">
+      <c r="C48" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" ht="16.2" spans="3:8">
+      <c r="C49" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" ht="16.2" spans="3:8">
+      <c r="C50" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" ht="16.2" spans="3:8">
+      <c r="C51" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" ht="16.2" spans="3:8">
+      <c r="C52" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" ht="16.2" spans="3:8">
+      <c r="C53" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" ht="16.2" spans="3:8">
+      <c r="C55" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" ht="16.2" spans="3:8">
+      <c r="C56" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" ht="16.2" spans="3:8">
+      <c r="C57" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" ht="16.2" spans="3:8">
+      <c r="C58" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" ht="16.2" spans="3:8">
+      <c r="C59" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" ht="16.2" spans="3:8">
+      <c r="C60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" ht="16.2" spans="3:8">
+      <c r="C61" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" ht="16.2" spans="3:8">
+      <c r="C62" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" ht="16.2" spans="3:8">
+      <c r="C63" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="66" s="4" customFormat="1" spans="2:8">
+      <c r="B66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8">
+        <v>6</v>
+      </c>
+      <c r="E66" s="9">
+        <v>5</v>
+      </c>
+      <c r="F66" s="10">
+        <v>4</v>
+      </c>
+      <c r="G66" s="11">
+        <v>3</v>
+      </c>
+      <c r="H66" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C67" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C68" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C69" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C70" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C71" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" s="4" customFormat="1" spans="3:8">
+      <c r="C72" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C73" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C74" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" s="5" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C75" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="77" s="6" customFormat="1" spans="2:2">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" s="6" customFormat="1" spans="2:8">
+      <c r="B78" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8">
+        <v>6</v>
+      </c>
+      <c r="E78" s="9">
+        <v>5</v>
+      </c>
+      <c r="F78" s="10">
+        <v>4</v>
+      </c>
+      <c r="G78" s="11">
+        <v>3</v>
+      </c>
+      <c r="H78" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B79" s="4"/>
+      <c r="C79" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+    </row>
+    <row r="80" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B80" s="4"/>
+      <c r="C80" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B81" s="4"/>
+      <c r="C81" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B82" s="4"/>
+      <c r="C82" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="H82" s="33"/>
+    </row>
+    <row r="83" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B83" s="4"/>
+      <c r="C83" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="H83" s="33"/>
+    </row>
+    <row r="84" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B84" s="4"/>
+      <c r="C84" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="33"/>
+      <c r="E84" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+    </row>
+    <row r="85" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B85" s="4"/>
+      <c r="C85" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="33"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+    </row>
+    <row r="86" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B86" s="4"/>
+      <c r="C86" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="30"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H86" s="29"/>
+    </row>
+    <row r="87" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B87" s="4"/>
+      <c r="C87" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+    </row>
+    <row r="88" s="6" customFormat="1" spans="2:8">
+      <c r="B88" s="4"/>
+      <c r="C88" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+    </row>
+    <row r="89" s="6" customFormat="1" spans="2:8">
+      <c r="B89" s="4"/>
+      <c r="C89" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+    </row>
+    <row r="90" s="6" customFormat="1" spans="2:8">
+      <c r="B90" s="4"/>
+      <c r="C90" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+    </row>
+    <row r="91" s="6" customFormat="1" spans="2:8">
+      <c r="B91" s="4"/>
+      <c r="C91" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+    </row>
+    <row r="92" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B92" s="4"/>
+      <c r="C92" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="29"/>
+      <c r="F92" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+    </row>
+    <row r="93" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B93" s="4"/>
+      <c r="C93" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H93" s="29"/>
+    </row>
+    <row r="94" s="6" customFormat="1" spans="2:2">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="96" s="4" customFormat="1" spans="2:8">
+      <c r="B96" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8">
+        <v>6</v>
+      </c>
+      <c r="E96" s="9">
+        <v>5</v>
+      </c>
+      <c r="F96" s="10">
+        <v>4</v>
+      </c>
+      <c r="G96" s="11">
+        <v>3</v>
+      </c>
+      <c r="H96" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C97" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C98" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C99" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C100" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" s="4" customFormat="1" spans="3:8">
+      <c r="C101" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="3:8">
+      <c r="C102" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="3:8">
+      <c r="C103" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C104" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C105" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="3:8">
+      <c r="C106" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" spans="2:14">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="11:11">
-      <c r="K3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="2:11">
+        <v>228</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:7">
+        <v>234</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:4">
+        <v>237</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="2:11">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:4">
+        <v>243</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:4">
+        <v>246</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:4">
+        <v>249</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:4">
+        <v>252</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:4">
+        <v>254</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="2:4">
+        <v>257</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:4">
+        <v>260</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="2:4">
+        <v>263</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:4">
+        <v>265</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:4">
+        <v>267</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2253,12 +5505,447 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>381</v>
+      </c>
+      <c r="B29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>398</v>
+      </c>
+      <c r="B37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>402</v>
+      </c>
+      <c r="B39" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>406</v>
+      </c>
+      <c r="B41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>408</v>
+      </c>
+      <c r="B42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>413</v>
+      </c>
+      <c r="B45" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>417</v>
+      </c>
+      <c r="B47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>419</v>
+      </c>
+      <c r="B48" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>421</v>
+      </c>
+      <c r="B49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2278,484 +5965,484 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>426</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>428</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>429</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>430</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>431</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>432</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>433</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>435</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>436</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>437</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>439</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>440</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>441</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>442</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>444</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>445</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>446</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:11">
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>455</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>83</v>
+        <v>457</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>458</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>459</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>460</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>87</v>
+        <v>461</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>462</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>89</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>464</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>465</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>466</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>467</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>94</v>
+        <v>468</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>95</v>
+        <v>469</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>96</v>
+        <v>470</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>97</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>472</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>473</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>474</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>101</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>476</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>477</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>479</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>480</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>481</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>108</v>
+        <v>482</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>109</v>
+        <v>483</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>110</v>
+        <v>484</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>111</v>
+        <v>485</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>112</v>
+        <v>486</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>113</v>
+        <v>487</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>488</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>115</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>490</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>491</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>118</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>493</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>494</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>495</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>123</v>
+        <v>497</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>498</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>499</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>501</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>128</v>
+        <v>502</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>130</v>
+        <v>503</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>131</v>
+        <v>504</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>132</v>
+        <v>505</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>133</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:11">
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>507</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>508</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>136</v>
+        <v>509</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>137</v>
+        <v>510</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>138</v>
+        <v>511</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>139</v>
+        <v>512</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>140</v>
+        <v>513</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>141</v>
+        <v>514</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>142</v>
+        <v>515</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>143</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:11">
       <c r="B18" s="1" t="s">
-        <v>144</v>
+        <v>517</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>518</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
+        <v>519</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>148</v>
+        <v>521</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>149</v>
+        <v>522</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>150</v>
+        <v>523</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>151</v>
+        <v>524</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>152</v>
+        <v>525</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>153</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>154</v>
+        <v>527</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>155</v>
+        <v>528</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>156</v>
+        <v>529</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>157</v>
+        <v>530</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>158</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>532</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>533</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>162</v>
+        <v>535</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>536</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>164</v>
+        <v>537</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>538</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>166</v>
+        <v>539</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>167</v>
+        <v>540</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>168</v>
+        <v>541</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>169</v>
+        <v>542</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>170</v>
+        <v>543</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>155</v>
+        <v>528</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>171</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:11">
       <c r="B22" s="1" t="s">
-        <v>172</v>
+        <v>545</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>173</v>
+        <v>546</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>174</v>
+        <v>547</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>175</v>
+        <v>548</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>176</v>
+        <v>549</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>177</v>
+        <v>550</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>178</v>
+        <v>551</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>179</v>
+        <v>552</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>180</v>
+        <v>553</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>181</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>183</v>
+        <v>556</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>557</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>185</v>
+        <v>558</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>186</v>
+        <v>559</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>187</v>
+        <v>560</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>188</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>189</v>
+        <v>562</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>190</v>
+        <v>563</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>191</v>
+        <v>564</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>192</v>
+        <v>565</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>193</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +6451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I33"/>
@@ -2788,572 +6475,724 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>426</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>428</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>569</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>570</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>198</v>
+        <v>571</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>199</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>573</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>201</v>
+        <v>574</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>202</v>
+        <v>575</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>203</v>
+        <v>576</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>204</v>
+        <v>577</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>205</v>
+        <v>578</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>206</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>580</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>581</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>209</v>
+        <v>582</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>210</v>
+        <v>583</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>211</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>585</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>213</v>
+        <v>586</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>214</v>
+        <v>587</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>588</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>216</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>439</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>591</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
+        <v>592</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>220</v>
+        <v>593</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>594</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>222</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:6">
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>596</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>597</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>225</v>
+        <v>598</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>226</v>
+        <v>599</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>227</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>601</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>602</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>230</v>
+        <v>603</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>231</v>
+        <v>604</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>232</v>
+        <v>605</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>233</v>
+        <v>606</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>234</v>
+        <v>607</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>235</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>609</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>610</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>238</v>
+        <v>611</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>239</v>
+        <v>612</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>240</v>
+        <v>613</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>241</v>
+        <v>614</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>242</v>
+        <v>615</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>243</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>617</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>245</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>479</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>619</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>247</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
       <c r="B14" s="1" t="s">
-        <v>248</v>
+        <v>621</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>622</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>250</v>
+        <v>623</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>251</v>
+        <v>624</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>252</v>
+        <v>625</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>253</v>
+        <v>626</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>254</v>
+        <v>627</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
+        <v>628</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>256</v>
+        <v>629</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>257</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:9">
       <c r="B16" s="1" t="s">
-        <v>258</v>
+        <v>631</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>259</v>
+        <v>632</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>260</v>
+        <v>633</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>261</v>
+        <v>634</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>262</v>
+        <v>635</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>263</v>
+        <v>636</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>264</v>
+        <v>637</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>265</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:8">
       <c r="B17" s="1" t="s">
-        <v>266</v>
+        <v>639</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>267</v>
+        <v>640</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>268</v>
+        <v>641</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>269</v>
+        <v>642</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>270</v>
+        <v>643</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>271</v>
+        <v>644</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>272</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>273</v>
+        <v>646</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>274</v>
+        <v>647</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>275</v>
+        <v>648</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>276</v>
+        <v>649</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>277</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:9">
       <c r="B19" s="1" t="s">
-        <v>278</v>
+        <v>651</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>279</v>
+        <v>652</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>280</v>
+        <v>653</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>281</v>
+        <v>654</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>282</v>
+        <v>655</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>283</v>
+        <v>656</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>284</v>
+        <v>657</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>285</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>286</v>
+        <v>659</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>287</v>
+        <v>660</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>288</v>
+        <v>661</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>289</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>290</v>
+        <v>663</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>291</v>
+        <v>664</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>292</v>
+        <v>665</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>293</v>
+        <v>666</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>294</v>
+        <v>667</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>295</v>
+        <v>668</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>296</v>
+        <v>669</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>297</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
       <c r="B22" s="1" t="s">
-        <v>298</v>
+        <v>671</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>299</v>
+        <v>672</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>300</v>
+        <v>673</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>301</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>123</v>
+        <v>497</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>302</v>
+        <v>675</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>303</v>
+        <v>676</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>304</v>
+        <v>677</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>305</v>
+        <v>678</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>306</v>
+        <v>679</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>307</v>
+        <v>680</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>308</v>
+        <v>681</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>309</v>
+        <v>682</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>310</v>
+        <v>683</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>311</v>
+        <v>684</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>312</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:9">
       <c r="B25" s="1" t="s">
-        <v>313</v>
+        <v>686</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>314</v>
+        <v>687</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>315</v>
+        <v>688</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>316</v>
+        <v>689</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>317</v>
+        <v>690</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>318</v>
+        <v>691</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>319</v>
+        <v>692</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>320</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:9">
       <c r="B26" s="1" t="s">
-        <v>321</v>
+        <v>694</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>322</v>
+        <v>695</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>323</v>
+        <v>696</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>324</v>
+        <v>697</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>325</v>
+        <v>698</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>326</v>
+        <v>699</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>327</v>
+        <v>700</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>328</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
       <c r="B27" s="1" t="s">
-        <v>329</v>
+        <v>702</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>330</v>
+        <v>703</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>331</v>
+        <v>704</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>332</v>
+        <v>705</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>333</v>
+        <v>706</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>334</v>
+        <v>707</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>335</v>
+        <v>708</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>336</v>
+        <v>709</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:4">
       <c r="B28" s="1" t="s">
-        <v>337</v>
+        <v>710</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>338</v>
+        <v>711</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>339</v>
+        <v>712</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>532</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>340</v>
+        <v>713</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>341</v>
+        <v>714</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>342</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>343</v>
+        <v>716</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>344</v>
+        <v>717</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>345</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>535</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>346</v>
+        <v>719</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>347</v>
+        <v>720</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>556</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>348</v>
+        <v>721</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>349</v>
+        <v>722</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>350</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>189</v>
+        <v>562</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>351</v>
+        <v>724</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/文案_设定.xlsx
+++ b/策划文档/文案_设定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="势力武将" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="753">
   <si>
     <t>刘备</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>孙恒</t>
+  </si>
+  <si>
+    <t>血衣</t>
   </si>
   <si>
     <t>周泰</t>
@@ -1339,6 +1342,9 @@
     <t>古为淝水之上的津渡，三国时期曹魏名将张辽率领麾下部众，分兵毁桥，于此大破东吴大军。经此一役，威震江东。演义中此战为“威震逍遥津”，张辽凭八百精兵折孙权大军锐气，又凭七千之众抵挡东吴十万大军，孙权撤军之时，张辽又下令追击，大破吴军，威震江东，江东小儿啼哭不肯止者，闻张辽之名不敢再啼。</t>
   </si>
   <si>
+    <t>神亭岭</t>
+  </si>
+  <si>
     <t>大汉文官</t>
   </si>
   <si>
@@ -2323,9 +2329,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2403,47 +2409,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2451,13 +2418,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2477,13 +2437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2493,7 +2446,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2509,39 +2525,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2592,7 +2598,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2604,7 +2700,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,13 +2748,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2634,145 +2778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,6 +2820,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2825,15 +2849,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2856,17 +2871,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2886,17 +2892,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2911,6 +2906,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2919,10 +2925,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2931,137 +2937,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3159,9 +3165,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3702,8 +3705,8 @@
   <sheetPr/>
   <dimension ref="B1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -4396,7 +4399,6 @@
       <c r="D52" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="4"/>
       <c r="F52" s="7" t="s">
         <v>133</v>
       </c>
@@ -4516,12 +4518,12 @@
       <c r="H60" s="7"/>
     </row>
     <row r="61" ht="16.2" spans="3:8">
-      <c r="C61" s="7" t="s">
-        <v>54</v>
+      <c r="C61" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -4533,7 +4535,7 @@
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -4545,7 +4547,7 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -4553,7 +4555,7 @@
     </row>
     <row r="66" s="4" customFormat="1" spans="2:8">
       <c r="B66" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8">
@@ -4574,20 +4576,20 @@
     </row>
     <row r="67" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C67" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" ht="16.2" spans="3:8">
@@ -4597,31 +4599,31 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
     <row r="69" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C69" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="14" t="s">
         <v>72</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
     <row r="70" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C70" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -4630,29 +4632,29 @@
     </row>
     <row r="71" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C71" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
     <row r="72" s="4" customFormat="1" spans="3:8">
       <c r="C72" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -4662,14 +4664,14 @@
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" ht="16.2" spans="3:8">
@@ -4678,11 +4680,11 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -4703,7 +4705,7 @@
     </row>
     <row r="78" s="6" customFormat="1" spans="2:8">
       <c r="B78" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="8">
@@ -4725,14 +4727,14 @@
     <row r="79" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B79" s="4"/>
       <c r="C79" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D79" s="29"/>
       <c r="E79" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
@@ -4744,16 +4746,16 @@
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" s="6" customFormat="1" ht="16.2" spans="2:8">
@@ -4762,10 +4764,10 @@
         <v>67</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
@@ -4774,7 +4776,7 @@
     <row r="82" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B82" s="4"/>
       <c r="C82" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D82" s="30" t="s">
         <v>68</v>
@@ -4782,9 +4784,9 @@
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="H82" s="33"/>
+        <v>187</v>
+      </c>
+      <c r="H82" s="29"/>
     </row>
     <row r="83" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B83" s="4"/>
@@ -4793,24 +4795,24 @@
       </c>
       <c r="D83" s="30"/>
       <c r="E83" s="30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H83" s="33"/>
+        <v>190</v>
+      </c>
+      <c r="H83" s="29"/>
     </row>
     <row r="84" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B84" s="4"/>
       <c r="C84" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="33"/>
-      <c r="E84" s="34" t="s">
-        <v>190</v>
+      <c r="D84" s="29"/>
+      <c r="E84" s="33" t="s">
+        <v>191</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
@@ -4821,10 +4823,10 @@
       <c r="C85" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="33"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="31"/>
       <c r="F85" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
@@ -4832,26 +4834,26 @@
     <row r="86" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B86" s="4"/>
       <c r="C86" s="32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D86" s="30"/>
       <c r="E86" s="29"/>
       <c r="F86" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H86" s="29"/>
     </row>
     <row r="87" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B87" s="4"/>
       <c r="C87" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
@@ -4863,7 +4865,7 @@
         <v>48</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E88" s="29"/>
       <c r="F88" s="29"/>
@@ -4872,11 +4874,11 @@
     </row>
     <row r="89" s="6" customFormat="1" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D89" s="36" t="s">
-        <v>198</v>
+      <c r="D89" s="35" t="s">
+        <v>199</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -4886,10 +4888,10 @@
     <row r="90" s="6" customFormat="1" spans="2:8">
       <c r="B90" s="4"/>
       <c r="C90" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
@@ -4904,7 +4906,7 @@
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
@@ -4919,7 +4921,7 @@
       </c>
       <c r="E92" s="29"/>
       <c r="F92" s="30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -4932,8 +4934,8 @@
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
       <c r="F93" s="29"/>
-      <c r="G93" s="34" t="s">
-        <v>202</v>
+      <c r="G93" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="H93" s="29"/>
     </row>
@@ -4963,22 +4965,22 @@
     </row>
     <row r="97" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C97" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" ht="16.2" spans="3:8">
@@ -4986,10 +4988,10 @@
         <v>34</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -5001,30 +5003,30 @@
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H99" s="7"/>
     </row>
     <row r="100" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C100" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" spans="3:8">
@@ -5034,10 +5036,10 @@
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -5048,7 +5050,7 @@
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -5060,7 +5062,7 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
@@ -5082,7 +5084,7 @@
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
@@ -5095,7 +5097,7 @@
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -5113,7 +5115,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -5123,378 +5125,378 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -5508,430 +5510,435 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B32" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B35" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B39" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B40" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B42" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B45" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B47" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B48" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B49" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -5965,484 +5972,484 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:11">
       <c r="B9" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:11">
       <c r="B17" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:11">
       <c r="B18" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:11">
       <c r="B22" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -6475,572 +6482,572 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:6">
       <c r="B9" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
       <c r="B11" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
       <c r="B14" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:9">
       <c r="B16" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:8">
       <c r="B17" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:9">
       <c r="B19" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
       <c r="B22" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:9">
       <c r="B25" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:9">
       <c r="B26" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
       <c r="B27" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:4">
       <c r="B28" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -7062,57 +7069,57 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -7122,77 +7129,77 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/文案_设定.xlsx
+++ b/策划文档/文案_设定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="20928" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="势力武将" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="752">
   <si>
     <t>刘备</t>
   </si>
@@ -48,51 +48,54 @@
     <t>黄忠</t>
   </si>
   <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>刘封</t>
+  </si>
+  <si>
+    <t>孟达</t>
+  </si>
+  <si>
+    <t>连弩</t>
+  </si>
+  <si>
+    <t>霍峻</t>
+  </si>
+  <si>
+    <t>霍戈</t>
+  </si>
+  <si>
+    <t>李严</t>
+  </si>
+  <si>
+    <t>吴兰</t>
+  </si>
+  <si>
+    <t>元戎弩</t>
+  </si>
+  <si>
+    <t>姜维</t>
+  </si>
+  <si>
+    <t>罗宪</t>
+  </si>
+  <si>
+    <t>无当</t>
+  </si>
+  <si>
+    <t>张嶷</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>重弩</t>
+  </si>
+  <si>
     <t>魏延</t>
   </si>
   <si>
-    <t>严颜</t>
-  </si>
-  <si>
-    <t>刘封</t>
-  </si>
-  <si>
-    <t>孟达</t>
-  </si>
-  <si>
-    <t>连弩</t>
-  </si>
-  <si>
-    <t>霍峻</t>
-  </si>
-  <si>
-    <t>霍戈</t>
-  </si>
-  <si>
-    <t>李严</t>
-  </si>
-  <si>
-    <t>吴兰</t>
-  </si>
-  <si>
-    <t>元戎弩</t>
-  </si>
-  <si>
-    <t>姜维</t>
-  </si>
-  <si>
-    <t>罗宪</t>
-  </si>
-  <si>
-    <t>无当</t>
-  </si>
-  <si>
-    <t>张嶷</t>
-  </si>
-  <si>
-    <t>王平</t>
-  </si>
-  <si>
     <t>大刀</t>
   </si>
   <si>
@@ -153,7 +156,7 @@
     <t>马谡</t>
   </si>
   <si>
-    <t>奇士</t>
+    <t>狂士</t>
   </si>
   <si>
     <t>庞统</t>
@@ -276,7 +279,7 @@
     <t>文聘、张绣</t>
   </si>
   <si>
-    <t>戟</t>
+    <t>大戟</t>
   </si>
   <si>
     <t>曹彰</t>
@@ -477,7 +480,7 @@
     <t>程普</t>
   </si>
   <si>
-    <t>火矢</t>
+    <t>火弓</t>
   </si>
   <si>
     <t>太史慈</t>
@@ -528,19 +531,13 @@
     <t>高览</t>
   </si>
   <si>
-    <t>枪</t>
-  </si>
-  <si>
     <t>牵招</t>
   </si>
   <si>
-    <t>刀</t>
-  </si>
-  <si>
     <t>颜良</t>
   </si>
   <si>
-    <t>斧</t>
+    <t>大斧</t>
   </si>
   <si>
     <t>文丑</t>
@@ -2328,8 +2325,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2409,6 +2406,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2424,16 +2429,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2452,9 +2466,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2468,31 +2497,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2517,23 +2523,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2598,7 +2595,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2610,13 +2625,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2628,91 +2715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2724,7 +2727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2736,7 +2739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2748,25 +2751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2779,6 +2764,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2820,39 +2817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2878,6 +2842,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2888,6 +2878,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2909,11 +2908,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2925,145 +2922,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3249,13 +3246,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3273,7 +3270,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8923020" y="3291840"/>
+          <a:off x="8923020" y="3497580"/>
           <a:ext cx="3329940" cy="2468880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3291,13 +3288,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3315,7 +3312,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8633460" y="20413980"/>
+          <a:off x="8633460" y="20619720"/>
           <a:ext cx="1493520" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3333,13 +3330,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3357,7 +3354,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8221980" y="15476220"/>
+          <a:off x="8221980" y="15681960"/>
           <a:ext cx="6362700" cy="3764280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3703,10 +3700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H106"/>
+  <dimension ref="B1:H107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3764,695 +3761,692 @@
       <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" ht="16.2" spans="3:8">
       <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" ht="16.2" spans="3:8">
       <c r="C5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" ht="16.2" spans="3:8">
       <c r="C6" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="7" t="s">
+    <row r="7" ht="16.2" spans="3:8">
+      <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" ht="16.2" spans="3:8">
+    <row r="9" spans="3:8">
       <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="18" t="s">
+    <row r="10" ht="16.2" spans="3:8">
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="7" t="s">
-        <v>34</v>
+      <c r="C11" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" ht="16.2" spans="3:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:8">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="7" t="s">
+    <row r="13" ht="16.2" spans="3:8">
+      <c r="C13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" ht="16.2" spans="3:8">
-      <c r="C14" s="13" t="s">
+      <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" ht="16.2" spans="3:8">
+      <c r="C15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="D15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="E15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" ht="16.2" spans="3:8">
-      <c r="C15" s="18" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" ht="16.2" spans="3:8">
+      <c r="C16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" ht="16.2" spans="3:8">
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="7" t="s">
+    <row r="17" ht="16.2" spans="3:8">
+      <c r="C17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="14" t="s">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="4" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8">
         <v>6</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>5</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>4</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>3</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H22" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="16.2" spans="3:8">
-      <c r="C22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="15" t="s">
+    <row r="23" ht="16.2" spans="3:8">
+      <c r="C23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" ht="16.2" spans="3:8">
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" ht="16.2" spans="3:8">
       <c r="C24" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" ht="16.2" spans="3:8">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" ht="16.2" spans="3:8">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" ht="16.2" spans="3:8">
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" ht="16.2" spans="3:8">
       <c r="C28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="14" t="s">
+    </row>
+    <row r="29" ht="16.2" spans="3:8">
+      <c r="C29" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="D29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" ht="16.2" spans="3:8">
-      <c r="C29" s="21" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="15" t="s">
+    </row>
+    <row r="30" ht="16.2" spans="3:8">
+      <c r="C30" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" ht="16.2" spans="3:8">
-      <c r="C30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" ht="16.2" spans="3:8">
       <c r="C31" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" ht="16.2" spans="3:8">
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" ht="16.2" spans="3:8">
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" ht="16.2" spans="3:8">
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>53</v>
-      </c>
+    <row r="35" ht="16.2" spans="3:8">
+      <c r="C35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" ht="16.2" spans="3:8">
-      <c r="C36" s="13" t="s">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="15" t="s">
+    </row>
+    <row r="37" ht="16.2" spans="3:8">
+      <c r="C37" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" ht="16.2" spans="3:8">
-      <c r="C37" s="7" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" ht="16.2" spans="3:8">
+      <c r="C38" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" ht="16.2" spans="3:8">
-      <c r="C38" s="23" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" ht="16.2" spans="3:8">
+      <c r="C39" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="H38" s="7" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" ht="16.2" spans="3:8">
-      <c r="C39" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="F39" s="16"/>
+      <c r="H39" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="14" t="s">
+    </row>
+    <row r="40" ht="16.2" spans="3:8">
+      <c r="C40" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="E40" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="F40" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" ht="16.2" spans="3:8">
-      <c r="C40" s="16" t="s">
+      <c r="G40" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="15" t="s">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" ht="16.2" spans="3:8">
+      <c r="C41" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
+      <c r="D41" s="7"/>
+      <c r="E41" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" ht="16.2" spans="3:8">
-      <c r="C41" s="20" t="s">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" ht="16.2" spans="3:8">
+      <c r="C42" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="D42" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" ht="16.2" spans="3:8">
-      <c r="C42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" ht="16.2" spans="3:8">
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" ht="16.2" spans="3:8">
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="24"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="4" t="s">
+    <row r="45" ht="16.2" spans="3:8">
+      <c r="C45" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8">
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="24"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8">
         <v>6</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>5</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>4</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>3</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H48" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="48" ht="16.2" spans="3:8">
-      <c r="C48" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7" t="s">
+    <row r="49" ht="16.2" spans="3:8">
+      <c r="C49" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="F49" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="G49" s="25" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" ht="16.2" spans="3:8">
-      <c r="C49" s="17" t="s">
+      <c r="H49" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H49" s="7"/>
     </row>
     <row r="50" ht="16.2" spans="3:8">
       <c r="C50" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" ht="16.2" spans="3:8">
       <c r="C51" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="E51" s="26"/>
       <c r="F51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" ht="16.2" spans="3:8">
+      <c r="C52" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="D52" s="7"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" ht="16.2" spans="3:8">
-      <c r="C52" s="13" t="s">
+      <c r="G52" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" ht="16.2" spans="3:8">
       <c r="C53" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E53" s="16" t="s">
+    </row>
+    <row r="54" ht="16.2" spans="3:8">
+      <c r="C54" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
-        <v>114</v>
+      <c r="E54" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" ht="16.2" spans="3:8">
+    <row r="55" spans="3:8">
       <c r="C55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" ht="16.2" spans="3:8">
       <c r="C56" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -4461,77 +4455,77 @@
     </row>
     <row r="57" ht="16.2" spans="3:8">
       <c r="C57" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>141</v>
       </c>
+      <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" ht="16.2" spans="3:8">
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" ht="16.2" spans="3:8">
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
     <row r="60" ht="16.2" spans="3:8">
-      <c r="C60" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="15" t="s">
+      <c r="C60" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>151</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
     <row r="61" ht="16.2" spans="3:8">
-      <c r="C61" s="18" t="s">
-        <v>152</v>
+      <c r="C61" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F61" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>152</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" ht="16.2" spans="3:8">
-      <c r="C62" s="7" t="s">
-        <v>93</v>
+      <c r="C62" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="15" t="s">
@@ -4542,10 +4536,10 @@
       <c r="H62" s="7"/>
     </row>
     <row r="63" ht="16.2" spans="3:8">
-      <c r="C63" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="7"/>
+      <c r="C63" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="16"/>
       <c r="E63" s="15" t="s">
         <v>155</v>
       </c>
@@ -4553,332 +4547,331 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="66" s="4" customFormat="1" spans="2:8">
-      <c r="B66" s="4" t="s">
+    <row r="64" ht="16.2" spans="3:8">
+      <c r="C64" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="67" s="4" customFormat="1" spans="2:8">
+      <c r="B67" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8">
         <v>6</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>5</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>4</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="11">
         <v>3</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H67" s="12">
         <v>2</v>
-      </c>
-    </row>
-    <row r="67" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C67" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C68" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
     </row>
     <row r="69" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C69" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
     <row r="70" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C70" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
     <row r="71" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C71" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>168</v>
+        <v>25</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" s="4" customFormat="1" spans="3:8">
-      <c r="C72" s="7" t="s">
+    <row r="72" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C72" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" s="4" customFormat="1" spans="3:8">
+      <c r="C73" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C73" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>174</v>
-      </c>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C74" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" s="5" customFormat="1" ht="16.2" spans="3:8">
+      <c r="G74" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C75" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="15" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="77" s="6" customFormat="1" spans="2:2">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" s="6" customFormat="1" spans="2:8">
-      <c r="B78" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="8">
+    <row r="76" s="5" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C76" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="78" s="6" customFormat="1" spans="2:2">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" s="6" customFormat="1" spans="2:8">
+      <c r="B79" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8">
         <v>6</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>5</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>4</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="11">
         <v>3</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H79" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" s="6" customFormat="1" ht="16.2" spans="2:8">
-      <c r="B79" s="4"/>
-      <c r="C79" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="F79" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
     </row>
     <row r="80" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B80" s="4"/>
       <c r="C80" s="28" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="H80" s="29" t="s">
-        <v>184</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
     </row>
     <row r="81" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B81" s="4"/>
       <c r="C81" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="82" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B82" s="4"/>
-      <c r="C82" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="D82" s="30" t="s">
+      <c r="C82" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E82" s="29"/>
+      <c r="D82" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="F82" s="29"/>
-      <c r="G82" s="29" t="s">
-        <v>187</v>
-      </c>
+      <c r="G82" s="29"/>
       <c r="H82" s="29"/>
     </row>
     <row r="83" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B83" s="4"/>
       <c r="C83" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>189</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
       <c r="G83" s="29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H83" s="29"/>
     </row>
     <row r="84" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B84" s="4"/>
       <c r="C84" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
+        <v>76</v>
+      </c>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>189</v>
+      </c>
       <c r="H84" s="29"/>
     </row>
     <row r="85" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B85" s="4"/>
       <c r="C85" s="32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D85" s="29"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="29" t="s">
-        <v>192</v>
-      </c>
+      <c r="E85" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F85" s="29"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
     </row>
     <row r="86" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B86" s="4"/>
       <c r="C86" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="G86" s="29" t="s">
-        <v>195</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D86" s="29"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G86" s="29"/>
       <c r="H86" s="29"/>
     </row>
     <row r="87" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B87" s="4"/>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87" s="30"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H87" s="29"/>
+    </row>
+    <row r="88" s="6" customFormat="1" ht="16.2" spans="2:8">
+      <c r="B88" s="4"/>
+      <c r="C88" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" s="29"/>
+      <c r="E88" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-    </row>
-    <row r="88" s="6" customFormat="1" spans="2:8">
-      <c r="B88" s="4"/>
-      <c r="C88" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E88" s="29"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
     </row>
     <row r="89" s="6" customFormat="1" spans="2:8">
       <c r="B89" s="4"/>
-      <c r="C89" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D89" s="35" t="s">
-        <v>199</v>
+      <c r="C89" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>197</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -4887,11 +4880,11 @@
     </row>
     <row r="90" s="6" customFormat="1" spans="2:8">
       <c r="B90" s="4"/>
-      <c r="C90" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D90" s="29" t="s">
-        <v>200</v>
+      <c r="C90" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
@@ -4901,206 +4894,219 @@
     <row r="91" s="6" customFormat="1" spans="2:8">
       <c r="B91" s="4"/>
       <c r="C91" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>199</v>
+      </c>
       <c r="E91" s="29"/>
-      <c r="F91" s="29" t="s">
-        <v>201</v>
-      </c>
+      <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
     </row>
-    <row r="92" s="6" customFormat="1" ht="16.2" spans="2:8">
+    <row r="92" s="6" customFormat="1" spans="2:8">
       <c r="B92" s="4"/>
       <c r="C92" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>96</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D92" s="29"/>
       <c r="E92" s="29"/>
-      <c r="F92" s="30" t="s">
-        <v>202</v>
+      <c r="F92" s="29" t="s">
+        <v>200</v>
       </c>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
     </row>
     <row r="93" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B93" s="4"/>
-      <c r="C93" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" s="29"/>
+      <c r="C93" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="33" t="s">
-        <v>203</v>
-      </c>
+      <c r="F93" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G93" s="29"/>
       <c r="H93" s="29"/>
     </row>
-    <row r="94" s="6" customFormat="1" spans="2:2">
+    <row r="94" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B94" s="4"/>
-    </row>
-    <row r="96" s="4" customFormat="1" spans="2:8">
-      <c r="B96" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="8">
+      <c r="C94" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="H94" s="29"/>
+    </row>
+    <row r="95" s="6" customFormat="1" spans="2:2">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="97" s="4" customFormat="1" spans="2:8">
+      <c r="B97" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8">
         <v>6</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E97" s="9">
         <v>5</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F97" s="10">
         <v>4</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G97" s="11">
         <v>3</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H97" s="12">
         <v>2</v>
-      </c>
-    </row>
-    <row r="97" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C97" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C98" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="99" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C99" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>214</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
     <row r="100" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C100" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C101" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="15" t="s">
+      <c r="F101" s="7"/>
+      <c r="G101" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7" t="s">
+      <c r="H101" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H100" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" s="4" customFormat="1" spans="3:8">
-      <c r="C101" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H101" s="7"/>
     </row>
     <row r="102" s="4" customFormat="1" spans="3:8">
       <c r="C102" s="7" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G102" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="H102" s="7"/>
     </row>
     <row r="103" s="4" customFormat="1" spans="3:8">
       <c r="C103" s="7" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="14" t="s">
-        <v>222</v>
+      <c r="F103" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" s="4" customFormat="1" ht="16.2" spans="3:8">
+    <row r="104" s="4" customFormat="1" spans="3:8">
       <c r="C104" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F104" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="14" t="s">
+        <v>221</v>
+      </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
     <row r="105" s="4" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C105" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15" t="s">
-        <v>223</v>
+      <c r="C105" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" s="4" customFormat="1" spans="3:8">
-      <c r="C106" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="14" t="s">
-        <v>224</v>
-      </c>
+    <row r="106" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C106" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="3:8">
+      <c r="C107" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5125,378 +5131,378 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:3">
       <c r="A17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -5512,7 +5518,7 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -5520,425 +5526,425 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
         <v>321</v>
-      </c>
-      <c r="B1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" t="s">
         <v>323</v>
-      </c>
-      <c r="B2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
         <v>325</v>
-      </c>
-      <c r="B3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
         <v>327</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>328</v>
-      </c>
-      <c r="C4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s">
         <v>330</v>
-      </c>
-      <c r="B5" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" t="s">
         <v>332</v>
-      </c>
-      <c r="B6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
         <v>334</v>
-      </c>
-      <c r="B7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
         <v>336</v>
-      </c>
-      <c r="B8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" t="s">
         <v>338</v>
-      </c>
-      <c r="B9" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
         <v>340</v>
-      </c>
-      <c r="B10" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" t="s">
         <v>342</v>
-      </c>
-      <c r="B11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" t="s">
         <v>344</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>345</v>
-      </c>
-      <c r="C12" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" t="s">
         <v>347</v>
-      </c>
-      <c r="B13" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" t="s">
         <v>349</v>
-      </c>
-      <c r="B14" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" t="s">
         <v>351</v>
-      </c>
-      <c r="B15" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" t="s">
         <v>353</v>
-      </c>
-      <c r="B16" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" t="s">
         <v>355</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>356</v>
-      </c>
-      <c r="C17" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
         <v>358</v>
-      </c>
-      <c r="B18" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" t="s">
         <v>360</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>361</v>
-      </c>
-      <c r="C19" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" t="s">
         <v>363</v>
-      </c>
-      <c r="B20" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" t="s">
         <v>365</v>
-      </c>
-      <c r="B21" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" t="s">
         <v>367</v>
-      </c>
-      <c r="B22" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" t="s">
         <v>369</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>370</v>
-      </c>
-      <c r="C23" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B24" t="s">
         <v>372</v>
-      </c>
-      <c r="B24" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" t="s">
         <v>374</v>
-      </c>
-      <c r="B25" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" t="s">
         <v>376</v>
-      </c>
-      <c r="B26" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" t="s">
         <v>378</v>
-      </c>
-      <c r="B27" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" t="s">
         <v>380</v>
-      </c>
-      <c r="B28" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>381</v>
+      </c>
+      <c r="B29" t="s">
         <v>382</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>383</v>
-      </c>
-      <c r="C29" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B30" t="s">
         <v>385</v>
-      </c>
-      <c r="B30" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" t="s">
         <v>387</v>
-      </c>
-      <c r="B31" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B32" t="s">
         <v>389</v>
-      </c>
-      <c r="B32" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" t="s">
         <v>391</v>
-      </c>
-      <c r="B33" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34" t="s">
         <v>393</v>
-      </c>
-      <c r="B34" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" t="s">
         <v>395</v>
-      </c>
-      <c r="B35" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>396</v>
+      </c>
+      <c r="B36" t="s">
         <v>397</v>
-      </c>
-      <c r="B36" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>398</v>
+      </c>
+      <c r="B37" t="s">
         <v>399</v>
-      </c>
-      <c r="B37" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" t="s">
         <v>401</v>
-      </c>
-      <c r="B38" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>402</v>
+      </c>
+      <c r="B39" t="s">
         <v>403</v>
-      </c>
-      <c r="B39" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" t="s">
         <v>405</v>
-      </c>
-      <c r="B40" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>406</v>
+      </c>
+      <c r="B41" t="s">
         <v>407</v>
-      </c>
-      <c r="B41" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>408</v>
+      </c>
+      <c r="B42" t="s">
         <v>409</v>
-      </c>
-      <c r="B42" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B43" t="s">
         <v>411</v>
-      </c>
-      <c r="B43" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>413</v>
+      </c>
+      <c r="B45" t="s">
         <v>414</v>
-      </c>
-      <c r="B45" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B46" t="s">
         <v>416</v>
-      </c>
-      <c r="B46" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>417</v>
+      </c>
+      <c r="B47" t="s">
         <v>418</v>
-      </c>
-      <c r="B47" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>419</v>
+      </c>
+      <c r="B48" t="s">
         <v>420</v>
-      </c>
-      <c r="B48" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>421</v>
+      </c>
+      <c r="B49" t="s">
         <v>422</v>
-      </c>
-      <c r="B49" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" t="s">
         <v>424</v>
-      </c>
-      <c r="B50" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5972,484 +5978,484 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:3">
       <c r="B7" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:5">
       <c r="B8" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:11">
       <c r="B9" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:4">
       <c r="B12" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:4">
       <c r="B14" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:11">
       <c r="B17" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:11">
       <c r="B18" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:11">
       <c r="B22" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -6482,572 +6488,572 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:6">
       <c r="B5" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
       <c r="B8" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:6">
       <c r="B9" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
       <c r="B11" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:3">
       <c r="B12" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
       <c r="B14" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:9">
       <c r="B16" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:8">
       <c r="B17" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:6">
       <c r="B18" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:9">
       <c r="B19" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:5">
       <c r="B20" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:9">
       <c r="B21" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
       <c r="B22" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:9">
       <c r="B24" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:9">
       <c r="B25" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:9">
       <c r="B26" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
       <c r="B27" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:4">
       <c r="B28" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:4">
       <c r="B30" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -7069,137 +7075,137 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/文案_设定.xlsx
+++ b/策划文档/文案_设定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="势力武将" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="760">
   <si>
     <t>刘备</t>
   </si>
@@ -736,6 +736,30 @@
     <t>贾充</t>
   </si>
   <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>黄巾</t>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>张宝</t>
+  </si>
+  <si>
+    <t>张梁</t>
+  </si>
+  <si>
+    <t>鬼兵</t>
+  </si>
+  <si>
+    <t>马元义</t>
+  </si>
+  <si>
+    <t>南华</t>
+  </si>
+  <si>
     <t>1长安</t>
   </si>
   <si>
@@ -2326,8 +2350,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -2406,6 +2430,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2414,15 +2484,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2437,7 +2545,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2453,91 +2561,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2595,25 +2619,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2631,13 +2655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2649,13 +2667,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,13 +2727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2691,37 +2751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2745,7 +2775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2757,25 +2799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2817,17 +2841,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2858,11 +2887,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2882,15 +2924,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2905,15 +2938,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2922,10 +2946,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2934,137 +2958,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3167,10 +3191,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3228,8 +3249,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="00FF0000"/>
       <color rgb="00000000"/>
-      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3295,7 +3316,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3312,7 +3333,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8633460" y="20619720"/>
+          <a:off x="8633460" y="20612100"/>
           <a:ext cx="1493520" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3337,7 +3358,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3700,10 +3721,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H107"/>
+  <dimension ref="B1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -4216,7 +4237,7 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" ht="16.2" spans="3:8">
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D39" s="15"/>
@@ -4363,7 +4384,7 @@
       <c r="F50" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H50" s="7"/>
@@ -4883,7 +4904,7 @@
       <c r="C90" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D90" s="35" t="s">
+      <c r="D90" s="29" t="s">
         <v>198</v>
       </c>
       <c r="E90" s="29"/>
@@ -4932,9 +4953,9 @@
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
     </row>
-    <row r="94" s="6" customFormat="1" ht="16.2" spans="2:8">
+    <row r="94" s="6" customFormat="1" spans="2:8">
       <c r="B94" s="4"/>
-      <c r="C94" s="32" t="s">
+      <c r="C94" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D94" s="29"/>
@@ -5035,8 +5056,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" s="4" customFormat="1" spans="3:8">
-      <c r="C102" s="7" t="s">
+    <row r="102" s="4" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C102" s="13" t="s">
         <v>103</v>
       </c>
       <c r="D102" s="7"/>
@@ -5107,6 +5128,86 @@
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="8">
+        <v>6</v>
+      </c>
+      <c r="E110" s="9">
+        <v>5</v>
+      </c>
+      <c r="F110" s="10">
+        <v>4</v>
+      </c>
+      <c r="G110" s="11">
+        <v>3</v>
+      </c>
+      <c r="H110" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" ht="16.2" spans="3:8">
+      <c r="C111" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" ht="16.2" spans="3:8">
+      <c r="C112" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" ht="16.2" spans="3:8">
+      <c r="C113" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="F113" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" ht="16.2" spans="3:8">
+      <c r="C114" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="3:8">
+      <c r="C115" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5131,378 +5232,378 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -5526,425 +5627,425 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B17" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C19" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B22" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C23" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B24" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B25" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B29" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C29" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B31" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B32" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B33" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B35" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B36" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B37" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B38" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B39" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B40" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B42" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B45" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B46" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B47" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B48" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B50" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -5978,484 +6079,484 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:11">
       <c r="B9" s="1" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:11">
       <c r="B17" s="1" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:11">
       <c r="B18" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:11">
       <c r="B22" s="1" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -6488,572 +6589,572 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:6">
       <c r="B9" s="1" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
       <c r="B11" s="1" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
       <c r="B14" s="1" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:9">
       <c r="B16" s="1" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:8">
       <c r="B17" s="1" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:9">
       <c r="B19" s="1" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
       <c r="B22" s="1" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:9">
       <c r="B25" s="1" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:9">
       <c r="B26" s="1" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
       <c r="B27" s="1" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:4">
       <c r="B28" s="1" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -7075,57 +7176,57 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -7135,77 +7236,77 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/文案_设定.xlsx
+++ b/策划文档/文案_设定.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="759">
   <si>
     <t>刘备</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>陈登</t>
-  </si>
-  <si>
-    <t>钟繇</t>
   </si>
   <si>
     <t>曹冲</t>
@@ -2349,10 +2346,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2430,18 +2427,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2460,40 +2458,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2507,14 +2473,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2529,25 +2533,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2559,6 +2548,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2567,8 +2563,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2619,7 +2616,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2631,7 +2676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2643,25 +2694,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2673,31 +2718,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2709,7 +2766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2721,43 +2778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2769,37 +2790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2841,13 +2838,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2864,8 +2865,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2885,15 +2886,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2909,17 +2901,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2938,6 +2924,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2946,10 +2943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2958,133 +2955,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3723,8 +3720,8 @@
   <sheetPr/>
   <dimension ref="B1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -4259,37 +4256,35 @@
       <c r="E40" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" ht="16.2" spans="3:8">
       <c r="C41" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" ht="16.2" spans="3:8">
       <c r="C42" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -4297,11 +4292,11 @@
     </row>
     <row r="43" ht="16.2" spans="3:8">
       <c r="C43" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -4309,10 +4304,10 @@
     </row>
     <row r="44" ht="16.2" spans="3:8">
       <c r="C44" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -4321,10 +4316,10 @@
     </row>
     <row r="45" ht="16.2" spans="3:8">
       <c r="C45" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -4336,7 +4331,7 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8">
@@ -4357,94 +4352,94 @@
     </row>
     <row r="49" ht="16.2" spans="3:8">
       <c r="C49" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="G49" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="H49" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" ht="16.2" spans="3:8">
       <c r="C50" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="G50" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" ht="16.2" spans="3:8">
       <c r="C51" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" ht="16.2" spans="3:8">
       <c r="C52" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="26"/>
       <c r="F52" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" ht="16.2" spans="3:8">
       <c r="C53" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="54" ht="16.2" spans="3:8">
       <c r="C54" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -4456,7 +4451,7 @@
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -4467,7 +4462,7 @@
         <v>72</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -4476,10 +4471,10 @@
     </row>
     <row r="57" ht="16.2" spans="3:8">
       <c r="C57" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -4488,11 +4483,11 @@
     </row>
     <row r="58" ht="16.2" spans="3:8">
       <c r="C58" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -4500,32 +4495,32 @@
     </row>
     <row r="59" ht="16.2" spans="3:8">
       <c r="C59" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="E59" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="F59" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
     <row r="60" ht="16.2" spans="3:8">
       <c r="C60" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="E60" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="F60" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -4536,21 +4531,21 @@
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" ht="16.2" spans="3:8">
       <c r="C62" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -4562,7 +4557,7 @@
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -4574,7 +4569,7 @@
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -4582,7 +4577,7 @@
     </row>
     <row r="67" s="4" customFormat="1" spans="2:8">
       <c r="B67" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8">
@@ -4603,20 +4598,20 @@
     </row>
     <row r="68" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C68" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="16.2" spans="3:8">
@@ -4626,7 +4621,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -4640,7 +4635,7 @@
         <v>73</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -4650,7 +4645,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -4659,29 +4654,29 @@
     </row>
     <row r="72" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C72" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
     <row r="73" s="4" customFormat="1" spans="3:8">
       <c r="C73" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -4691,37 +4686,37 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H74" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="75" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C75" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H75" s="7"/>
     </row>
     <row r="76" s="5" customFormat="1" ht="16.2" spans="3:8">
       <c r="C76" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -4732,7 +4727,7 @@
     </row>
     <row r="79" s="6" customFormat="1" spans="2:8">
       <c r="B79" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="8">
@@ -4754,14 +4749,14 @@
     <row r="80" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B80" s="4"/>
       <c r="C80" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" s="31" t="s">
         <v>178</v>
-      </c>
-      <c r="F80" s="31" t="s">
-        <v>179</v>
       </c>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
@@ -4773,16 +4768,16 @@
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F81" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="G81" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="G81" s="29" t="s">
+      <c r="H81" s="29" t="s">
         <v>182</v>
-      </c>
-      <c r="H81" s="29" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="82" s="6" customFormat="1" ht="16.2" spans="2:8">
@@ -4791,10 +4786,10 @@
         <v>68</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
@@ -4803,7 +4798,7 @@
     <row r="83" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B83" s="4"/>
       <c r="C83" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D83" s="30" t="s">
         <v>69</v>
@@ -4811,7 +4806,7 @@
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H83" s="29"/>
     </row>
@@ -4822,13 +4817,13 @@
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F84" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="G84" s="29" t="s">
         <v>188</v>
-      </c>
-      <c r="G84" s="29" t="s">
-        <v>189</v>
       </c>
       <c r="H84" s="29"/>
     </row>
@@ -4839,7 +4834,7 @@
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
@@ -4853,7 +4848,7 @@
       <c r="D86" s="29"/>
       <c r="E86" s="31"/>
       <c r="F86" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
@@ -4861,26 +4856,26 @@
     <row r="87" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B87" s="4"/>
       <c r="C87" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D87" s="30"/>
       <c r="E87" s="29"/>
       <c r="F87" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G87" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="G87" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="H87" s="29"/>
     </row>
     <row r="88" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B88" s="4"/>
       <c r="C88" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
@@ -4892,7 +4887,7 @@
         <v>49</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -4902,10 +4897,10 @@
     <row r="90" s="6" customFormat="1" spans="2:8">
       <c r="B90" s="4"/>
       <c r="C90" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
@@ -4915,10 +4910,10 @@
     <row r="91" s="6" customFormat="1" spans="2:8">
       <c r="B91" s="4"/>
       <c r="C91" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E91" s="29"/>
       <c r="F91" s="29"/>
@@ -4933,7 +4928,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
@@ -4941,14 +4936,14 @@
     <row r="93" s="6" customFormat="1" ht="16.2" spans="2:8">
       <c r="B93" s="4"/>
       <c r="C93" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D93" s="30" t="s">
         <v>97</v>
       </c>
       <c r="E93" s="29"/>
       <c r="F93" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
@@ -4962,7 +4957,7 @@
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
       <c r="G94" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H94" s="29"/>
     </row>
@@ -4971,7 +4966,7 @@
     </row>
     <row r="97" s="4" customFormat="1" spans="2:8">
       <c r="B97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8">
@@ -4992,22 +4987,22 @@
     </row>
     <row r="98" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C98" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" ht="16.2" spans="3:8">
@@ -5015,10 +5010,10 @@
         <v>35</v>
       </c>
       <c r="D99" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -5030,43 +5025,43 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H100" s="7"/>
     </row>
     <row r="101" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C101" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H101" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" ht="16.2" spans="3:8">
       <c r="C102" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H102" s="7"/>
     </row>
@@ -5077,19 +5072,19 @@
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
     <row r="104" s="4" customFormat="1" spans="3:8">
       <c r="C104" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -5099,7 +5094,7 @@
         <v>94</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
@@ -5111,7 +5106,7 @@
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -5119,19 +5114,19 @@
     </row>
     <row r="107" s="4" customFormat="1" spans="3:8">
       <c r="C107" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
     <row r="110" spans="2:8">
       <c r="B110" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="8">
@@ -5152,7 +5147,7 @@
     </row>
     <row r="111" ht="16.2" spans="3:8">
       <c r="C111" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -5162,27 +5157,27 @@
     </row>
     <row r="112" ht="16.2" spans="3:8">
       <c r="C112" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H112" s="7"/>
     </row>
     <row r="113" ht="16.2" spans="3:8">
       <c r="C113" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D113" s="7"/>
       <c r="F113" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -5202,7 +5197,7 @@
         <v>36</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -5232,378 +5227,378 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
       <c r="A5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
       <c r="A7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:3">
       <c r="A10" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:3">
       <c r="A17" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -5627,425 +5622,425 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" t="s">
         <v>328</v>
-      </c>
-      <c r="B1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" t="s">
         <v>330</v>
-      </c>
-      <c r="B2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" t="s">
         <v>332</v>
-      </c>
-      <c r="B3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" t="s">
         <v>334</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>335</v>
-      </c>
-      <c r="C4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s">
         <v>337</v>
-      </c>
-      <c r="B5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" t="s">
         <v>339</v>
-      </c>
-      <c r="B6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" t="s">
         <v>341</v>
-      </c>
-      <c r="B7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" t="s">
         <v>343</v>
-      </c>
-      <c r="B8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" t="s">
         <v>345</v>
-      </c>
-      <c r="B9" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" t="s">
         <v>347</v>
-      </c>
-      <c r="B10" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" t="s">
         <v>349</v>
-      </c>
-      <c r="B11" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" t="s">
         <v>351</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>352</v>
-      </c>
-      <c r="C12" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" t="s">
         <v>354</v>
-      </c>
-      <c r="B13" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" t="s">
         <v>356</v>
-      </c>
-      <c r="B14" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" t="s">
         <v>358</v>
-      </c>
-      <c r="B15" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" t="s">
         <v>360</v>
-      </c>
-      <c r="B16" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" t="s">
         <v>362</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>363</v>
-      </c>
-      <c r="C17" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" t="s">
         <v>365</v>
-      </c>
-      <c r="B18" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" t="s">
         <v>367</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>368</v>
-      </c>
-      <c r="C19" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" t="s">
         <v>370</v>
-      </c>
-      <c r="B20" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" t="s">
         <v>372</v>
-      </c>
-      <c r="B21" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" t="s">
         <v>374</v>
-      </c>
-      <c r="B22" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" t="s">
         <v>376</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>377</v>
-      </c>
-      <c r="C23" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" t="s">
         <v>379</v>
-      </c>
-      <c r="B24" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" t="s">
         <v>381</v>
-      </c>
-      <c r="B25" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" t="s">
         <v>383</v>
-      </c>
-      <c r="B26" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>384</v>
+      </c>
+      <c r="B27" t="s">
         <v>385</v>
-      </c>
-      <c r="B27" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" t="s">
         <v>387</v>
-      </c>
-      <c r="B28" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B29" t="s">
         <v>389</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>390</v>
-      </c>
-      <c r="C29" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" t="s">
         <v>392</v>
-      </c>
-      <c r="B30" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" t="s">
         <v>394</v>
-      </c>
-      <c r="B31" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" t="s">
         <v>396</v>
-      </c>
-      <c r="B32" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>397</v>
+      </c>
+      <c r="B33" t="s">
         <v>398</v>
-      </c>
-      <c r="B33" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>399</v>
+      </c>
+      <c r="B34" t="s">
         <v>400</v>
-      </c>
-      <c r="B34" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" t="s">
         <v>402</v>
-      </c>
-      <c r="B35" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36" t="s">
         <v>404</v>
-      </c>
-      <c r="B36" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B37" t="s">
         <v>406</v>
-      </c>
-      <c r="B37" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>407</v>
+      </c>
+      <c r="B38" t="s">
         <v>408</v>
-      </c>
-      <c r="B38" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>409</v>
+      </c>
+      <c r="B39" t="s">
         <v>410</v>
-      </c>
-      <c r="B39" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>411</v>
+      </c>
+      <c r="B40" t="s">
         <v>412</v>
-      </c>
-      <c r="B40" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>413</v>
+      </c>
+      <c r="B41" t="s">
         <v>414</v>
-      </c>
-      <c r="B41" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>415</v>
+      </c>
+      <c r="B42" t="s">
         <v>416</v>
-      </c>
-      <c r="B42" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>417</v>
+      </c>
+      <c r="B43" t="s">
         <v>418</v>
-      </c>
-      <c r="B43" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>420</v>
+      </c>
+      <c r="B45" t="s">
         <v>421</v>
-      </c>
-      <c r="B45" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B46" t="s">
         <v>423</v>
-      </c>
-      <c r="B46" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>424</v>
+      </c>
+      <c r="B47" t="s">
         <v>425</v>
-      </c>
-      <c r="B47" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B48" t="s">
         <v>427</v>
-      </c>
-      <c r="B48" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>428</v>
+      </c>
+      <c r="B49" t="s">
         <v>429</v>
-      </c>
-      <c r="B49" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>430</v>
+      </c>
+      <c r="B50" t="s">
         <v>431</v>
-      </c>
-      <c r="B50" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -6079,484 +6074,484 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:3">
       <c r="B7" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:5">
       <c r="B8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:11">
       <c r="B9" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:5">
       <c r="B11" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:4">
       <c r="B12" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:4">
       <c r="B14" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:11">
       <c r="B17" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:11">
       <c r="B18" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:6">
       <c r="B19" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:11">
       <c r="A21" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:11">
       <c r="B22" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -6589,572 +6584,572 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:6">
       <c r="B5" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:6">
       <c r="B8" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:6">
       <c r="B9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
       <c r="B11" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:3">
       <c r="B12" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:7">
       <c r="B14" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:5">
       <c r="B15" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:9">
       <c r="B16" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:8">
       <c r="B17" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="2:6">
       <c r="B18" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:9">
       <c r="B19" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:5">
       <c r="B20" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="2:9">
       <c r="B21" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:5">
       <c r="B22" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="2:9">
       <c r="B24" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="2:9">
       <c r="B25" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="2:9">
       <c r="B26" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
       <c r="B27" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:4">
       <c r="B28" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:4">
       <c r="B30" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -7176,57 +7171,57 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="2:2">
@@ -7236,77 +7231,77 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/文案_设定.xlsx
+++ b/策划文档/文案_设定.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20928" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="势力武将" sheetId="6" r:id="rId1"/>
@@ -2346,9 +2346,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -2429,6 +2429,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2440,21 +2469,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2472,17 +2486,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2494,6 +2510,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2502,46 +2526,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2558,6 +2544,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2622,7 +2622,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2634,31 +2784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2670,133 +2796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2839,39 +2839,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2897,6 +2864,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2927,6 +2918,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2943,10 +2943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2955,133 +2955,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3720,8 +3720,8 @@
   <sheetPr/>
   <dimension ref="B1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
